--- a/UnityProject/results.xlsx
+++ b/UnityProject/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="330" windowWidth="113955" windowHeight="16890" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="330" windowWidth="113955" windowHeight="16890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +151,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +169,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -174,15 +186,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -244,7 +259,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.96666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -288,36 +303,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.93333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68072576"/>
-        <c:axId val="68074112"/>
+        <c:axId val="131977984"/>
+        <c:axId val="131979520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68072576"/>
+        <c:axId val="131977984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68074112"/>
+        <c:crossAx val="131979520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68074112"/>
+        <c:axId val="131979520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -325,7 +340,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68072576"/>
+        <c:crossAx val="131977984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -338,7 +353,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -377,13 +392,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>46.948446903669378</c:v>
+                    <c:v>64.455967030398014</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>166.61855638953705</c:v>
+                    <c:v>92.245974068252778</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>248.39645953819692</c:v>
+                    <c:v>178.99620621104802</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -395,13 +410,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>46.948446903669378</c:v>
+                    <c:v>64.455967030398014</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>166.61855638953705</c:v>
+                    <c:v>92.245974068252778</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>248.39645953819692</c:v>
+                    <c:v>178.99620621104802</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -431,13 +446,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1179.3</c:v>
+                  <c:v>1248.7666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1084.0999999999999</c:v>
+                  <c:v>1175.1666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1216.7</c:v>
+                  <c:v>1297.5517241379309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,13 +482,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>415.02998924813693</c:v>
+                    <c:v>185.09066885523671</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>87.498120614737289</c:v>
+                    <c:v>52.45479418250202</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>631.19683142423958</c:v>
+                    <c:v>382.46575435512898</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -485,13 +500,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>415.02998924813693</c:v>
+                    <c:v>185.09066885523671</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>87.498120614737289</c:v>
+                    <c:v>52.45479418250202</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>631.19683142423958</c:v>
+                    <c:v>382.46575435512898</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -521,36 +536,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1765.5555555555557</c:v>
+                  <c:v>1728.6785714285713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1198.0999999999999</c:v>
+                  <c:v>1267.8214285714287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2028.8</c:v>
+                  <c:v>1955.7692307692307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129139840"/>
-        <c:axId val="129142144"/>
+        <c:axId val="133740416"/>
+        <c:axId val="133741952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129139840"/>
+        <c:axId val="133740416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129142144"/>
+        <c:crossAx val="133741952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129142144"/>
+        <c:axId val="133741952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,7 +573,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129139840"/>
+        <c:crossAx val="133740416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -571,7 +586,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -935,7 +950,7 @@
   <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AQ11" sqref="AQ11"/>
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1925,7 +1940,7 @@
       </c>
     </row>
     <row r="5" spans="1:61">
-      <c r="A5">
+      <c r="A5" s="1">
         <f>error!A5</f>
         <v>2</v>
       </c>
@@ -2111,73 +2126,427 @@
       </c>
     </row>
     <row r="6" spans="1:61">
-      <c r="A6">
-        <f>error!A6</f>
-        <v>0</v>
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>56</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>61</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>9</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>7</v>
+      </c>
+      <c r="AD6">
+        <v>12</v>
+      </c>
+      <c r="AE6">
+        <v>6</v>
+      </c>
+      <c r="AF6">
+        <v>5</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6">
+        <v>4</v>
+      </c>
+      <c r="AI6">
+        <v>7</v>
+      </c>
+      <c r="AJ6">
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <v>6</v>
+      </c>
+      <c r="AL6">
+        <v>5</v>
+      </c>
+      <c r="AM6">
+        <v>7</v>
+      </c>
+      <c r="AN6">
+        <v>7</v>
+      </c>
+      <c r="AO6">
+        <v>5</v>
+      </c>
+      <c r="AP6">
+        <v>6</v>
+      </c>
+      <c r="AQ6">
+        <v>-1</v>
+      </c>
+      <c r="AR6">
+        <v>8</v>
+      </c>
+      <c r="AS6">
+        <v>-1</v>
+      </c>
+      <c r="AT6">
+        <v>6</v>
+      </c>
+      <c r="AU6">
+        <v>-1</v>
+      </c>
+      <c r="AV6">
+        <v>11</v>
+      </c>
+      <c r="AW6">
+        <v>4</v>
+      </c>
+      <c r="AX6">
+        <v>4</v>
+      </c>
+      <c r="AY6">
+        <v>-1</v>
+      </c>
+      <c r="AZ6">
+        <v>10</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>9</v>
+      </c>
+      <c r="BC6">
+        <v>-1</v>
+      </c>
+      <c r="BD6">
+        <v>7</v>
+      </c>
+      <c r="BE6">
+        <v>-1</v>
+      </c>
+      <c r="BF6">
+        <v>6</v>
+      </c>
+      <c r="BG6">
+        <v>-1</v>
+      </c>
+      <c r="BH6">
+        <v>7</v>
+      </c>
+      <c r="BI6">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:61">
-      <c r="A7">
-        <f>error!A7</f>
-        <v>0</v>
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>16</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>14</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>4</v>
+      </c>
+      <c r="AC7">
+        <v>8</v>
+      </c>
+      <c r="AD7">
+        <v>13</v>
+      </c>
+      <c r="AE7">
+        <v>11</v>
+      </c>
+      <c r="AF7">
+        <v>13</v>
+      </c>
+      <c r="AG7" s="2"/>
+      <c r="AH7">
+        <v>8</v>
+      </c>
+      <c r="AI7">
+        <v>7</v>
+      </c>
+      <c r="AJ7">
+        <v>6</v>
+      </c>
+      <c r="AK7">
+        <v>3</v>
+      </c>
+      <c r="AL7">
+        <v>9</v>
+      </c>
+      <c r="AM7">
+        <v>22</v>
+      </c>
+      <c r="AN7">
+        <v>5</v>
+      </c>
+      <c r="AO7">
+        <v>13</v>
+      </c>
+      <c r="AP7">
+        <v>7</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>17</v>
+      </c>
+      <c r="AS7">
+        <v>-1</v>
+      </c>
+      <c r="AT7">
+        <v>9</v>
+      </c>
+      <c r="AU7">
+        <v>13</v>
+      </c>
+      <c r="AV7">
+        <v>-1</v>
+      </c>
+      <c r="AW7">
+        <v>-1</v>
+      </c>
+      <c r="AX7">
+        <v>7</v>
+      </c>
+      <c r="AY7">
+        <v>-1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>-1</v>
+      </c>
+      <c r="BB7">
+        <v>17</v>
+      </c>
+      <c r="BC7">
+        <v>8</v>
+      </c>
+      <c r="BD7">
+        <v>2</v>
+      </c>
+      <c r="BE7">
+        <v>2</v>
+      </c>
+      <c r="BF7">
+        <v>13</v>
+      </c>
+      <c r="BG7">
+        <v>12</v>
+      </c>
+      <c r="BH7">
+        <v>12</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:61">
-      <c r="A8">
+      <c r="A8" s="1">
         <f>error!A8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:61">
-      <c r="A9">
+      <c r="A9" s="1">
         <f>error!A9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:61">
-      <c r="A10">
+      <c r="A10" s="1">
         <f>error!A10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:61">
-      <c r="A11">
+      <c r="A11" s="1">
         <f>error!A11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:61">
-      <c r="A12">
+      <c r="A12" s="1">
         <f>error!A12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:61">
-      <c r="A13">
+      <c r="A13" s="1">
         <f>error!A13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:61">
-      <c r="A14">
+      <c r="A14" s="1">
         <f>error!A14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:61">
-      <c r="A15">
+      <c r="A15" s="1">
         <f>error!A15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:61">
-      <c r="A16">
+      <c r="A16" s="1">
         <f>error!A16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17">
+      <c r="A17" s="1">
         <f>error!A17</f>
         <v>0</v>
       </c>
@@ -2191,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ26" sqref="AJ26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2671,7 +3040,7 @@
         <v>(para)foveal</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:V3" si="6">C3</f>
+        <f t="shared" ref="E3:U3" si="6">C3</f>
         <v>peripheral</v>
       </c>
       <c r="F3" t="str">
@@ -2962,249 +3331,760 @@
       </c>
     </row>
     <row r="5" spans="1:61">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5">
-        <f>IF(AND(distance!B5&lt;25,distance!B5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!B5&lt;80,distance!B5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="C5">
-        <f>IF(AND(distance!C5&lt;25,distance!C5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!C5&lt;80,distance!C5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="D5">
-        <f>IF(AND(distance!D5&lt;25,distance!D5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!D5&lt;80,distance!D5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="E5">
-        <f>IF(AND(distance!E5&lt;25,distance!E5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!E5&lt;80,distance!E5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f>IF(AND(distance!F5&lt;25,distance!F5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!F5&lt;80,distance!F5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="G5">
-        <f>IF(AND(distance!G5&lt;25,distance!G5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!G5&lt;80,distance!G5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="H5">
-        <f>IF(AND(distance!H5&lt;25,distance!H5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!H5&lt;80,distance!H5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="I5">
-        <f>IF(AND(distance!I5&lt;25,distance!I5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!I5&lt;80,distance!I5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="J5">
-        <f>IF(AND(distance!J5&lt;25,distance!J5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!J5&lt;80,distance!J5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f>IF(AND(distance!K5&lt;25,distance!K5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!K5&lt;80,distance!K5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="L5">
-        <f>IF(AND(distance!L5&lt;25,distance!L5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!L5&lt;80,distance!L5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="M5">
-        <f>IF(AND(distance!M5&lt;25,distance!M5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!M5&lt;80,distance!M5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="N5">
-        <f>IF(AND(distance!N5&lt;25,distance!N5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!N5&lt;80,distance!N5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="O5">
-        <f>IF(AND(distance!O5&lt;25,distance!O5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!O5&lt;80,distance!O5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="P5">
-        <f>IF(AND(distance!P5&lt;25,distance!P5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!P5&lt;80,distance!P5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="Q5">
-        <f>IF(AND(distance!Q5&lt;25,distance!Q5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!Q5&lt;80,distance!Q5&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>IF(AND(distance!R5&lt;25,distance!R5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!R5&lt;80,distance!R5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="S5">
-        <f>IF(AND(distance!S5&lt;25,distance!S5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!S5&lt;80,distance!S5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="T5">
-        <f>IF(AND(distance!T5&lt;25,distance!T5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!T5&lt;80,distance!T5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="U5">
-        <f>IF(AND(distance!U5&lt;25,distance!U5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!U5&lt;80,distance!U5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="V5">
-        <f>IF(AND(distance!V5&lt;25,distance!V5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!V5&lt;80,distance!V5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="W5">
-        <f>IF(AND(distance!W5&lt;25,distance!W5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!W5&lt;80,distance!W5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="X5">
-        <f>IF(AND(distance!X5&lt;25,distance!X5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!X5&lt;80,distance!X5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="Y5">
-        <f>IF(AND(distance!Y5&lt;25,distance!Y5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!Y5&lt;80,distance!Y5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="Z5">
-        <f>IF(AND(distance!Z5&lt;25,distance!Z5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!Z5&lt;80,distance!Z5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AA5">
-        <f>IF(AND(distance!AA5&lt;25,distance!AA5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AA5&lt;80,distance!AA5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AB5">
-        <f>IF(AND(distance!AB5&lt;25,distance!AB5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AB5&lt;80,distance!AB5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AC5">
-        <f>IF(AND(distance!AC5&lt;25,distance!AC5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AC5&lt;80,distance!AC5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AD5">
-        <f>IF(AND(distance!AD5&lt;25,distance!AD5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AD5&lt;80,distance!AD5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AE5">
-        <f>IF(AND(distance!AE5&lt;25,distance!AE5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AE5&lt;80,distance!AE5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AF5">
-        <f>IF(AND(distance!AF5&lt;25,distance!AF5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AF5&lt;80,distance!AF5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AG5">
-        <f>IF(AND(distance!AG5&lt;25,distance!AG5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AG5&lt;80,distance!AG5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AH5">
-        <f>IF(AND(distance!AH5&lt;25,distance!AH5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AH5&lt;80,distance!AH5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AI5">
-        <f>IF(AND(distance!AI5&lt;25,distance!AI5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AI5&lt;80,distance!AI5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AJ5">
-        <f>IF(AND(distance!AJ5&lt;25,distance!AJ5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AJ5&lt;80,distance!AJ5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AK5">
-        <f>IF(AND(distance!AK5&lt;25,distance!AK5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AK5&lt;80,distance!AK5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AL5">
-        <f>IF(AND(distance!AL5&lt;25,distance!AL5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AL5&lt;80,distance!AL5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AM5">
-        <f>IF(AND(distance!AM5&lt;25,distance!AM5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AM5&lt;80,distance!AM5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AN5">
-        <f>IF(AND(distance!AN5&lt;25,distance!AN5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AN5&lt;80,distance!AN5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AO5">
-        <f>IF(AND(distance!AO5&lt;25,distance!AO5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AO5&lt;80,distance!AO5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AP5">
-        <f>IF(AND(distance!AP5&lt;25,distance!AP5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AP5&lt;80,distance!AP5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AQ5">
-        <f>IF(AND(distance!AQ5&lt;25,distance!AQ5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AQ5&lt;80,distance!AQ5&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="AR5">
-        <f>IF(AND(distance!AR5&lt;25,distance!AR5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AR5&lt;80,distance!AR5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AS5">
-        <f>IF(AND(distance!AS5&lt;25,distance!AS5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AS5&lt;80,distance!AS5&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="AT5">
-        <f>IF(AND(distance!AT5&lt;25,distance!AT5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AT5&lt;80,distance!AT5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AU5">
-        <f>IF(AND(distance!AU5&lt;25,distance!AU5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AU5&lt;80,distance!AU5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AV5">
-        <f>IF(AND(distance!AV5&lt;25,distance!AV5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AV5&lt;80,distance!AV5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AW5">
-        <f>IF(AND(distance!AW5&lt;25,distance!AW5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AW5&lt;80,distance!AW5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AX5">
-        <f>IF(AND(distance!AX5&lt;25,distance!AX5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AX5&lt;80,distance!AX5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AY5">
-        <f>IF(AND(distance!AY5&lt;25,distance!AY5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AY5&lt;80,distance!AY5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AZ5">
-        <f>IF(AND(distance!AZ5&lt;25,distance!AZ5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!AZ5&lt;80,distance!AZ5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="BA5">
-        <f>IF(AND(distance!BA5&lt;25,distance!BA5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!BA5&lt;80,distance!BA5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="BB5">
-        <f>IF(AND(distance!BB5&lt;25,distance!BB5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!BB5&lt;80,distance!BB5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="BC5">
-        <f>IF(AND(distance!BC5&lt;25,distance!BC5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!BC5&lt;80,distance!BC5&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="BD5">
-        <f>IF(AND(distance!BD5&lt;25,distance!BD5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!BD5&lt;80,distance!BD5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="BE5">
-        <f>IF(AND(distance!BE5&lt;25,distance!BE5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!BE5&lt;80,distance!BE5&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="BF5">
-        <f>IF(AND(distance!BF5&lt;25,distance!BF5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!BF5&lt;80,distance!BF5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="BG5">
-        <f>IF(AND(distance!BG5&lt;25,distance!BG5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!BG5&lt;80,distance!BG5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="BH5">
-        <f>IF(AND(distance!BH5&lt;25,distance!BH5&gt;=0),1,0)</f>
+        <f>IF(AND(distance!BH5&lt;80,distance!BH5&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="BI5">
-        <f>IF(AND(distance!BI5&lt;25,distance!BI5&gt;=0),1,0)</f>
-        <v>0</v>
-      </c>
+        <f>IF(AND(distance!BI5&lt;80,distance!BI5&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f>IF(AND(distance!B6&lt;80,distance!B6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>IF(AND(distance!C6&lt;80,distance!C6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>IF(AND(distance!D6&lt;80,distance!D6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>IF(AND(distance!E6&lt;80,distance!E6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>IF(AND(distance!F6&lt;80,distance!F6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>IF(AND(distance!G6&lt;80,distance!G6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>IF(AND(distance!H6&lt;80,distance!H6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>IF(AND(distance!I6&lt;80,distance!I6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>IF(AND(distance!J6&lt;80,distance!J6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>IF(AND(distance!K6&lt;80,distance!K6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>IF(AND(distance!L6&lt;80,distance!L6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>IF(AND(distance!M6&lt;80,distance!M6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>IF(AND(distance!N6&lt;80,distance!N6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>IF(AND(distance!O6&lt;80,distance!O6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f>IF(AND(distance!P6&lt;80,distance!P6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f>IF(AND(distance!Q6&lt;80,distance!Q6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f>IF(AND(distance!R6&lt;80,distance!R6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f>IF(AND(distance!S6&lt;80,distance!S6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f>IF(AND(distance!T6&lt;80,distance!T6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f>IF(AND(distance!U6&lt;80,distance!U6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f>IF(AND(distance!V6&lt;80,distance!V6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <f>IF(AND(distance!W6&lt;80,distance!W6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <f>IF(AND(distance!X6&lt;80,distance!X6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <f>IF(AND(distance!Y6&lt;80,distance!Y6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <f>IF(AND(distance!Z6&lt;80,distance!Z6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <f>IF(AND(distance!AA6&lt;80,distance!AA6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <f>IF(AND(distance!AB6&lt;80,distance!AB6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <f>IF(AND(distance!AC6&lt;80,distance!AC6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <f>IF(AND(distance!AD6&lt;80,distance!AD6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <f>IF(AND(distance!AE6&lt;80,distance!AE6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <f>IF(AND(distance!AF6&lt;80,distance!AF6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <f>IF(AND(distance!AG6&lt;80,distance!AG6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <f>IF(AND(distance!AH6&lt;80,distance!AH6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <f>IF(AND(distance!AI6&lt;80,distance!AI6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <f>IF(AND(distance!AJ6&lt;80,distance!AJ6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <f>IF(AND(distance!AK6&lt;80,distance!AK6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <f>IF(AND(distance!AL6&lt;80,distance!AL6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <f>IF(AND(distance!AM6&lt;80,distance!AM6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <f>IF(AND(distance!AN6&lt;80,distance!AN6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <f>IF(AND(distance!AO6&lt;80,distance!AO6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <f>IF(AND(distance!AP6&lt;80,distance!AP6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <f>IF(AND(distance!AQ6&lt;80,distance!AQ6&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <f>IF(AND(distance!AR6&lt;80,distance!AR6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <f>IF(AND(distance!AS6&lt;80,distance!AS6&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <f>IF(AND(distance!AT6&lt;80,distance!AT6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <f>IF(AND(distance!AU6&lt;80,distance!AU6&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <f>IF(AND(distance!AV6&lt;80,distance!AV6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <f>IF(AND(distance!AW6&lt;80,distance!AW6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <f>IF(AND(distance!AX6&lt;80,distance!AX6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <f>IF(AND(distance!AY6&lt;80,distance!AY6&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <f>IF(AND(distance!AZ6&lt;80,distance!AZ6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <f>IF(AND(distance!BA6&lt;80,distance!BA6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <f>IF(AND(distance!BB6&lt;80,distance!BB6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <f>IF(AND(distance!BC6&lt;80,distance!BC6&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <f>IF(AND(distance!BD6&lt;80,distance!BD6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <f>IF(AND(distance!BE6&lt;80,distance!BE6&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <f>IF(AND(distance!BF6&lt;80,distance!BF6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <f>IF(AND(distance!BG6&lt;80,distance!BG6&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <f>IF(AND(distance!BH6&lt;80,distance!BH6&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <f>IF(AND(distance!BI6&lt;80,distance!BI6&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>IF(AND(distance!B7&lt;80,distance!B7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>IF(AND(distance!C7&lt;80,distance!C7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>IF(AND(distance!D7&lt;80,distance!D7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>IF(AND(distance!E7&lt;80,distance!E7&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>IF(AND(distance!F7&lt;80,distance!F7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>IF(AND(distance!G7&lt;80,distance!G7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>IF(AND(distance!H7&lt;80,distance!H7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>IF(AND(distance!I7&lt;80,distance!I7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>IF(AND(distance!J7&lt;80,distance!J7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>IF(AND(distance!K7&lt;80,distance!K7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>IF(AND(distance!L7&lt;80,distance!L7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>IF(AND(distance!M7&lt;80,distance!M7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f>IF(AND(distance!N7&lt;80,distance!N7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f>IF(AND(distance!O7&lt;80,distance!O7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f>IF(AND(distance!P7&lt;80,distance!P7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f>IF(AND(distance!Q7&lt;80,distance!Q7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f>IF(AND(distance!R7&lt;80,distance!R7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f>IF(AND(distance!S7&lt;80,distance!S7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f>IF(AND(distance!T7&lt;80,distance!T7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f>IF(AND(distance!U7&lt;80,distance!U7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f>IF(AND(distance!V7&lt;80,distance!V7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7">
+        <f>IF(AND(distance!X7&lt;80,distance!X7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <f>IF(AND(distance!Y7&lt;80,distance!Y7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <f>IF(AND(distance!Z7&lt;80,distance!Z7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <f>IF(AND(distance!AA7&lt;80,distance!AA7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <f>IF(AND(distance!AB7&lt;80,distance!AB7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <f>IF(AND(distance!AC7&lt;80,distance!AC7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <f>IF(AND(distance!AD7&lt;80,distance!AD7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <f>IF(AND(distance!AE7&lt;80,distance!AE7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <f>IF(AND(distance!AF7&lt;80,distance!AF7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG7" s="2"/>
+      <c r="AH7">
+        <f>IF(AND(distance!AH7&lt;80,distance!AH7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <f>IF(AND(distance!AI7&lt;80,distance!AI7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <f>IF(AND(distance!AJ7&lt;80,distance!AJ7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <f>IF(AND(distance!AK7&lt;80,distance!AK7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <f>IF(AND(distance!AL7&lt;80,distance!AL7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <f>IF(AND(distance!AM7&lt;80,distance!AM7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <f>IF(AND(distance!AN7&lt;80,distance!AN7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <f>IF(AND(distance!AO7&lt;80,distance!AO7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <f>IF(AND(distance!AP7&lt;80,distance!AP7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <f>IF(AND(distance!AQ7&lt;80,distance!AQ7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <f>IF(AND(distance!AR7&lt;80,distance!AR7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <f>IF(AND(distance!AS7&lt;80,distance!AS7&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <f>IF(AND(distance!AT7&lt;80,distance!AT7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <f>IF(AND(distance!AU7&lt;80,distance!AU7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <f>IF(AND(distance!AV7&lt;80,distance!AV7&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <f>IF(AND(distance!AW7&lt;80,distance!AW7&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <f>IF(AND(distance!AX7&lt;80,distance!AX7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <f>IF(AND(distance!AY7&lt;80,distance!AY7&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <f>IF(AND(distance!AZ7&lt;80,distance!AZ7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <f>IF(AND(distance!BA7&lt;80,distance!BA7&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <f>IF(AND(distance!BB7&lt;80,distance!BB7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <f>IF(AND(distance!BC7&lt;80,distance!BC7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <f>IF(AND(distance!BD7&lt;80,distance!BD7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <f>IF(AND(distance!BE7&lt;80,distance!BE7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <f>IF(AND(distance!BF7&lt;80,distance!BF7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <f>IF(AND(distance!BG7&lt;80,distance!BG7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <f>IF(AND(distance!BH7&lt;80,distance!BH7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <f>IF(AND(distance!BI7&lt;80,distance!BI7&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:61">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:61">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:61">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:61">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:61">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:61">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:61">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:61">
+      <c r="A16" s="1"/>
     </row>
     <row r="20" spans="1:43">
       <c r="B20" t="str">
@@ -3212,11 +4092,11 @@
         <v>AF</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ref="C20:F20" si="47">C1</f>
+        <f t="shared" ref="C20" si="47">C1</f>
         <v>AF</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" ref="G20:AS20" si="48">V1</f>
+        <f t="shared" ref="V20:AQ20" si="48">V1</f>
         <v>SL</v>
       </c>
       <c r="W20" t="str">
@@ -3238,11 +4118,11 @@
         <v>(para)foveal</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:F21" si="49">C3</f>
+        <f t="shared" ref="C21" si="49">C3</f>
         <v>peripheral</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" ref="G21:AS21" si="50">V3</f>
+        <f t="shared" ref="V21:AQ21" si="50">V3</f>
         <v>(para)foveal</v>
       </c>
       <c r="W21" t="str">
@@ -3265,7 +4145,7 @@
       </c>
       <c r="C22">
         <f t="shared" ref="C22:AQ22" si="51">SUM(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)/COUNT(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)</f>
-        <v>0.9</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="V22">
         <f t="shared" si="51"/>
@@ -3277,11 +4157,11 @@
       </c>
       <c r="AP22">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="51"/>
-        <v>0.5</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -3313,7 +4193,7 @@
       </c>
       <c r="D29">
         <f>AP22</f>
-        <v>1</v>
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -3323,7 +4203,7 @@
       </c>
       <c r="B30">
         <f>C22</f>
-        <v>0.9</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="C30">
         <f>W22</f>
@@ -3331,7 +4211,7 @@
       </c>
       <c r="D30">
         <f>AQ22</f>
-        <v>0.5</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -3344,8 +4224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="U64" sqref="U64:V64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4523,13 +5403,373 @@
     <row r="6" spans="1:61">
       <c r="A6">
         <f>error!A6</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1265</v>
+      </c>
+      <c r="C6">
+        <v>2416</v>
+      </c>
+      <c r="D6">
+        <v>815</v>
+      </c>
+      <c r="E6">
+        <v>1049</v>
+      </c>
+      <c r="F6">
+        <v>965</v>
+      </c>
+      <c r="G6">
+        <v>1182</v>
+      </c>
+      <c r="H6">
+        <v>1315</v>
+      </c>
+      <c r="I6">
+        <v>2129</v>
+      </c>
+      <c r="J6">
+        <v>665</v>
+      </c>
+      <c r="K6">
+        <v>782</v>
+      </c>
+      <c r="L6">
+        <v>1786</v>
+      </c>
+      <c r="M6">
+        <v>1836</v>
+      </c>
+      <c r="N6">
+        <v>1399</v>
+      </c>
+      <c r="O6">
+        <v>1382</v>
+      </c>
+      <c r="P6">
+        <v>1015</v>
+      </c>
+      <c r="Q6">
+        <v>1115</v>
+      </c>
+      <c r="R6">
+        <v>1069</v>
+      </c>
+      <c r="S6">
+        <v>752</v>
+      </c>
+      <c r="T6">
+        <v>1365</v>
+      </c>
+      <c r="U6">
+        <v>1679</v>
+      </c>
+      <c r="V6">
+        <v>1496</v>
+      </c>
+      <c r="W6">
+        <v>928</v>
+      </c>
+      <c r="X6">
+        <v>832</v>
+      </c>
+      <c r="Y6">
+        <v>1283</v>
+      </c>
+      <c r="Z6">
+        <v>962</v>
+      </c>
+      <c r="AA6">
+        <v>1046</v>
+      </c>
+      <c r="AB6">
+        <v>842</v>
+      </c>
+      <c r="AC6">
+        <v>1701</v>
+      </c>
+      <c r="AD6">
+        <v>812</v>
+      </c>
+      <c r="AE6">
+        <v>1213</v>
+      </c>
+      <c r="AF6">
+        <v>828</v>
+      </c>
+      <c r="AG6">
+        <v>1325</v>
+      </c>
+      <c r="AH6">
+        <v>850</v>
+      </c>
+      <c r="AI6">
+        <v>1079</v>
+      </c>
+      <c r="AJ6">
+        <v>595</v>
+      </c>
+      <c r="AK6">
+        <v>1429</v>
+      </c>
+      <c r="AL6">
+        <v>846</v>
+      </c>
+      <c r="AM6">
+        <v>1496</v>
+      </c>
+      <c r="AN6">
+        <v>1108</v>
+      </c>
+      <c r="AO6">
+        <v>829</v>
+      </c>
+      <c r="AP6">
+        <v>4334</v>
+      </c>
+      <c r="AQ6">
+        <v>5005</v>
+      </c>
+      <c r="AR6">
+        <v>697</v>
+      </c>
+      <c r="AS6">
+        <v>5001</v>
+      </c>
+      <c r="AT6">
+        <v>1131</v>
+      </c>
+      <c r="AU6">
+        <v>5001</v>
+      </c>
+      <c r="AV6">
+        <v>1815</v>
+      </c>
+      <c r="AW6">
+        <v>2516</v>
+      </c>
+      <c r="AX6">
+        <v>798</v>
+      </c>
+      <c r="AY6">
+        <v>5001</v>
+      </c>
+      <c r="AZ6">
+        <v>931</v>
+      </c>
+      <c r="BA6">
+        <v>885</v>
+      </c>
+      <c r="BB6">
+        <v>931</v>
+      </c>
+      <c r="BC6">
+        <v>5018</v>
+      </c>
+      <c r="BD6">
+        <v>730</v>
+      </c>
+      <c r="BE6">
+        <v>5001</v>
+      </c>
+      <c r="BF6">
+        <v>1198</v>
+      </c>
+      <c r="BG6">
+        <v>5001</v>
+      </c>
+      <c r="BH6">
+        <v>761</v>
+      </c>
+      <c r="BI6">
+        <v>5001</v>
       </c>
     </row>
     <row r="7" spans="1:61">
       <c r="A7">
         <f>error!A7</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>998</v>
+      </c>
+      <c r="C7">
+        <v>1215</v>
+      </c>
+      <c r="D7">
+        <v>1449</v>
+      </c>
+      <c r="E7">
+        <v>5002</v>
+      </c>
+      <c r="F7">
+        <v>1265</v>
+      </c>
+      <c r="G7">
+        <v>2099</v>
+      </c>
+      <c r="H7">
+        <v>1299</v>
+      </c>
+      <c r="I7">
+        <v>3121</v>
+      </c>
+      <c r="J7">
+        <v>2316</v>
+      </c>
+      <c r="K7">
+        <v>1152</v>
+      </c>
+      <c r="L7">
+        <v>1119</v>
+      </c>
+      <c r="M7">
+        <v>1165</v>
+      </c>
+      <c r="N7">
+        <v>1065</v>
+      </c>
+      <c r="O7">
+        <v>2433</v>
+      </c>
+      <c r="P7">
+        <v>1182</v>
+      </c>
+      <c r="Q7">
+        <v>1069</v>
+      </c>
+      <c r="R7">
+        <v>1065</v>
+      </c>
+      <c r="S7">
+        <v>1799</v>
+      </c>
+      <c r="T7">
+        <v>2253</v>
+      </c>
+      <c r="U7">
+        <v>4138</v>
+      </c>
+      <c r="V7">
+        <v>2647</v>
+      </c>
+      <c r="W7">
+        <v>928</v>
+      </c>
+      <c r="X7">
+        <v>946</v>
+      </c>
+      <c r="Y7">
+        <v>1780</v>
+      </c>
+      <c r="Z7">
+        <v>1226</v>
+      </c>
+      <c r="AA7">
+        <v>1730</v>
+      </c>
+      <c r="AB7">
+        <v>1646</v>
+      </c>
+      <c r="AC7">
+        <v>1429</v>
+      </c>
+      <c r="AD7">
+        <v>1730</v>
+      </c>
+      <c r="AE7">
+        <v>946</v>
+      </c>
+      <c r="AF7">
+        <v>1813</v>
+      </c>
+      <c r="AG7">
+        <v>662</v>
+      </c>
+      <c r="AH7">
+        <v>1179</v>
+      </c>
+      <c r="AI7">
+        <v>1196</v>
+      </c>
+      <c r="AJ7">
+        <v>1630</v>
+      </c>
+      <c r="AK7">
+        <v>1463</v>
+      </c>
+      <c r="AL7">
+        <v>846</v>
+      </c>
+      <c r="AM7">
+        <v>1429</v>
+      </c>
+      <c r="AN7">
+        <v>1580</v>
+      </c>
+      <c r="AO7">
+        <v>1216</v>
+      </c>
+      <c r="AP7">
+        <v>651</v>
+      </c>
+      <c r="AQ7">
+        <v>869</v>
+      </c>
+      <c r="AR7">
+        <v>935</v>
+      </c>
+      <c r="AS7">
+        <v>5001</v>
+      </c>
+      <c r="AT7">
+        <v>1348</v>
+      </c>
+      <c r="AU7">
+        <v>2616</v>
+      </c>
+      <c r="AV7">
+        <v>264</v>
+      </c>
+      <c r="AW7">
+        <v>5000</v>
+      </c>
+      <c r="AX7">
+        <v>1198</v>
+      </c>
+      <c r="AY7">
+        <v>5001</v>
+      </c>
+      <c r="AZ7">
+        <v>881</v>
+      </c>
+      <c r="BA7">
+        <v>5001</v>
+      </c>
+      <c r="BB7">
+        <v>4147</v>
+      </c>
+      <c r="BC7">
+        <v>977</v>
+      </c>
+      <c r="BD7">
+        <v>764</v>
+      </c>
+      <c r="BE7">
+        <v>781</v>
+      </c>
+      <c r="BF7">
+        <v>1398</v>
+      </c>
+      <c r="BG7">
+        <v>5006</v>
+      </c>
+      <c r="BH7">
+        <v>814</v>
+      </c>
+      <c r="BI7">
+        <v>1631</v>
       </c>
     </row>
     <row r="8" spans="1:61">
@@ -4803,7 +6043,7 @@
     </row>
     <row r="28" spans="1:61">
       <c r="A28">
-        <f t="shared" ref="A28:F30" si="1">A2</f>
+        <f t="shared" ref="A28:A29" si="1">A2</f>
         <v>0</v>
       </c>
       <c r="B28" t="str">
@@ -5542,50 +6782,2216 @@
     <row r="31" spans="1:61">
       <c r="A31">
         <f t="shared" ref="A31:A36" si="4">A6</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <f>IF(error!B6=1,time!B6,"")</f>
+        <v>1265</v>
+      </c>
+      <c r="C31">
+        <f>IF(error!C6=1,time!C6,"")</f>
+        <v>2416</v>
+      </c>
+      <c r="D31">
+        <f>IF(error!D6=1,time!D6,"")</f>
+        <v>815</v>
+      </c>
+      <c r="E31">
+        <f>IF(error!E6=1,time!E6,"")</f>
+        <v>1049</v>
+      </c>
+      <c r="F31">
+        <f>IF(error!F6=1,time!F6,"")</f>
+        <v>965</v>
+      </c>
+      <c r="G31">
+        <f>IF(error!G6=1,time!G6,"")</f>
+        <v>1182</v>
+      </c>
+      <c r="H31">
+        <f>IF(error!H6=1,time!H6,"")</f>
+        <v>1315</v>
+      </c>
+      <c r="I31">
+        <f>IF(error!I6=1,time!I6,"")</f>
+        <v>2129</v>
+      </c>
+      <c r="J31">
+        <f>IF(error!J6=1,time!J6,"")</f>
+        <v>665</v>
+      </c>
+      <c r="K31">
+        <f>IF(error!K6=1,time!K6,"")</f>
+        <v>782</v>
+      </c>
+      <c r="L31">
+        <f>IF(error!L6=1,time!L6,"")</f>
+        <v>1786</v>
+      </c>
+      <c r="M31">
+        <f>IF(error!M6=1,time!M6,"")</f>
+        <v>1836</v>
+      </c>
+      <c r="N31">
+        <f>IF(error!N6=1,time!N6,"")</f>
+        <v>1399</v>
+      </c>
+      <c r="O31">
+        <f>IF(error!O6=1,time!O6,"")</f>
+        <v>1382</v>
+      </c>
+      <c r="P31">
+        <f>IF(error!P6=1,time!P6,"")</f>
+        <v>1015</v>
+      </c>
+      <c r="Q31">
+        <f>IF(error!Q6=1,time!Q6,"")</f>
+        <v>1115</v>
+      </c>
+      <c r="R31">
+        <f>IF(error!R6=1,time!R6,"")</f>
+        <v>1069</v>
+      </c>
+      <c r="S31">
+        <f>IF(error!S6=1,time!S6,"")</f>
+        <v>752</v>
+      </c>
+      <c r="T31">
+        <f>IF(error!T6=1,time!T6,"")</f>
+        <v>1365</v>
+      </c>
+      <c r="U31">
+        <f>IF(error!U6=1,time!U6,"")</f>
+        <v>1679</v>
+      </c>
+      <c r="V31">
+        <f>IF(error!V6=1,time!V6,"")</f>
+        <v>1496</v>
+      </c>
+      <c r="W31">
+        <f>IF(error!W6=1,time!W6,"")</f>
+        <v>928</v>
+      </c>
+      <c r="X31">
+        <f>IF(error!X6=1,time!X6,"")</f>
+        <v>832</v>
+      </c>
+      <c r="Y31">
+        <f>IF(error!Y6=1,time!Y6,"")</f>
+        <v>1283</v>
+      </c>
+      <c r="Z31">
+        <f>IF(error!Z6=1,time!Z6,"")</f>
+        <v>962</v>
+      </c>
+      <c r="AA31">
+        <f>IF(error!AA6=1,time!AA6,"")</f>
+        <v>1046</v>
+      </c>
+      <c r="AB31">
+        <f>IF(error!AB6=1,time!AB6,"")</f>
+        <v>842</v>
+      </c>
+      <c r="AC31">
+        <f>IF(error!AC6=1,time!AC6,"")</f>
+        <v>1701</v>
+      </c>
+      <c r="AD31">
+        <f>IF(error!AD6=1,time!AD6,"")</f>
+        <v>812</v>
+      </c>
+      <c r="AE31">
+        <f>IF(error!AE6=1,time!AE6,"")</f>
+        <v>1213</v>
+      </c>
+      <c r="AF31">
+        <f>IF(error!AF6=1,time!AF6,"")</f>
+        <v>828</v>
+      </c>
+      <c r="AG31">
+        <f>IF(error!AG6=1,time!AG6,"")</f>
+        <v>1325</v>
+      </c>
+      <c r="AH31">
+        <f>IF(error!AH6=1,time!AH6,"")</f>
+        <v>850</v>
+      </c>
+      <c r="AI31">
+        <f>IF(error!AI6=1,time!AI6,"")</f>
+        <v>1079</v>
+      </c>
+      <c r="AJ31">
+        <f>IF(error!AJ6=1,time!AJ6,"")</f>
+        <v>595</v>
+      </c>
+      <c r="AK31">
+        <f>IF(error!AK6=1,time!AK6,"")</f>
+        <v>1429</v>
+      </c>
+      <c r="AL31">
+        <f>IF(error!AL6=1,time!AL6,"")</f>
+        <v>846</v>
+      </c>
+      <c r="AM31">
+        <f>IF(error!AM6=1,time!AM6,"")</f>
+        <v>1496</v>
+      </c>
+      <c r="AN31">
+        <f>IF(error!AN6=1,time!AN6,"")</f>
+        <v>1108</v>
+      </c>
+      <c r="AO31">
+        <f>IF(error!AO6=1,time!AO6,"")</f>
+        <v>829</v>
+      </c>
+      <c r="AP31">
+        <f>IF(error!AP6=1,time!AP6,"")</f>
+        <v>4334</v>
+      </c>
+      <c r="AQ31" t="str">
+        <f>IF(error!AQ6=1,time!AQ6,"")</f>
+        <v/>
+      </c>
+      <c r="AR31">
+        <f>IF(error!AR6=1,time!AR6,"")</f>
+        <v>697</v>
+      </c>
+      <c r="AS31" t="str">
+        <f>IF(error!AS6=1,time!AS6,"")</f>
+        <v/>
+      </c>
+      <c r="AT31">
+        <f>IF(error!AT6=1,time!AT6,"")</f>
+        <v>1131</v>
+      </c>
+      <c r="AU31" t="str">
+        <f>IF(error!AU6=1,time!AU6,"")</f>
+        <v/>
+      </c>
+      <c r="AV31">
+        <f>IF(error!AV6=1,time!AV6,"")</f>
+        <v>1815</v>
+      </c>
+      <c r="AW31">
+        <f>IF(error!AW6=1,time!AW6,"")</f>
+        <v>2516</v>
+      </c>
+      <c r="AX31">
+        <f>IF(error!AX6=1,time!AX6,"")</f>
+        <v>798</v>
+      </c>
+      <c r="AY31" t="str">
+        <f>IF(error!AY6=1,time!AY6,"")</f>
+        <v/>
+      </c>
+      <c r="AZ31">
+        <f>IF(error!AZ6=1,time!AZ6,"")</f>
+        <v>931</v>
+      </c>
+      <c r="BA31">
+        <f>IF(error!BA6=1,time!BA6,"")</f>
+        <v>885</v>
+      </c>
+      <c r="BB31">
+        <f>IF(error!BB6=1,time!BB6,"")</f>
+        <v>931</v>
+      </c>
+      <c r="BC31" t="str">
+        <f>IF(error!BC6=1,time!BC6,"")</f>
+        <v/>
+      </c>
+      <c r="BD31">
+        <f>IF(error!BD6=1,time!BD6,"")</f>
+        <v>730</v>
+      </c>
+      <c r="BE31" t="str">
+        <f>IF(error!BE6=1,time!BE6,"")</f>
+        <v/>
+      </c>
+      <c r="BF31">
+        <f>IF(error!BF6=1,time!BF6,"")</f>
+        <v>1198</v>
+      </c>
+      <c r="BG31" t="str">
+        <f>IF(error!BG6=1,time!BG6,"")</f>
+        <v/>
+      </c>
+      <c r="BH31">
+        <f>IF(error!BH6=1,time!BH6,"")</f>
+        <v>761</v>
+      </c>
+      <c r="BI31" t="str">
+        <f>IF(error!BI6=1,time!BI6,"")</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:61">
       <c r="A32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <f>IF(error!B7=1,time!B7,"")</f>
+        <v>998</v>
+      </c>
+      <c r="C32">
+        <f>IF(error!C7=1,time!C7,"")</f>
+        <v>1215</v>
+      </c>
+      <c r="D32">
+        <f>IF(error!D7=1,time!D7,"")</f>
+        <v>1449</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(error!E7=1,time!E7,"")</f>
+        <v/>
+      </c>
+      <c r="F32">
+        <f>IF(error!F7=1,time!F7,"")</f>
+        <v>1265</v>
+      </c>
+      <c r="G32">
+        <f>IF(error!G7=1,time!G7,"")</f>
+        <v>2099</v>
+      </c>
+      <c r="H32">
+        <f>IF(error!H7=1,time!H7,"")</f>
+        <v>1299</v>
+      </c>
+      <c r="I32">
+        <f>IF(error!I7=1,time!I7,"")</f>
+        <v>3121</v>
+      </c>
+      <c r="J32">
+        <f>IF(error!J7=1,time!J7,"")</f>
+        <v>2316</v>
+      </c>
+      <c r="K32">
+        <f>IF(error!K7=1,time!K7,"")</f>
+        <v>1152</v>
+      </c>
+      <c r="L32">
+        <f>IF(error!L7=1,time!L7,"")</f>
+        <v>1119</v>
+      </c>
+      <c r="M32">
+        <f>IF(error!M7=1,time!M7,"")</f>
+        <v>1165</v>
+      </c>
+      <c r="N32">
+        <f>IF(error!N7=1,time!N7,"")</f>
+        <v>1065</v>
+      </c>
+      <c r="O32">
+        <f>IF(error!O7=1,time!O7,"")</f>
+        <v>2433</v>
+      </c>
+      <c r="P32">
+        <f>IF(error!P7=1,time!P7,"")</f>
+        <v>1182</v>
+      </c>
+      <c r="Q32">
+        <f>IF(error!Q7=1,time!Q7,"")</f>
+        <v>1069</v>
+      </c>
+      <c r="R32">
+        <f>IF(error!R7=1,time!R7,"")</f>
+        <v>1065</v>
+      </c>
+      <c r="S32">
+        <f>IF(error!S7=1,time!S7,"")</f>
+        <v>1799</v>
+      </c>
+      <c r="T32">
+        <f>IF(error!T7=1,time!T7,"")</f>
+        <v>2253</v>
+      </c>
+      <c r="U32">
+        <f>IF(error!U7=1,time!U7,"")</f>
+        <v>4138</v>
+      </c>
+      <c r="V32">
+        <f>IF(error!V7=1,time!V7,"")</f>
+        <v>2647</v>
+      </c>
+      <c r="W32" t="str">
+        <f>IF(error!W7=1,time!W7,"")</f>
+        <v/>
+      </c>
+      <c r="X32">
+        <f>IF(error!X7=1,time!X7,"")</f>
+        <v>946</v>
+      </c>
+      <c r="Y32">
+        <f>IF(error!Y7=1,time!Y7,"")</f>
+        <v>1780</v>
+      </c>
+      <c r="Z32">
+        <f>IF(error!Z7=1,time!Z7,"")</f>
+        <v>1226</v>
+      </c>
+      <c r="AA32">
+        <f>IF(error!AA7=1,time!AA7,"")</f>
+        <v>1730</v>
+      </c>
+      <c r="AB32">
+        <f>IF(error!AB7=1,time!AB7,"")</f>
+        <v>1646</v>
+      </c>
+      <c r="AC32">
+        <f>IF(error!AC7=1,time!AC7,"")</f>
+        <v>1429</v>
+      </c>
+      <c r="AD32">
+        <f>IF(error!AD7=1,time!AD7,"")</f>
+        <v>1730</v>
+      </c>
+      <c r="AE32">
+        <f>IF(error!AE7=1,time!AE7,"")</f>
+        <v>946</v>
+      </c>
+      <c r="AF32">
+        <f>IF(error!AF7=1,time!AF7,"")</f>
+        <v>1813</v>
+      </c>
+      <c r="AG32" t="str">
+        <f>IF(error!AG7=1,time!AG7,"")</f>
+        <v/>
+      </c>
+      <c r="AH32">
+        <f>IF(error!AH7=1,time!AH7,"")</f>
+        <v>1179</v>
+      </c>
+      <c r="AI32">
+        <f>IF(error!AI7=1,time!AI7,"")</f>
+        <v>1196</v>
+      </c>
+      <c r="AJ32">
+        <f>IF(error!AJ7=1,time!AJ7,"")</f>
+        <v>1630</v>
+      </c>
+      <c r="AK32">
+        <f>IF(error!AK7=1,time!AK7,"")</f>
+        <v>1463</v>
+      </c>
+      <c r="AL32">
+        <f>IF(error!AL7=1,time!AL7,"")</f>
+        <v>846</v>
+      </c>
+      <c r="AM32">
+        <f>IF(error!AM7=1,time!AM7,"")</f>
+        <v>1429</v>
+      </c>
+      <c r="AN32">
+        <f>IF(error!AN7=1,time!AN7,"")</f>
+        <v>1580</v>
+      </c>
+      <c r="AO32">
+        <f>IF(error!AO7=1,time!AO7,"")</f>
+        <v>1216</v>
+      </c>
+      <c r="AP32">
+        <f>IF(error!AP7=1,time!AP7,"")</f>
+        <v>651</v>
+      </c>
+      <c r="AQ32">
+        <f>IF(error!AQ7=1,time!AQ7,"")</f>
+        <v>869</v>
+      </c>
+      <c r="AR32">
+        <f>IF(error!AR7=1,time!AR7,"")</f>
+        <v>935</v>
+      </c>
+      <c r="AS32" t="str">
+        <f>IF(error!AS7=1,time!AS7,"")</f>
+        <v/>
+      </c>
+      <c r="AT32">
+        <f>IF(error!AT7=1,time!AT7,"")</f>
+        <v>1348</v>
+      </c>
+      <c r="AU32">
+        <f>IF(error!AU7=1,time!AU7,"")</f>
+        <v>2616</v>
+      </c>
+      <c r="AV32" t="str">
+        <f>IF(error!AV7=1,time!AV7,"")</f>
+        <v/>
+      </c>
+      <c r="AW32" t="str">
+        <f>IF(error!AW7=1,time!AW7,"")</f>
+        <v/>
+      </c>
+      <c r="AX32">
+        <f>IF(error!AX7=1,time!AX7,"")</f>
+        <v>1198</v>
+      </c>
+      <c r="AY32" t="str">
+        <f>IF(error!AY7=1,time!AY7,"")</f>
+        <v/>
+      </c>
+      <c r="AZ32">
+        <f>IF(error!AZ7=1,time!AZ7,"")</f>
+        <v>881</v>
+      </c>
+      <c r="BA32" t="str">
+        <f>IF(error!BA7=1,time!BA7,"")</f>
+        <v/>
+      </c>
+      <c r="BB32">
+        <f>IF(error!BB7=1,time!BB7,"")</f>
+        <v>4147</v>
+      </c>
+      <c r="BC32">
+        <f>IF(error!BC7=1,time!BC7,"")</f>
+        <v>977</v>
+      </c>
+      <c r="BD32">
+        <f>IF(error!BD7=1,time!BD7,"")</f>
+        <v>764</v>
+      </c>
+      <c r="BE32">
+        <f>IF(error!BE7=1,time!BE7,"")</f>
+        <v>781</v>
+      </c>
+      <c r="BF32">
+        <f>IF(error!BF7=1,time!BF7,"")</f>
+        <v>1398</v>
+      </c>
+      <c r="BG32">
+        <f>IF(error!BG7=1,time!BG7,"")</f>
+        <v>5006</v>
+      </c>
+      <c r="BH32">
+        <f>IF(error!BH7=1,time!BH7,"")</f>
+        <v>814</v>
+      </c>
+      <c r="BI32">
+        <f>IF(error!BI7=1,time!BI7,"")</f>
+        <v>1631</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:61">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="B33" t="str">
+        <f>IF(error!B8=1,time!B8,"")</f>
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <f>IF(error!C8=1,time!C8,"")</f>
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <f>IF(error!D8=1,time!D8,"")</f>
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <f>IF(error!E8=1,time!E8,"")</f>
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <f>IF(error!F8=1,time!F8,"")</f>
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(error!G8=1,time!G8,"")</f>
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <f>IF(error!H8=1,time!H8,"")</f>
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <f>IF(error!I8=1,time!I8,"")</f>
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <f>IF(error!J8=1,time!J8,"")</f>
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <f>IF(error!K8=1,time!K8,"")</f>
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <f>IF(error!L8=1,time!L8,"")</f>
+        <v/>
+      </c>
+      <c r="M33" t="str">
+        <f>IF(error!M8=1,time!M8,"")</f>
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <f>IF(error!N8=1,time!N8,"")</f>
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <f>IF(error!O8=1,time!O8,"")</f>
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <f>IF(error!P8=1,time!P8,"")</f>
+        <v/>
+      </c>
+      <c r="Q33" t="str">
+        <f>IF(error!Q8=1,time!Q8,"")</f>
+        <v/>
+      </c>
+      <c r="R33" t="str">
+        <f>IF(error!R8=1,time!R8,"")</f>
+        <v/>
+      </c>
+      <c r="S33" t="str">
+        <f>IF(error!S8=1,time!S8,"")</f>
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <f>IF(error!T8=1,time!T8,"")</f>
+        <v/>
+      </c>
+      <c r="U33" t="str">
+        <f>IF(error!U8=1,time!U8,"")</f>
+        <v/>
+      </c>
+      <c r="V33" t="str">
+        <f>IF(error!V8=1,time!V8,"")</f>
+        <v/>
+      </c>
+      <c r="W33" t="str">
+        <f>IF(error!W8=1,time!W8,"")</f>
+        <v/>
+      </c>
+      <c r="X33" t="str">
+        <f>IF(error!X8=1,time!X8,"")</f>
+        <v/>
+      </c>
+      <c r="Y33" t="str">
+        <f>IF(error!Y8=1,time!Y8,"")</f>
+        <v/>
+      </c>
+      <c r="Z33" t="str">
+        <f>IF(error!Z8=1,time!Z8,"")</f>
+        <v/>
+      </c>
+      <c r="AA33" t="str">
+        <f>IF(error!AA8=1,time!AA8,"")</f>
+        <v/>
+      </c>
+      <c r="AB33" t="str">
+        <f>IF(error!AB8=1,time!AB8,"")</f>
+        <v/>
+      </c>
+      <c r="AC33" t="str">
+        <f>IF(error!AC8=1,time!AC8,"")</f>
+        <v/>
+      </c>
+      <c r="AD33" t="str">
+        <f>IF(error!AD8=1,time!AD8,"")</f>
+        <v/>
+      </c>
+      <c r="AE33" t="str">
+        <f>IF(error!AE8=1,time!AE8,"")</f>
+        <v/>
+      </c>
+      <c r="AF33" t="str">
+        <f>IF(error!AF8=1,time!AF8,"")</f>
+        <v/>
+      </c>
+      <c r="AG33" t="str">
+        <f>IF(error!AG8=1,time!AG8,"")</f>
+        <v/>
+      </c>
+      <c r="AH33" t="str">
+        <f>IF(error!AH8=1,time!AH8,"")</f>
+        <v/>
+      </c>
+      <c r="AI33" t="str">
+        <f>IF(error!AI8=1,time!AI8,"")</f>
+        <v/>
+      </c>
+      <c r="AJ33" t="str">
+        <f>IF(error!AJ8=1,time!AJ8,"")</f>
+        <v/>
+      </c>
+      <c r="AK33" t="str">
+        <f>IF(error!AK8=1,time!AK8,"")</f>
+        <v/>
+      </c>
+      <c r="AL33" t="str">
+        <f>IF(error!AL8=1,time!AL8,"")</f>
+        <v/>
+      </c>
+      <c r="AM33" t="str">
+        <f>IF(error!AM8=1,time!AM8,"")</f>
+        <v/>
+      </c>
+      <c r="AN33" t="str">
+        <f>IF(error!AN8=1,time!AN8,"")</f>
+        <v/>
+      </c>
+      <c r="AO33" t="str">
+        <f>IF(error!AO8=1,time!AO8,"")</f>
+        <v/>
+      </c>
+      <c r="AP33" t="str">
+        <f>IF(error!AP8=1,time!AP8,"")</f>
+        <v/>
+      </c>
+      <c r="AQ33" t="str">
+        <f>IF(error!AQ8=1,time!AQ8,"")</f>
+        <v/>
+      </c>
+      <c r="AR33" t="str">
+        <f>IF(error!AR8=1,time!AR8,"")</f>
+        <v/>
+      </c>
+      <c r="AS33" t="str">
+        <f>IF(error!AS8=1,time!AS8,"")</f>
+        <v/>
+      </c>
+      <c r="AT33" t="str">
+        <f>IF(error!AT8=1,time!AT8,"")</f>
+        <v/>
+      </c>
+      <c r="AU33" t="str">
+        <f>IF(error!AU8=1,time!AU8,"")</f>
+        <v/>
+      </c>
+      <c r="AV33" t="str">
+        <f>IF(error!AV8=1,time!AV8,"")</f>
+        <v/>
+      </c>
+      <c r="AW33" t="str">
+        <f>IF(error!AW8=1,time!AW8,"")</f>
+        <v/>
+      </c>
+      <c r="AX33" t="str">
+        <f>IF(error!AX8=1,time!AX8,"")</f>
+        <v/>
+      </c>
+      <c r="AY33" t="str">
+        <f>IF(error!AY8=1,time!AY8,"")</f>
+        <v/>
+      </c>
+      <c r="AZ33" t="str">
+        <f>IF(error!AZ8=1,time!AZ8,"")</f>
+        <v/>
+      </c>
+      <c r="BA33" t="str">
+        <f>IF(error!BA8=1,time!BA8,"")</f>
+        <v/>
+      </c>
+      <c r="BB33" t="str">
+        <f>IF(error!BB8=1,time!BB8,"")</f>
+        <v/>
+      </c>
+      <c r="BC33" t="str">
+        <f>IF(error!BC8=1,time!BC8,"")</f>
+        <v/>
+      </c>
+      <c r="BD33" t="str">
+        <f>IF(error!BD8=1,time!BD8,"")</f>
+        <v/>
+      </c>
+      <c r="BE33" t="str">
+        <f>IF(error!BE8=1,time!BE8,"")</f>
+        <v/>
+      </c>
+      <c r="BF33" t="str">
+        <f>IF(error!BF8=1,time!BF8,"")</f>
+        <v/>
+      </c>
+      <c r="BG33" t="str">
+        <f>IF(error!BG8=1,time!BG8,"")</f>
+        <v/>
+      </c>
+      <c r="BH33" t="str">
+        <f>IF(error!BH8=1,time!BH8,"")</f>
+        <v/>
+      </c>
+      <c r="BI33" t="str">
+        <f>IF(error!BI8=1,time!BI8,"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:61">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="B34" t="str">
+        <f>IF(error!B9=1,time!B9,"")</f>
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <f>IF(error!C9=1,time!C9,"")</f>
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <f>IF(error!D9=1,time!D9,"")</f>
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(error!E9=1,time!E9,"")</f>
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <f>IF(error!F9=1,time!F9,"")</f>
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(error!G9=1,time!G9,"")</f>
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <f>IF(error!H9=1,time!H9,"")</f>
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <f>IF(error!I9=1,time!I9,"")</f>
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <f>IF(error!J9=1,time!J9,"")</f>
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <f>IF(error!K9=1,time!K9,"")</f>
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <f>IF(error!L9=1,time!L9,"")</f>
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <f>IF(error!M9=1,time!M9,"")</f>
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <f>IF(error!N9=1,time!N9,"")</f>
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <f>IF(error!O9=1,time!O9,"")</f>
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <f>IF(error!P9=1,time!P9,"")</f>
+        <v/>
+      </c>
+      <c r="Q34" t="str">
+        <f>IF(error!Q9=1,time!Q9,"")</f>
+        <v/>
+      </c>
+      <c r="R34" t="str">
+        <f>IF(error!R9=1,time!R9,"")</f>
+        <v/>
+      </c>
+      <c r="S34" t="str">
+        <f>IF(error!S9=1,time!S9,"")</f>
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <f>IF(error!T9=1,time!T9,"")</f>
+        <v/>
+      </c>
+      <c r="U34" t="str">
+        <f>IF(error!U9=1,time!U9,"")</f>
+        <v/>
+      </c>
+      <c r="V34" t="str">
+        <f>IF(error!V9=1,time!V9,"")</f>
+        <v/>
+      </c>
+      <c r="W34" t="str">
+        <f>IF(error!W9=1,time!W9,"")</f>
+        <v/>
+      </c>
+      <c r="X34" t="str">
+        <f>IF(error!X9=1,time!X9,"")</f>
+        <v/>
+      </c>
+      <c r="Y34" t="str">
+        <f>IF(error!Y9=1,time!Y9,"")</f>
+        <v/>
+      </c>
+      <c r="Z34" t="str">
+        <f>IF(error!Z9=1,time!Z9,"")</f>
+        <v/>
+      </c>
+      <c r="AA34" t="str">
+        <f>IF(error!AA9=1,time!AA9,"")</f>
+        <v/>
+      </c>
+      <c r="AB34" t="str">
+        <f>IF(error!AB9=1,time!AB9,"")</f>
+        <v/>
+      </c>
+      <c r="AC34" t="str">
+        <f>IF(error!AC9=1,time!AC9,"")</f>
+        <v/>
+      </c>
+      <c r="AD34" t="str">
+        <f>IF(error!AD9=1,time!AD9,"")</f>
+        <v/>
+      </c>
+      <c r="AE34" t="str">
+        <f>IF(error!AE9=1,time!AE9,"")</f>
+        <v/>
+      </c>
+      <c r="AF34" t="str">
+        <f>IF(error!AF9=1,time!AF9,"")</f>
+        <v/>
+      </c>
+      <c r="AG34" t="str">
+        <f>IF(error!AG9=1,time!AG9,"")</f>
+        <v/>
+      </c>
+      <c r="AH34" t="str">
+        <f>IF(error!AH9=1,time!AH9,"")</f>
+        <v/>
+      </c>
+      <c r="AI34" t="str">
+        <f>IF(error!AI9=1,time!AI9,"")</f>
+        <v/>
+      </c>
+      <c r="AJ34" t="str">
+        <f>IF(error!AJ9=1,time!AJ9,"")</f>
+        <v/>
+      </c>
+      <c r="AK34" t="str">
+        <f>IF(error!AK9=1,time!AK9,"")</f>
+        <v/>
+      </c>
+      <c r="AL34" t="str">
+        <f>IF(error!AL9=1,time!AL9,"")</f>
+        <v/>
+      </c>
+      <c r="AM34" t="str">
+        <f>IF(error!AM9=1,time!AM9,"")</f>
+        <v/>
+      </c>
+      <c r="AN34" t="str">
+        <f>IF(error!AN9=1,time!AN9,"")</f>
+        <v/>
+      </c>
+      <c r="AO34" t="str">
+        <f>IF(error!AO9=1,time!AO9,"")</f>
+        <v/>
+      </c>
+      <c r="AP34" t="str">
+        <f>IF(error!AP9=1,time!AP9,"")</f>
+        <v/>
+      </c>
+      <c r="AQ34" t="str">
+        <f>IF(error!AQ9=1,time!AQ9,"")</f>
+        <v/>
+      </c>
+      <c r="AR34" t="str">
+        <f>IF(error!AR9=1,time!AR9,"")</f>
+        <v/>
+      </c>
+      <c r="AS34" t="str">
+        <f>IF(error!AS9=1,time!AS9,"")</f>
+        <v/>
+      </c>
+      <c r="AT34" t="str">
+        <f>IF(error!AT9=1,time!AT9,"")</f>
+        <v/>
+      </c>
+      <c r="AU34" t="str">
+        <f>IF(error!AU9=1,time!AU9,"")</f>
+        <v/>
+      </c>
+      <c r="AV34" t="str">
+        <f>IF(error!AV9=1,time!AV9,"")</f>
+        <v/>
+      </c>
+      <c r="AW34" t="str">
+        <f>IF(error!AW9=1,time!AW9,"")</f>
+        <v/>
+      </c>
+      <c r="AX34" t="str">
+        <f>IF(error!AX9=1,time!AX9,"")</f>
+        <v/>
+      </c>
+      <c r="AY34" t="str">
+        <f>IF(error!AY9=1,time!AY9,"")</f>
+        <v/>
+      </c>
+      <c r="AZ34" t="str">
+        <f>IF(error!AZ9=1,time!AZ9,"")</f>
+        <v/>
+      </c>
+      <c r="BA34" t="str">
+        <f>IF(error!BA9=1,time!BA9,"")</f>
+        <v/>
+      </c>
+      <c r="BB34" t="str">
+        <f>IF(error!BB9=1,time!BB9,"")</f>
+        <v/>
+      </c>
+      <c r="BC34" t="str">
+        <f>IF(error!BC9=1,time!BC9,"")</f>
+        <v/>
+      </c>
+      <c r="BD34" t="str">
+        <f>IF(error!BD9=1,time!BD9,"")</f>
+        <v/>
+      </c>
+      <c r="BE34" t="str">
+        <f>IF(error!BE9=1,time!BE9,"")</f>
+        <v/>
+      </c>
+      <c r="BF34" t="str">
+        <f>IF(error!BF9=1,time!BF9,"")</f>
+        <v/>
+      </c>
+      <c r="BG34" t="str">
+        <f>IF(error!BG9=1,time!BG9,"")</f>
+        <v/>
+      </c>
+      <c r="BH34" t="str">
+        <f>IF(error!BH9=1,time!BH9,"")</f>
+        <v/>
+      </c>
+      <c r="BI34" t="str">
+        <f>IF(error!BI9=1,time!BI9,"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:61">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="B35" t="str">
+        <f>IF(error!B10=1,time!B10,"")</f>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f>IF(error!C10=1,time!C10,"")</f>
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <f>IF(error!D10=1,time!D10,"")</f>
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(error!E10=1,time!E10,"")</f>
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <f>IF(error!F10=1,time!F10,"")</f>
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(error!G10=1,time!G10,"")</f>
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <f>IF(error!H10=1,time!H10,"")</f>
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <f>IF(error!I10=1,time!I10,"")</f>
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <f>IF(error!J10=1,time!J10,"")</f>
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <f>IF(error!K10=1,time!K10,"")</f>
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <f>IF(error!L10=1,time!L10,"")</f>
+        <v/>
+      </c>
+      <c r="M35" t="str">
+        <f>IF(error!M10=1,time!M10,"")</f>
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <f>IF(error!N10=1,time!N10,"")</f>
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <f>IF(error!O10=1,time!O10,"")</f>
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <f>IF(error!P10=1,time!P10,"")</f>
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <f>IF(error!Q10=1,time!Q10,"")</f>
+        <v/>
+      </c>
+      <c r="R35" t="str">
+        <f>IF(error!R10=1,time!R10,"")</f>
+        <v/>
+      </c>
+      <c r="S35" t="str">
+        <f>IF(error!S10=1,time!S10,"")</f>
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <f>IF(error!T10=1,time!T10,"")</f>
+        <v/>
+      </c>
+      <c r="U35" t="str">
+        <f>IF(error!U10=1,time!U10,"")</f>
+        <v/>
+      </c>
+      <c r="V35" t="str">
+        <f>IF(error!V10=1,time!V10,"")</f>
+        <v/>
+      </c>
+      <c r="W35" t="str">
+        <f>IF(error!W10=1,time!W10,"")</f>
+        <v/>
+      </c>
+      <c r="X35" t="str">
+        <f>IF(error!X10=1,time!X10,"")</f>
+        <v/>
+      </c>
+      <c r="Y35" t="str">
+        <f>IF(error!Y10=1,time!Y10,"")</f>
+        <v/>
+      </c>
+      <c r="Z35" t="str">
+        <f>IF(error!Z10=1,time!Z10,"")</f>
+        <v/>
+      </c>
+      <c r="AA35" t="str">
+        <f>IF(error!AA10=1,time!AA10,"")</f>
+        <v/>
+      </c>
+      <c r="AB35" t="str">
+        <f>IF(error!AB10=1,time!AB10,"")</f>
+        <v/>
+      </c>
+      <c r="AC35" t="str">
+        <f>IF(error!AC10=1,time!AC10,"")</f>
+        <v/>
+      </c>
+      <c r="AD35" t="str">
+        <f>IF(error!AD10=1,time!AD10,"")</f>
+        <v/>
+      </c>
+      <c r="AE35" t="str">
+        <f>IF(error!AE10=1,time!AE10,"")</f>
+        <v/>
+      </c>
+      <c r="AF35" t="str">
+        <f>IF(error!AF10=1,time!AF10,"")</f>
+        <v/>
+      </c>
+      <c r="AG35" t="str">
+        <f>IF(error!AG10=1,time!AG10,"")</f>
+        <v/>
+      </c>
+      <c r="AH35" t="str">
+        <f>IF(error!AH10=1,time!AH10,"")</f>
+        <v/>
+      </c>
+      <c r="AI35" t="str">
+        <f>IF(error!AI10=1,time!AI10,"")</f>
+        <v/>
+      </c>
+      <c r="AJ35" t="str">
+        <f>IF(error!AJ10=1,time!AJ10,"")</f>
+        <v/>
+      </c>
+      <c r="AK35" t="str">
+        <f>IF(error!AK10=1,time!AK10,"")</f>
+        <v/>
+      </c>
+      <c r="AL35" t="str">
+        <f>IF(error!AL10=1,time!AL10,"")</f>
+        <v/>
+      </c>
+      <c r="AM35" t="str">
+        <f>IF(error!AM10=1,time!AM10,"")</f>
+        <v/>
+      </c>
+      <c r="AN35" t="str">
+        <f>IF(error!AN10=1,time!AN10,"")</f>
+        <v/>
+      </c>
+      <c r="AO35" t="str">
+        <f>IF(error!AO10=1,time!AO10,"")</f>
+        <v/>
+      </c>
+      <c r="AP35" t="str">
+        <f>IF(error!AP10=1,time!AP10,"")</f>
+        <v/>
+      </c>
+      <c r="AQ35" t="str">
+        <f>IF(error!AQ10=1,time!AQ10,"")</f>
+        <v/>
+      </c>
+      <c r="AR35" t="str">
+        <f>IF(error!AR10=1,time!AR10,"")</f>
+        <v/>
+      </c>
+      <c r="AS35" t="str">
+        <f>IF(error!AS10=1,time!AS10,"")</f>
+        <v/>
+      </c>
+      <c r="AT35" t="str">
+        <f>IF(error!AT10=1,time!AT10,"")</f>
+        <v/>
+      </c>
+      <c r="AU35" t="str">
+        <f>IF(error!AU10=1,time!AU10,"")</f>
+        <v/>
+      </c>
+      <c r="AV35" t="str">
+        <f>IF(error!AV10=1,time!AV10,"")</f>
+        <v/>
+      </c>
+      <c r="AW35" t="str">
+        <f>IF(error!AW10=1,time!AW10,"")</f>
+        <v/>
+      </c>
+      <c r="AX35" t="str">
+        <f>IF(error!AX10=1,time!AX10,"")</f>
+        <v/>
+      </c>
+      <c r="AY35" t="str">
+        <f>IF(error!AY10=1,time!AY10,"")</f>
+        <v/>
+      </c>
+      <c r="AZ35" t="str">
+        <f>IF(error!AZ10=1,time!AZ10,"")</f>
+        <v/>
+      </c>
+      <c r="BA35" t="str">
+        <f>IF(error!BA10=1,time!BA10,"")</f>
+        <v/>
+      </c>
+      <c r="BB35" t="str">
+        <f>IF(error!BB10=1,time!BB10,"")</f>
+        <v/>
+      </c>
+      <c r="BC35" t="str">
+        <f>IF(error!BC10=1,time!BC10,"")</f>
+        <v/>
+      </c>
+      <c r="BD35" t="str">
+        <f>IF(error!BD10=1,time!BD10,"")</f>
+        <v/>
+      </c>
+      <c r="BE35" t="str">
+        <f>IF(error!BE10=1,time!BE10,"")</f>
+        <v/>
+      </c>
+      <c r="BF35" t="str">
+        <f>IF(error!BF10=1,time!BF10,"")</f>
+        <v/>
+      </c>
+      <c r="BG35" t="str">
+        <f>IF(error!BG10=1,time!BG10,"")</f>
+        <v/>
+      </c>
+      <c r="BH35" t="str">
+        <f>IF(error!BH10=1,time!BH10,"")</f>
+        <v/>
+      </c>
+      <c r="BI35" t="str">
+        <f>IF(error!BI10=1,time!BI10,"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:61">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="B36" t="str">
+        <f>IF(error!B11=1,time!B11,"")</f>
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <f>IF(error!C11=1,time!C11,"")</f>
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <f>IF(error!D11=1,time!D11,"")</f>
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(error!E11=1,time!E11,"")</f>
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <f>IF(error!F11=1,time!F11,"")</f>
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(error!G11=1,time!G11,"")</f>
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <f>IF(error!H11=1,time!H11,"")</f>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <f>IF(error!I11=1,time!I11,"")</f>
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <f>IF(error!J11=1,time!J11,"")</f>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <f>IF(error!K11=1,time!K11,"")</f>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <f>IF(error!L11=1,time!L11,"")</f>
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <f>IF(error!M11=1,time!M11,"")</f>
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <f>IF(error!N11=1,time!N11,"")</f>
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <f>IF(error!O11=1,time!O11,"")</f>
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <f>IF(error!P11=1,time!P11,"")</f>
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <f>IF(error!Q11=1,time!Q11,"")</f>
+        <v/>
+      </c>
+      <c r="R36" t="str">
+        <f>IF(error!R11=1,time!R11,"")</f>
+        <v/>
+      </c>
+      <c r="S36" t="str">
+        <f>IF(error!S11=1,time!S11,"")</f>
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <f>IF(error!T11=1,time!T11,"")</f>
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <f>IF(error!U11=1,time!U11,"")</f>
+        <v/>
+      </c>
+      <c r="V36" t="str">
+        <f>IF(error!V11=1,time!V11,"")</f>
+        <v/>
+      </c>
+      <c r="W36" t="str">
+        <f>IF(error!W11=1,time!W11,"")</f>
+        <v/>
+      </c>
+      <c r="X36" t="str">
+        <f>IF(error!X11=1,time!X11,"")</f>
+        <v/>
+      </c>
+      <c r="Y36" t="str">
+        <f>IF(error!Y11=1,time!Y11,"")</f>
+        <v/>
+      </c>
+      <c r="Z36" t="str">
+        <f>IF(error!Z11=1,time!Z11,"")</f>
+        <v/>
+      </c>
+      <c r="AA36" t="str">
+        <f>IF(error!AA11=1,time!AA11,"")</f>
+        <v/>
+      </c>
+      <c r="AB36" t="str">
+        <f>IF(error!AB11=1,time!AB11,"")</f>
+        <v/>
+      </c>
+      <c r="AC36" t="str">
+        <f>IF(error!AC11=1,time!AC11,"")</f>
+        <v/>
+      </c>
+      <c r="AD36" t="str">
+        <f>IF(error!AD11=1,time!AD11,"")</f>
+        <v/>
+      </c>
+      <c r="AE36" t="str">
+        <f>IF(error!AE11=1,time!AE11,"")</f>
+        <v/>
+      </c>
+      <c r="AF36" t="str">
+        <f>IF(error!AF11=1,time!AF11,"")</f>
+        <v/>
+      </c>
+      <c r="AG36" t="str">
+        <f>IF(error!AG11=1,time!AG11,"")</f>
+        <v/>
+      </c>
+      <c r="AH36" t="str">
+        <f>IF(error!AH11=1,time!AH11,"")</f>
+        <v/>
+      </c>
+      <c r="AI36" t="str">
+        <f>IF(error!AI11=1,time!AI11,"")</f>
+        <v/>
+      </c>
+      <c r="AJ36" t="str">
+        <f>IF(error!AJ11=1,time!AJ11,"")</f>
+        <v/>
+      </c>
+      <c r="AK36" t="str">
+        <f>IF(error!AK11=1,time!AK11,"")</f>
+        <v/>
+      </c>
+      <c r="AL36" t="str">
+        <f>IF(error!AL11=1,time!AL11,"")</f>
+        <v/>
+      </c>
+      <c r="AM36" t="str">
+        <f>IF(error!AM11=1,time!AM11,"")</f>
+        <v/>
+      </c>
+      <c r="AN36" t="str">
+        <f>IF(error!AN11=1,time!AN11,"")</f>
+        <v/>
+      </c>
+      <c r="AO36" t="str">
+        <f>IF(error!AO11=1,time!AO11,"")</f>
+        <v/>
+      </c>
+      <c r="AP36" t="str">
+        <f>IF(error!AP11=1,time!AP11,"")</f>
+        <v/>
+      </c>
+      <c r="AQ36" t="str">
+        <f>IF(error!AQ11=1,time!AQ11,"")</f>
+        <v/>
+      </c>
+      <c r="AR36" t="str">
+        <f>IF(error!AR11=1,time!AR11,"")</f>
+        <v/>
+      </c>
+      <c r="AS36" t="str">
+        <f>IF(error!AS11=1,time!AS11,"")</f>
+        <v/>
+      </c>
+      <c r="AT36" t="str">
+        <f>IF(error!AT11=1,time!AT11,"")</f>
+        <v/>
+      </c>
+      <c r="AU36" t="str">
+        <f>IF(error!AU11=1,time!AU11,"")</f>
+        <v/>
+      </c>
+      <c r="AV36" t="str">
+        <f>IF(error!AV11=1,time!AV11,"")</f>
+        <v/>
+      </c>
+      <c r="AW36" t="str">
+        <f>IF(error!AW11=1,time!AW11,"")</f>
+        <v/>
+      </c>
+      <c r="AX36" t="str">
+        <f>IF(error!AX11=1,time!AX11,"")</f>
+        <v/>
+      </c>
+      <c r="AY36" t="str">
+        <f>IF(error!AY11=1,time!AY11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ36" t="str">
+        <f>IF(error!AZ11=1,time!AZ11,"")</f>
+        <v/>
+      </c>
+      <c r="BA36" t="str">
+        <f>IF(error!BA11=1,time!BA11,"")</f>
+        <v/>
+      </c>
+      <c r="BB36" t="str">
+        <f>IF(error!BB11=1,time!BB11,"")</f>
+        <v/>
+      </c>
+      <c r="BC36" t="str">
+        <f>IF(error!BC11=1,time!BC11,"")</f>
+        <v/>
+      </c>
+      <c r="BD36" t="str">
+        <f>IF(error!BD11=1,time!BD11,"")</f>
+        <v/>
+      </c>
+      <c r="BE36" t="str">
+        <f>IF(error!BE11=1,time!BE11,"")</f>
+        <v/>
+      </c>
+      <c r="BF36" t="str">
+        <f>IF(error!BF11=1,time!BF11,"")</f>
+        <v/>
+      </c>
+      <c r="BG36" t="str">
+        <f>IF(error!BG11=1,time!BG11,"")</f>
+        <v/>
+      </c>
+      <c r="BH36" t="str">
+        <f>IF(error!BH11=1,time!BH11,"")</f>
+        <v/>
+      </c>
+      <c r="BI36" t="str">
+        <f>IF(error!BI11=1,time!BI11,"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="37" spans="1:61">
+      <c r="B37" t="str">
+        <f>IF(error!B12=1,time!B12,"")</f>
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <f>IF(error!C12=1,time!C12,"")</f>
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <f>IF(error!D12=1,time!D12,"")</f>
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(error!E12=1,time!E12,"")</f>
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <f>IF(error!F12=1,time!F12,"")</f>
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(error!G12=1,time!G12,"")</f>
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <f>IF(error!H12=1,time!H12,"")</f>
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <f>IF(error!I12=1,time!I12,"")</f>
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <f>IF(error!J12=1,time!J12,"")</f>
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <f>IF(error!K12=1,time!K12,"")</f>
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <f>IF(error!L12=1,time!L12,"")</f>
+        <v/>
+      </c>
+      <c r="M37" t="str">
+        <f>IF(error!M12=1,time!M12,"")</f>
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <f>IF(error!N12=1,time!N12,"")</f>
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <f>IF(error!O12=1,time!O12,"")</f>
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <f>IF(error!P12=1,time!P12,"")</f>
+        <v/>
+      </c>
+      <c r="Q37" t="str">
+        <f>IF(error!Q12=1,time!Q12,"")</f>
+        <v/>
+      </c>
+      <c r="R37" t="str">
+        <f>IF(error!R12=1,time!R12,"")</f>
+        <v/>
+      </c>
+      <c r="S37" t="str">
+        <f>IF(error!S12=1,time!S12,"")</f>
+        <v/>
+      </c>
+      <c r="T37" t="str">
+        <f>IF(error!T12=1,time!T12,"")</f>
+        <v/>
+      </c>
+      <c r="U37" t="str">
+        <f>IF(error!U12=1,time!U12,"")</f>
+        <v/>
+      </c>
+      <c r="V37" t="str">
+        <f>IF(error!V12=1,time!V12,"")</f>
+        <v/>
+      </c>
+      <c r="W37" t="str">
+        <f>IF(error!W12=1,time!W12,"")</f>
+        <v/>
+      </c>
+      <c r="X37" t="str">
+        <f>IF(error!X12=1,time!X12,"")</f>
+        <v/>
+      </c>
+      <c r="Y37" t="str">
+        <f>IF(error!Y12=1,time!Y12,"")</f>
+        <v/>
+      </c>
+      <c r="Z37" t="str">
+        <f>IF(error!Z12=1,time!Z12,"")</f>
+        <v/>
+      </c>
+      <c r="AA37" t="str">
+        <f>IF(error!AA12=1,time!AA12,"")</f>
+        <v/>
+      </c>
+      <c r="AB37" t="str">
+        <f>IF(error!AB12=1,time!AB12,"")</f>
+        <v/>
+      </c>
+      <c r="AC37" t="str">
+        <f>IF(error!AC12=1,time!AC12,"")</f>
+        <v/>
+      </c>
+      <c r="AD37" t="str">
+        <f>IF(error!AD12=1,time!AD12,"")</f>
+        <v/>
+      </c>
+      <c r="AE37" t="str">
+        <f>IF(error!AE12=1,time!AE12,"")</f>
+        <v/>
+      </c>
+      <c r="AF37" t="str">
+        <f>IF(error!AF12=1,time!AF12,"")</f>
+        <v/>
+      </c>
+      <c r="AG37" t="str">
+        <f>IF(error!AG12=1,time!AG12,"")</f>
+        <v/>
+      </c>
+      <c r="AH37" t="str">
+        <f>IF(error!AH12=1,time!AH12,"")</f>
+        <v/>
+      </c>
+      <c r="AI37" t="str">
+        <f>IF(error!AI12=1,time!AI12,"")</f>
+        <v/>
+      </c>
+      <c r="AJ37" t="str">
+        <f>IF(error!AJ12=1,time!AJ12,"")</f>
+        <v/>
+      </c>
+      <c r="AK37" t="str">
+        <f>IF(error!AK12=1,time!AK12,"")</f>
+        <v/>
+      </c>
+      <c r="AL37" t="str">
+        <f>IF(error!AL12=1,time!AL12,"")</f>
+        <v/>
+      </c>
+      <c r="AM37" t="str">
+        <f>IF(error!AM12=1,time!AM12,"")</f>
+        <v/>
+      </c>
+      <c r="AN37" t="str">
+        <f>IF(error!AN12=1,time!AN12,"")</f>
+        <v/>
+      </c>
+      <c r="AO37" t="str">
+        <f>IF(error!AO12=1,time!AO12,"")</f>
+        <v/>
+      </c>
+      <c r="AP37" t="str">
+        <f>IF(error!AP12=1,time!AP12,"")</f>
+        <v/>
+      </c>
+      <c r="AQ37" t="str">
+        <f>IF(error!AQ12=1,time!AQ12,"")</f>
+        <v/>
+      </c>
+      <c r="AR37" t="str">
+        <f>IF(error!AR12=1,time!AR12,"")</f>
+        <v/>
+      </c>
+      <c r="AS37" t="str">
+        <f>IF(error!AS12=1,time!AS12,"")</f>
+        <v/>
+      </c>
+      <c r="AT37" t="str">
+        <f>IF(error!AT12=1,time!AT12,"")</f>
+        <v/>
+      </c>
+      <c r="AU37" t="str">
+        <f>IF(error!AU12=1,time!AU12,"")</f>
+        <v/>
+      </c>
+      <c r="AV37" t="str">
+        <f>IF(error!AV12=1,time!AV12,"")</f>
+        <v/>
+      </c>
+      <c r="AW37" t="str">
+        <f>IF(error!AW12=1,time!AW12,"")</f>
+        <v/>
+      </c>
+      <c r="AX37" t="str">
+        <f>IF(error!AX12=1,time!AX12,"")</f>
+        <v/>
+      </c>
+      <c r="AY37" t="str">
+        <f>IF(error!AY12=1,time!AY12,"")</f>
+        <v/>
+      </c>
+      <c r="AZ37" t="str">
+        <f>IF(error!AZ12=1,time!AZ12,"")</f>
+        <v/>
+      </c>
+      <c r="BA37" t="str">
+        <f>IF(error!BA12=1,time!BA12,"")</f>
+        <v/>
+      </c>
+      <c r="BB37" t="str">
+        <f>IF(error!BB12=1,time!BB12,"")</f>
+        <v/>
+      </c>
+      <c r="BC37" t="str">
+        <f>IF(error!BC12=1,time!BC12,"")</f>
+        <v/>
+      </c>
+      <c r="BD37" t="str">
+        <f>IF(error!BD12=1,time!BD12,"")</f>
+        <v/>
+      </c>
+      <c r="BE37" t="str">
+        <f>IF(error!BE12=1,time!BE12,"")</f>
+        <v/>
+      </c>
+      <c r="BF37" t="str">
+        <f>IF(error!BF12=1,time!BF12,"")</f>
+        <v/>
+      </c>
+      <c r="BG37" t="str">
+        <f>IF(error!BG12=1,time!BG12,"")</f>
+        <v/>
+      </c>
+      <c r="BH37" t="str">
+        <f>IF(error!BH12=1,time!BH12,"")</f>
+        <v/>
+      </c>
+      <c r="BI37" t="str">
+        <f>IF(error!BI12=1,time!BI12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:61">
+      <c r="B38" t="str">
+        <f>IF(error!B13=1,time!B13,"")</f>
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <f>IF(error!C13=1,time!C13,"")</f>
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <f>IF(error!D13=1,time!D13,"")</f>
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(error!E13=1,time!E13,"")</f>
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <f>IF(error!F13=1,time!F13,"")</f>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(error!G13=1,time!G13,"")</f>
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <f>IF(error!H13=1,time!H13,"")</f>
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <f>IF(error!I13=1,time!I13,"")</f>
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <f>IF(error!J13=1,time!J13,"")</f>
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <f>IF(error!K13=1,time!K13,"")</f>
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <f>IF(error!L13=1,time!L13,"")</f>
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <f>IF(error!M13=1,time!M13,"")</f>
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <f>IF(error!N13=1,time!N13,"")</f>
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <f>IF(error!O13=1,time!O13,"")</f>
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <f>IF(error!P13=1,time!P13,"")</f>
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <f>IF(error!Q13=1,time!Q13,"")</f>
+        <v/>
+      </c>
+      <c r="R38" t="str">
+        <f>IF(error!R13=1,time!R13,"")</f>
+        <v/>
+      </c>
+      <c r="S38" t="str">
+        <f>IF(error!S13=1,time!S13,"")</f>
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <f>IF(error!T13=1,time!T13,"")</f>
+        <v/>
+      </c>
+      <c r="U38" t="str">
+        <f>IF(error!U13=1,time!U13,"")</f>
+        <v/>
+      </c>
+      <c r="V38" t="str">
+        <f>IF(error!V13=1,time!V13,"")</f>
+        <v/>
+      </c>
+      <c r="W38" t="str">
+        <f>IF(error!W13=1,time!W13,"")</f>
+        <v/>
+      </c>
+      <c r="X38" t="str">
+        <f>IF(error!X13=1,time!X13,"")</f>
+        <v/>
+      </c>
+      <c r="Y38" t="str">
+        <f>IF(error!Y13=1,time!Y13,"")</f>
+        <v/>
+      </c>
+      <c r="Z38" t="str">
+        <f>IF(error!Z13=1,time!Z13,"")</f>
+        <v/>
+      </c>
+      <c r="AA38" t="str">
+        <f>IF(error!AA13=1,time!AA13,"")</f>
+        <v/>
+      </c>
+      <c r="AB38" t="str">
+        <f>IF(error!AB13=1,time!AB13,"")</f>
+        <v/>
+      </c>
+      <c r="AC38" t="str">
+        <f>IF(error!AC13=1,time!AC13,"")</f>
+        <v/>
+      </c>
+      <c r="AD38" t="str">
+        <f>IF(error!AD13=1,time!AD13,"")</f>
+        <v/>
+      </c>
+      <c r="AE38" t="str">
+        <f>IF(error!AE13=1,time!AE13,"")</f>
+        <v/>
+      </c>
+      <c r="AF38" t="str">
+        <f>IF(error!AF13=1,time!AF13,"")</f>
+        <v/>
+      </c>
+      <c r="AG38" t="str">
+        <f>IF(error!AG13=1,time!AG13,"")</f>
+        <v/>
+      </c>
+      <c r="AH38" t="str">
+        <f>IF(error!AH13=1,time!AH13,"")</f>
+        <v/>
+      </c>
+      <c r="AI38" t="str">
+        <f>IF(error!AI13=1,time!AI13,"")</f>
+        <v/>
+      </c>
+      <c r="AJ38" t="str">
+        <f>IF(error!AJ13=1,time!AJ13,"")</f>
+        <v/>
+      </c>
+      <c r="AK38" t="str">
+        <f>IF(error!AK13=1,time!AK13,"")</f>
+        <v/>
+      </c>
+      <c r="AL38" t="str">
+        <f>IF(error!AL13=1,time!AL13,"")</f>
+        <v/>
+      </c>
+      <c r="AM38" t="str">
+        <f>IF(error!AM13=1,time!AM13,"")</f>
+        <v/>
+      </c>
+      <c r="AN38" t="str">
+        <f>IF(error!AN13=1,time!AN13,"")</f>
+        <v/>
+      </c>
+      <c r="AO38" t="str">
+        <f>IF(error!AO13=1,time!AO13,"")</f>
+        <v/>
+      </c>
+      <c r="AP38" t="str">
+        <f>IF(error!AP13=1,time!AP13,"")</f>
+        <v/>
+      </c>
+      <c r="AQ38" t="str">
+        <f>IF(error!AQ13=1,time!AQ13,"")</f>
+        <v/>
+      </c>
+      <c r="AR38" t="str">
+        <f>IF(error!AR13=1,time!AR13,"")</f>
+        <v/>
+      </c>
+      <c r="AS38" t="str">
+        <f>IF(error!AS13=1,time!AS13,"")</f>
+        <v/>
+      </c>
+      <c r="AT38" t="str">
+        <f>IF(error!AT13=1,time!AT13,"")</f>
+        <v/>
+      </c>
+      <c r="AU38" t="str">
+        <f>IF(error!AU13=1,time!AU13,"")</f>
+        <v/>
+      </c>
+      <c r="AV38" t="str">
+        <f>IF(error!AV13=1,time!AV13,"")</f>
+        <v/>
+      </c>
+      <c r="AW38" t="str">
+        <f>IF(error!AW13=1,time!AW13,"")</f>
+        <v/>
+      </c>
+      <c r="AX38" t="str">
+        <f>IF(error!AX13=1,time!AX13,"")</f>
+        <v/>
+      </c>
+      <c r="AY38" t="str">
+        <f>IF(error!AY13=1,time!AY13,"")</f>
+        <v/>
+      </c>
+      <c r="AZ38" t="str">
+        <f>IF(error!AZ13=1,time!AZ13,"")</f>
+        <v/>
+      </c>
+      <c r="BA38" t="str">
+        <f>IF(error!BA13=1,time!BA13,"")</f>
+        <v/>
+      </c>
+      <c r="BB38" t="str">
+        <f>IF(error!BB13=1,time!BB13,"")</f>
+        <v/>
+      </c>
+      <c r="BC38" t="str">
+        <f>IF(error!BC13=1,time!BC13,"")</f>
+        <v/>
+      </c>
+      <c r="BD38" t="str">
+        <f>IF(error!BD13=1,time!BD13,"")</f>
+        <v/>
+      </c>
+      <c r="BE38" t="str">
+        <f>IF(error!BE13=1,time!BE13,"")</f>
+        <v/>
+      </c>
+      <c r="BF38" t="str">
+        <f>IF(error!BF13=1,time!BF13,"")</f>
+        <v/>
+      </c>
+      <c r="BG38" t="str">
+        <f>IF(error!BG13=1,time!BG13,"")</f>
+        <v/>
+      </c>
+      <c r="BH38" t="str">
+        <f>IF(error!BH13=1,time!BH13,"")</f>
+        <v/>
+      </c>
+      <c r="BI38" t="str">
+        <f>IF(error!BI13=1,time!BI13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:61">
+      <c r="B39" t="str">
+        <f>IF(error!B14=1,time!B14,"")</f>
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <f>IF(error!C14=1,time!C14,"")</f>
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <f>IF(error!D14=1,time!D14,"")</f>
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <f>IF(error!E14=1,time!E14,"")</f>
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <f>IF(error!F14=1,time!F14,"")</f>
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <f>IF(error!G14=1,time!G14,"")</f>
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <f>IF(error!H14=1,time!H14,"")</f>
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <f>IF(error!I14=1,time!I14,"")</f>
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <f>IF(error!J14=1,time!J14,"")</f>
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <f>IF(error!K14=1,time!K14,"")</f>
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <f>IF(error!L14=1,time!L14,"")</f>
+        <v/>
+      </c>
+      <c r="M39" t="str">
+        <f>IF(error!M14=1,time!M14,"")</f>
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <f>IF(error!N14=1,time!N14,"")</f>
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <f>IF(error!O14=1,time!O14,"")</f>
+        <v/>
+      </c>
+      <c r="P39" t="str">
+        <f>IF(error!P14=1,time!P14,"")</f>
+        <v/>
+      </c>
+      <c r="Q39" t="str">
+        <f>IF(error!Q14=1,time!Q14,"")</f>
+        <v/>
+      </c>
+      <c r="R39" t="str">
+        <f>IF(error!R14=1,time!R14,"")</f>
+        <v/>
+      </c>
+      <c r="S39" t="str">
+        <f>IF(error!S14=1,time!S14,"")</f>
+        <v/>
+      </c>
+      <c r="T39" t="str">
+        <f>IF(error!T14=1,time!T14,"")</f>
+        <v/>
+      </c>
+      <c r="U39" t="str">
+        <f>IF(error!U14=1,time!U14,"")</f>
+        <v/>
+      </c>
+      <c r="V39" t="str">
+        <f>IF(error!V14=1,time!V14,"")</f>
+        <v/>
+      </c>
+      <c r="W39" t="str">
+        <f>IF(error!W14=1,time!W14,"")</f>
+        <v/>
+      </c>
+      <c r="X39" t="str">
+        <f>IF(error!X14=1,time!X14,"")</f>
+        <v/>
+      </c>
+      <c r="Y39" t="str">
+        <f>IF(error!Y14=1,time!Y14,"")</f>
+        <v/>
+      </c>
+      <c r="Z39" t="str">
+        <f>IF(error!Z14=1,time!Z14,"")</f>
+        <v/>
+      </c>
+      <c r="AA39" t="str">
+        <f>IF(error!AA14=1,time!AA14,"")</f>
+        <v/>
+      </c>
+      <c r="AB39" t="str">
+        <f>IF(error!AB14=1,time!AB14,"")</f>
+        <v/>
+      </c>
+      <c r="AC39" t="str">
+        <f>IF(error!AC14=1,time!AC14,"")</f>
+        <v/>
+      </c>
+      <c r="AD39" t="str">
+        <f>IF(error!AD14=1,time!AD14,"")</f>
+        <v/>
+      </c>
+      <c r="AE39" t="str">
+        <f>IF(error!AE14=1,time!AE14,"")</f>
+        <v/>
+      </c>
+      <c r="AF39" t="str">
+        <f>IF(error!AF14=1,time!AF14,"")</f>
+        <v/>
+      </c>
+      <c r="AG39" t="str">
+        <f>IF(error!AG14=1,time!AG14,"")</f>
+        <v/>
+      </c>
+      <c r="AH39" t="str">
+        <f>IF(error!AH14=1,time!AH14,"")</f>
+        <v/>
+      </c>
+      <c r="AI39" t="str">
+        <f>IF(error!AI14=1,time!AI14,"")</f>
+        <v/>
+      </c>
+      <c r="AJ39" t="str">
+        <f>IF(error!AJ14=1,time!AJ14,"")</f>
+        <v/>
+      </c>
+      <c r="AK39" t="str">
+        <f>IF(error!AK14=1,time!AK14,"")</f>
+        <v/>
+      </c>
+      <c r="AL39" t="str">
+        <f>IF(error!AL14=1,time!AL14,"")</f>
+        <v/>
+      </c>
+      <c r="AM39" t="str">
+        <f>IF(error!AM14=1,time!AM14,"")</f>
+        <v/>
+      </c>
+      <c r="AN39" t="str">
+        <f>IF(error!AN14=1,time!AN14,"")</f>
+        <v/>
+      </c>
+      <c r="AO39" t="str">
+        <f>IF(error!AO14=1,time!AO14,"")</f>
+        <v/>
+      </c>
+      <c r="AP39" t="str">
+        <f>IF(error!AP14=1,time!AP14,"")</f>
+        <v/>
+      </c>
+      <c r="AQ39" t="str">
+        <f>IF(error!AQ14=1,time!AQ14,"")</f>
+        <v/>
+      </c>
+      <c r="AR39" t="str">
+        <f>IF(error!AR14=1,time!AR14,"")</f>
+        <v/>
+      </c>
+      <c r="AS39" t="str">
+        <f>IF(error!AS14=1,time!AS14,"")</f>
+        <v/>
+      </c>
+      <c r="AT39" t="str">
+        <f>IF(error!AT14=1,time!AT14,"")</f>
+        <v/>
+      </c>
+      <c r="AU39" t="str">
+        <f>IF(error!AU14=1,time!AU14,"")</f>
+        <v/>
+      </c>
+      <c r="AV39" t="str">
+        <f>IF(error!AV14=1,time!AV14,"")</f>
+        <v/>
+      </c>
+      <c r="AW39" t="str">
+        <f>IF(error!AW14=1,time!AW14,"")</f>
+        <v/>
+      </c>
+      <c r="AX39" t="str">
+        <f>IF(error!AX14=1,time!AX14,"")</f>
+        <v/>
+      </c>
+      <c r="AY39" t="str">
+        <f>IF(error!AY14=1,time!AY14,"")</f>
+        <v/>
+      </c>
+      <c r="AZ39" t="str">
+        <f>IF(error!AZ14=1,time!AZ14,"")</f>
+        <v/>
+      </c>
+      <c r="BA39" t="str">
+        <f>IF(error!BA14=1,time!BA14,"")</f>
+        <v/>
+      </c>
+      <c r="BB39" t="str">
+        <f>IF(error!BB14=1,time!BB14,"")</f>
+        <v/>
+      </c>
+      <c r="BC39" t="str">
+        <f>IF(error!BC14=1,time!BC14,"")</f>
+        <v/>
+      </c>
+      <c r="BD39" t="str">
+        <f>IF(error!BD14=1,time!BD14,"")</f>
+        <v/>
+      </c>
+      <c r="BE39" t="str">
+        <f>IF(error!BE14=1,time!BE14,"")</f>
+        <v/>
+      </c>
+      <c r="BF39" t="str">
+        <f>IF(error!BF14=1,time!BF14,"")</f>
+        <v/>
+      </c>
+      <c r="BG39" t="str">
+        <f>IF(error!BG14=1,time!BG14,"")</f>
+        <v/>
+      </c>
+      <c r="BH39" t="str">
+        <f>IF(error!BH14=1,time!BH14,"")</f>
+        <v/>
+      </c>
+      <c r="BI39" t="str">
+        <f>IF(error!BI14=1,time!BI14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:61">
       <c r="B45" t="str">
         <f>B27</f>
         <v>AF</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ref="C45:E45" si="5">C27</f>
+        <f t="shared" ref="C45" si="5">C27</f>
         <v>AF</v>
       </c>
       <c r="V45" t="str">
-        <f t="shared" ref="F45:W45" si="6">V27</f>
+        <f t="shared" ref="V45:W45" si="6">V27</f>
         <v>SL</v>
       </c>
       <c r="W45" t="str">
@@ -5593,7 +8999,7 @@
         <v>SL</v>
       </c>
       <c r="AP45" t="str">
-        <f t="shared" ref="X45:AQ45" si="7">AP27</f>
+        <f t="shared" ref="AP45:AQ45" si="7">AP27</f>
         <v>H</v>
       </c>
       <c r="AQ45" t="str">
@@ -5601,17 +9007,17 @@
         <v>H</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:61">
       <c r="B46" t="str">
         <f>B29</f>
         <v>(para)foveal</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" ref="C46:E46" si="8">C29</f>
+        <f t="shared" ref="C46" si="8">C29</f>
         <v>peripheral</v>
       </c>
       <c r="V46" t="str">
-        <f t="shared" ref="F46:W46" si="9">V29</f>
+        <f t="shared" ref="V46:W46" si="9">V29</f>
         <v>(para)foveal</v>
       </c>
       <c r="W46" t="str">
@@ -5619,7 +9025,7 @@
         <v>peripheral</v>
       </c>
       <c r="AP46" t="str">
-        <f t="shared" ref="X46:AQ46" si="10">AP29</f>
+        <f t="shared" ref="AP46:AQ46" si="10">AP29</f>
         <v>(para)foveal</v>
       </c>
       <c r="AQ46" t="str">
@@ -5627,62 +9033,62 @@
         <v>peripheral</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:61">
       <c r="A47" t="s">
         <v>36</v>
       </c>
       <c r="B47">
         <f>AVERAGE(B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42)</f>
-        <v>1179.3</v>
+        <v>1248.7666666666667</v>
       </c>
       <c r="C47">
         <f>AVERAGE(C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42)</f>
-        <v>1765.5555555555557</v>
+        <v>1728.6785714285713</v>
       </c>
       <c r="V47">
-        <f t="shared" ref="D47:AQ47" si="11">AVERAGE(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42)</f>
-        <v>1084.0999999999999</v>
+        <f t="shared" ref="V47:AQ47" si="11">AVERAGE(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42)</f>
+        <v>1175.1666666666667</v>
       </c>
       <c r="W47">
         <f t="shared" si="11"/>
-        <v>1198.0999999999999</v>
+        <v>1267.8214285714287</v>
       </c>
       <c r="AP47">
         <f t="shared" si="11"/>
-        <v>1216.7</v>
+        <v>1297.5517241379309</v>
       </c>
       <c r="AQ47">
         <f t="shared" si="11"/>
-        <v>2028.8</v>
+        <v>1955.7692307692307</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:61">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48">
         <f>STDEV((B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42))/SQRT(COUNT(B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42))</f>
-        <v>46.948446903669378</v>
+        <v>64.455967030398014</v>
       </c>
       <c r="C48">
         <f>STDEV((C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42))/SQRT(COUNT(C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42))</f>
-        <v>415.02998924813693</v>
+        <v>185.09066885523671</v>
       </c>
       <c r="V48">
         <f>STDEV((V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42))/SQRT(COUNT(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42))</f>
-        <v>166.61855638953705</v>
+        <v>92.245974068252778</v>
       </c>
       <c r="W48">
         <f>STDEV((W30:W42,Y30:Y42,AA30:AA42,AC30:AC42,AE30:AE42,AG30:AG42,AI30:AI42,AK30:AK42,AM30:AM42,AO30:AO42))/SQRT(COUNT(W30:W42,Y30:Y42,AA30:AA42,AC30:AC42,AE30:AE42,AG30:AG42,AI30:AI42,AK30:AK42,AM30:AM42,AO30:AO42))</f>
-        <v>87.498120614737289</v>
+        <v>52.45479418250202</v>
       </c>
       <c r="AP48">
         <f>STDEV((AP30:AP42,AR30:AR42,AT30:AT42,AV30:AV42,AX30:AX42,AZ30:AZ42,BB30:BB42,BD30:BD42,BF30:BF42,BH30:BH42))/SQRT(COUNT(AP30:AP42,AR30:AR42,AT30:AT42,AV30:AV42,AX30:AX42,AZ30:AZ42,BB30:BB42,BD30:BD42,BF30:BF42,BH30:BH42))</f>
-        <v>248.39645953819692</v>
+        <v>178.99620621104802</v>
       </c>
       <c r="AQ48">
         <f>STDEV((AQ30:AQ42,AS30:AS42,AU30:AU42,AW30:AW42,AY30:AY42,BA30:BA42,BC30:BC42,BE30:BE42,BG30:BG42,BI30:BI42))/SQRT(COUNT(AQ30:AQ42,AS30:AS42,AU30:AU42,AW30:AW42,AY30:AY42,BA30:BA42,BC30:BC42,BE30:BE42,BG30:BG42,BI30:BI42))</f>
-        <v>631.19683142423958</v>
+        <v>382.46575435512898</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5706,15 +9112,15 @@
       </c>
       <c r="B54">
         <f>B47</f>
-        <v>1179.3</v>
+        <v>1248.7666666666667</v>
       </c>
       <c r="C54">
         <f>V47</f>
-        <v>1084.0999999999999</v>
+        <v>1175.1666666666667</v>
       </c>
       <c r="D54">
         <f>AP47</f>
-        <v>1216.7</v>
+        <v>1297.5517241379309</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5724,15 +9130,15 @@
       </c>
       <c r="B55">
         <f>C47</f>
-        <v>1765.5555555555557</v>
+        <v>1728.6785714285713</v>
       </c>
       <c r="C55">
         <f>W47</f>
-        <v>1198.0999999999999</v>
+        <v>1267.8214285714287</v>
       </c>
       <c r="D55">
         <f>AQ47</f>
-        <v>2028.8</v>
+        <v>1955.7692307692307</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5756,15 +9162,15 @@
       </c>
       <c r="B60">
         <f>B48</f>
-        <v>46.948446903669378</v>
+        <v>64.455967030398014</v>
       </c>
       <c r="C60">
         <f>V48</f>
-        <v>166.61855638953705</v>
+        <v>92.245974068252778</v>
       </c>
       <c r="D60">
         <f>AP48</f>
-        <v>248.39645953819692</v>
+        <v>178.99620621104802</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5774,15 +9180,15 @@
       </c>
       <c r="B61">
         <f>C48</f>
-        <v>415.02998924813693</v>
+        <v>185.09066885523671</v>
       </c>
       <c r="C61">
         <f>W48</f>
-        <v>87.498120614737289</v>
+        <v>52.45479418250202</v>
       </c>
       <c r="D61">
         <f>AQ48</f>
-        <v>631.19683142423958</v>
+        <v>382.46575435512898</v>
       </c>
     </row>
   </sheetData>

--- a/UnityProject/results.xlsx
+++ b/UnityProject/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="330" windowWidth="113955" windowHeight="16890" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="330" windowWidth="113955" windowHeight="16890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -259,7 +259,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96666666666666667</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,36 +303,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.93333333333333335</c:v>
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.92105263157894735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43333333333333335</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="131977984"/>
-        <c:axId val="131979520"/>
+        <c:axId val="127402752"/>
+        <c:axId val="127404288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131977984"/>
+        <c:axId val="127402752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131979520"/>
+        <c:crossAx val="127404288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131979520"/>
+        <c:axId val="127404288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,7 +340,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131977984"/>
+        <c:crossAx val="127402752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -353,7 +353,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -392,13 +392,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>64.455967030398014</c:v>
+                    <c:v>53.13369310474021</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>92.245974068252778</c:v>
+                    <c:v>72.080952421031981</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>178.99620621104802</c:v>
+                    <c:v>149.78243186705706</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -410,13 +410,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>64.455967030398014</c:v>
+                    <c:v>53.13369310474021</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>92.245974068252778</c:v>
+                    <c:v>72.080952421031981</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>178.99620621104802</c:v>
+                    <c:v>149.78243186705706</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -446,13 +446,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1248.7666666666667</c:v>
+                  <c:v>1197.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1175.1666666666667</c:v>
+                  <c:v>1108.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1297.5517241379309</c:v>
+                  <c:v>1346.2105263157894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,13 +482,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>185.09066885523671</c:v>
+                    <c:v>177.77273320646992</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>52.45479418250202</c:v>
+                    <c:v>47.900214908028254</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>382.46575435512898</c:v>
+                    <c:v>294.15221038744045</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -500,13 +500,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>185.09066885523671</c:v>
+                    <c:v>177.77273320646992</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>52.45479418250202</c:v>
+                    <c:v>47.900214908028254</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>382.46575435512898</c:v>
+                    <c:v>294.15221038744045</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -536,36 +536,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1728.6785714285713</c:v>
+                  <c:v>1689.3783783783783</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1267.8214285714287</c:v>
+                  <c:v>1215.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1955.7692307692307</c:v>
+                  <c:v>1947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133740416"/>
-        <c:axId val="133741952"/>
+        <c:axId val="129017728"/>
+        <c:axId val="129019264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133740416"/>
+        <c:axId val="129017728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133741952"/>
+        <c:crossAx val="129019264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133741952"/>
+        <c:axId val="129019264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,7 +573,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133740416"/>
+        <c:crossAx val="129017728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -586,7 +586,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -950,7 +950,7 @@
   <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2493,8 +2493,187 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" s="1">
-        <f>error!A8</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>174</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>11</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>12</v>
+      </c>
+      <c r="S8">
+        <v>11</v>
+      </c>
+      <c r="T8">
+        <v>9</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>9</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <v>11</v>
+      </c>
+      <c r="Y8">
+        <v>14</v>
+      </c>
+      <c r="Z8">
+        <v>11</v>
+      </c>
+      <c r="AA8">
+        <v>126</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <v>11</v>
+      </c>
+      <c r="AD8">
+        <v>16</v>
+      </c>
+      <c r="AE8">
+        <v>9</v>
+      </c>
+      <c r="AF8">
+        <v>15</v>
+      </c>
+      <c r="AG8">
+        <v>19</v>
+      </c>
+      <c r="AH8">
+        <v>20</v>
+      </c>
+      <c r="AI8">
+        <v>62</v>
+      </c>
+      <c r="AJ8">
+        <v>12</v>
+      </c>
+      <c r="AK8">
+        <v>53</v>
+      </c>
+      <c r="AL8">
+        <v>16</v>
+      </c>
+      <c r="AM8">
+        <v>130</v>
+      </c>
+      <c r="AN8">
+        <v>7</v>
+      </c>
+      <c r="AO8">
+        <v>123</v>
+      </c>
+      <c r="AP8">
+        <v>14</v>
+      </c>
+      <c r="AQ8">
+        <v>12</v>
+      </c>
+      <c r="AR8">
+        <v>10</v>
+      </c>
+      <c r="AS8">
+        <v>-1</v>
+      </c>
+      <c r="AT8">
+        <v>13</v>
+      </c>
+      <c r="AU8">
+        <v>-1</v>
+      </c>
+      <c r="AV8">
+        <v>4</v>
+      </c>
+      <c r="AW8">
+        <v>-1</v>
+      </c>
+      <c r="AX8">
+        <v>6</v>
+      </c>
+      <c r="AY8">
+        <v>12</v>
+      </c>
+      <c r="AZ8">
+        <v>-1</v>
+      </c>
+      <c r="BA8">
+        <v>-1</v>
+      </c>
+      <c r="BB8">
+        <v>9</v>
+      </c>
+      <c r="BC8">
+        <v>6</v>
+      </c>
+      <c r="BD8">
+        <v>9</v>
+      </c>
+      <c r="BE8">
+        <v>-1</v>
+      </c>
+      <c r="BF8">
+        <v>9</v>
+      </c>
+      <c r="BG8">
+        <v>6</v>
+      </c>
+      <c r="BH8">
+        <v>9</v>
+      </c>
+      <c r="BI8">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -2560,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4060,7 +4239,249 @@
       </c>
     </row>
     <row r="8" spans="1:61">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>IF(AND(distance!B8&lt;80,distance!B8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>IF(AND(distance!C8&lt;80,distance!C8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>IF(AND(distance!D8&lt;80,distance!D8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>IF(AND(distance!E8&lt;80,distance!E8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>IF(AND(distance!F8&lt;80,distance!F8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>IF(AND(distance!G8&lt;80,distance!G8&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>IF(AND(distance!H8&lt;80,distance!H8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>IF(AND(distance!I8&lt;80,distance!I8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>IF(AND(distance!J8&lt;80,distance!J8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>IF(AND(distance!K8&lt;80,distance!K8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f>IF(AND(distance!L8&lt;80,distance!L8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(distance!M8&lt;80,distance!M8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f>IF(AND(distance!N8&lt;80,distance!N8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f>IF(AND(distance!O8&lt;80,distance!O8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>IF(AND(distance!P8&lt;80,distance!P8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f>IF(AND(distance!Q8&lt;80,distance!Q8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f>IF(AND(distance!R8&lt;80,distance!R8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f>IF(AND(distance!S8&lt;80,distance!S8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f>IF(AND(distance!T8&lt;80,distance!T8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f>IF(AND(distance!U8&lt;80,distance!U8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <f>IF(AND(distance!V8&lt;80,distance!V8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <f>IF(AND(distance!W8&lt;80,distance!W8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <f>IF(AND(distance!X8&lt;80,distance!X8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <f>IF(AND(distance!Y8&lt;80,distance!Y8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <f>IF(AND(distance!Z8&lt;80,distance!Z8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <f>IF(AND(distance!AA8&lt;80,distance!AA8&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f>IF(AND(distance!AB8&lt;80,distance!AB8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <f>IF(AND(distance!AC8&lt;80,distance!AC8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <f>IF(AND(distance!AD8&lt;80,distance!AD8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <f>IF(AND(distance!AE8&lt;80,distance!AE8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <f>IF(AND(distance!AF8&lt;80,distance!AF8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <f>IF(AND(distance!AG8&lt;80,distance!AG8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <f>IF(AND(distance!AH8&lt;80,distance!AH8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <f>IF(AND(distance!AI8&lt;80,distance!AI8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <f>IF(AND(distance!AJ8&lt;80,distance!AJ8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <f>IF(AND(distance!AK8&lt;80,distance!AK8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <f>IF(AND(distance!AL8&lt;80,distance!AL8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <f>IF(AND(distance!AM8&lt;80,distance!AM8&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f>IF(AND(distance!AN8&lt;80,distance!AN8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <f>IF(AND(distance!AO8&lt;80,distance!AO8&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <f>IF(AND(distance!AP8&lt;80,distance!AP8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <f>IF(AND(distance!AQ8&lt;80,distance!AQ8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <f>IF(AND(distance!AR8&lt;80,distance!AR8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <f>IF(AND(distance!AS8&lt;80,distance!AS8&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <f>IF(AND(distance!AT8&lt;80,distance!AT8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <f>IF(AND(distance!AU8&lt;80,distance!AU8&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <f>IF(AND(distance!AV8&lt;80,distance!AV8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <f>IF(AND(distance!AW8&lt;80,distance!AW8&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <f>IF(AND(distance!AX8&lt;80,distance!AX8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <f>IF(AND(distance!AY8&lt;80,distance!AY8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <f>IF(AND(distance!AZ8&lt;80,distance!AZ8&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <f>IF(AND(distance!BA8&lt;80,distance!BA8&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <f>IF(AND(distance!BB8&lt;80,distance!BB8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <f>IF(AND(distance!BC8&lt;80,distance!BC8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <f>IF(AND(distance!BD8&lt;80,distance!BD8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <f>IF(AND(distance!BE8&lt;80,distance!BE8&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <f>IF(AND(distance!BF8&lt;80,distance!BF8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <f>IF(AND(distance!BG8&lt;80,distance!BG8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <f>IF(AND(distance!BH8&lt;80,distance!BH8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <f>IF(AND(distance!BI8&lt;80,distance!BI8&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="1"/>
@@ -4145,7 +4566,7 @@
       </c>
       <c r="C22">
         <f t="shared" ref="C22:AQ22" si="51">SUM(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)/COUNT(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)</f>
-        <v>0.93333333333333335</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="V22">
         <f t="shared" si="51"/>
@@ -4153,15 +4574,15 @@
       </c>
       <c r="W22">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0.92105263157894735</v>
       </c>
       <c r="AP22">
         <f t="shared" si="51"/>
-        <v>0.96666666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="51"/>
-        <v>0.43333333333333335</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4193,7 +4614,7 @@
       </c>
       <c r="D29">
         <f>AP22</f>
-        <v>0.96666666666666667</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4203,15 +4624,15 @@
       </c>
       <c r="B30">
         <f>C22</f>
-        <v>0.93333333333333335</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C30">
         <f>W22</f>
-        <v>1</v>
+        <v>0.92105263157894735</v>
       </c>
       <c r="D30">
         <f>AQ22</f>
-        <v>0.43333333333333335</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -4224,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="U64" sqref="U64:V64"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5775,7 +6196,187 @@
     <row r="8" spans="1:61">
       <c r="A8">
         <f>error!A8</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1015</v>
+      </c>
+      <c r="C8">
+        <v>978</v>
+      </c>
+      <c r="D8">
+        <v>911</v>
+      </c>
+      <c r="E8">
+        <v>932</v>
+      </c>
+      <c r="F8">
+        <v>915</v>
+      </c>
+      <c r="G8">
+        <v>1382</v>
+      </c>
+      <c r="H8">
+        <v>948</v>
+      </c>
+      <c r="I8">
+        <v>4719</v>
+      </c>
+      <c r="J8">
+        <v>1599</v>
+      </c>
+      <c r="K8">
+        <v>865</v>
+      </c>
+      <c r="L8">
+        <v>949</v>
+      </c>
+      <c r="M8">
+        <v>661</v>
+      </c>
+      <c r="N8">
+        <v>849</v>
+      </c>
+      <c r="O8">
+        <v>999</v>
+      </c>
+      <c r="P8">
+        <v>882</v>
+      </c>
+      <c r="Q8">
+        <v>685</v>
+      </c>
+      <c r="R8">
+        <v>1249</v>
+      </c>
+      <c r="S8">
+        <v>1065</v>
+      </c>
+      <c r="T8">
+        <v>1115</v>
+      </c>
+      <c r="U8">
+        <v>3200</v>
+      </c>
+      <c r="V8">
+        <v>913</v>
+      </c>
+      <c r="W8">
+        <v>946</v>
+      </c>
+      <c r="X8">
+        <v>979</v>
+      </c>
+      <c r="Y8">
+        <v>845</v>
+      </c>
+      <c r="Z8">
+        <v>796</v>
+      </c>
+      <c r="AA8">
+        <v>695</v>
+      </c>
+      <c r="AB8">
+        <v>829</v>
+      </c>
+      <c r="AC8">
+        <v>1413</v>
+      </c>
+      <c r="AD8">
+        <v>829</v>
+      </c>
+      <c r="AE8">
+        <v>1012</v>
+      </c>
+      <c r="AF8">
+        <v>1213</v>
+      </c>
+      <c r="AG8">
+        <v>1100</v>
+      </c>
+      <c r="AH8">
+        <v>812</v>
+      </c>
+      <c r="AI8">
+        <v>762</v>
+      </c>
+      <c r="AJ8">
+        <v>861</v>
+      </c>
+      <c r="AK8">
+        <v>962</v>
+      </c>
+      <c r="AL8">
+        <v>1062</v>
+      </c>
+      <c r="AM8">
+        <v>745</v>
+      </c>
+      <c r="AN8">
+        <v>796</v>
+      </c>
+      <c r="AO8">
+        <v>1229</v>
+      </c>
+      <c r="AP8">
+        <v>814</v>
+      </c>
+      <c r="AQ8">
+        <v>2582</v>
+      </c>
+      <c r="AR8">
+        <v>964</v>
+      </c>
+      <c r="AS8">
+        <v>5018</v>
+      </c>
+      <c r="AT8">
+        <v>764</v>
+      </c>
+      <c r="AU8">
+        <v>5001</v>
+      </c>
+      <c r="AV8">
+        <v>1998</v>
+      </c>
+      <c r="AW8">
+        <v>5001</v>
+      </c>
+      <c r="AX8">
+        <v>1277</v>
+      </c>
+      <c r="AY8">
+        <v>1014</v>
+      </c>
+      <c r="AZ8">
+        <v>5001</v>
+      </c>
+      <c r="BA8">
+        <v>5001</v>
+      </c>
+      <c r="BB8">
+        <v>1331</v>
+      </c>
+      <c r="BC8">
+        <v>877</v>
+      </c>
+      <c r="BD8">
+        <v>1048</v>
+      </c>
+      <c r="BE8">
+        <v>5001</v>
+      </c>
+      <c r="BF8">
+        <v>3253</v>
+      </c>
+      <c r="BG8">
+        <v>2099</v>
+      </c>
+      <c r="BH8">
+        <v>2078</v>
+      </c>
+      <c r="BI8">
+        <v>3049</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -7274,207 +7875,207 @@
     <row r="33" spans="1:61">
       <c r="A33">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B33" t="str">
+        <v>5</v>
+      </c>
+      <c r="B33">
         <f>IF(error!B8=1,time!B8,"")</f>
-        <v/>
-      </c>
-      <c r="C33" t="str">
+        <v>1015</v>
+      </c>
+      <c r="C33">
         <f>IF(error!C8=1,time!C8,"")</f>
-        <v/>
-      </c>
-      <c r="D33" t="str">
+        <v>978</v>
+      </c>
+      <c r="D33">
         <f>IF(error!D8=1,time!D8,"")</f>
-        <v/>
-      </c>
-      <c r="E33" t="str">
+        <v>911</v>
+      </c>
+      <c r="E33">
         <f>IF(error!E8=1,time!E8,"")</f>
-        <v/>
-      </c>
-      <c r="F33" t="str">
+        <v>932</v>
+      </c>
+      <c r="F33">
         <f>IF(error!F8=1,time!F8,"")</f>
-        <v/>
+        <v>915</v>
       </c>
       <c r="G33" t="str">
         <f>IF(error!G8=1,time!G8,"")</f>
         <v/>
       </c>
-      <c r="H33" t="str">
+      <c r="H33">
         <f>IF(error!H8=1,time!H8,"")</f>
-        <v/>
-      </c>
-      <c r="I33" t="str">
+        <v>948</v>
+      </c>
+      <c r="I33">
         <f>IF(error!I8=1,time!I8,"")</f>
-        <v/>
-      </c>
-      <c r="J33" t="str">
+        <v>4719</v>
+      </c>
+      <c r="J33">
         <f>IF(error!J8=1,time!J8,"")</f>
-        <v/>
-      </c>
-      <c r="K33" t="str">
+        <v>1599</v>
+      </c>
+      <c r="K33">
         <f>IF(error!K8=1,time!K8,"")</f>
-        <v/>
-      </c>
-      <c r="L33" t="str">
+        <v>865</v>
+      </c>
+      <c r="L33">
         <f>IF(error!L8=1,time!L8,"")</f>
-        <v/>
-      </c>
-      <c r="M33" t="str">
+        <v>949</v>
+      </c>
+      <c r="M33">
         <f>IF(error!M8=1,time!M8,"")</f>
-        <v/>
-      </c>
-      <c r="N33" t="str">
+        <v>661</v>
+      </c>
+      <c r="N33">
         <f>IF(error!N8=1,time!N8,"")</f>
-        <v/>
-      </c>
-      <c r="O33" t="str">
+        <v>849</v>
+      </c>
+      <c r="O33">
         <f>IF(error!O8=1,time!O8,"")</f>
-        <v/>
-      </c>
-      <c r="P33" t="str">
+        <v>999</v>
+      </c>
+      <c r="P33">
         <f>IF(error!P8=1,time!P8,"")</f>
-        <v/>
-      </c>
-      <c r="Q33" t="str">
+        <v>882</v>
+      </c>
+      <c r="Q33">
         <f>IF(error!Q8=1,time!Q8,"")</f>
-        <v/>
-      </c>
-      <c r="R33" t="str">
+        <v>685</v>
+      </c>
+      <c r="R33">
         <f>IF(error!R8=1,time!R8,"")</f>
-        <v/>
-      </c>
-      <c r="S33" t="str">
+        <v>1249</v>
+      </c>
+      <c r="S33">
         <f>IF(error!S8=1,time!S8,"")</f>
-        <v/>
-      </c>
-      <c r="T33" t="str">
+        <v>1065</v>
+      </c>
+      <c r="T33">
         <f>IF(error!T8=1,time!T8,"")</f>
-        <v/>
-      </c>
-      <c r="U33" t="str">
+        <v>1115</v>
+      </c>
+      <c r="U33">
         <f>IF(error!U8=1,time!U8,"")</f>
-        <v/>
-      </c>
-      <c r="V33" t="str">
+        <v>3200</v>
+      </c>
+      <c r="V33">
         <f>IF(error!V8=1,time!V8,"")</f>
-        <v/>
-      </c>
-      <c r="W33" t="str">
+        <v>913</v>
+      </c>
+      <c r="W33">
         <f>IF(error!W8=1,time!W8,"")</f>
-        <v/>
-      </c>
-      <c r="X33" t="str">
+        <v>946</v>
+      </c>
+      <c r="X33">
         <f>IF(error!X8=1,time!X8,"")</f>
-        <v/>
-      </c>
-      <c r="Y33" t="str">
+        <v>979</v>
+      </c>
+      <c r="Y33">
         <f>IF(error!Y8=1,time!Y8,"")</f>
-        <v/>
-      </c>
-      <c r="Z33" t="str">
+        <v>845</v>
+      </c>
+      <c r="Z33">
         <f>IF(error!Z8=1,time!Z8,"")</f>
-        <v/>
+        <v>796</v>
       </c>
       <c r="AA33" t="str">
         <f>IF(error!AA8=1,time!AA8,"")</f>
         <v/>
       </c>
-      <c r="AB33" t="str">
+      <c r="AB33">
         <f>IF(error!AB8=1,time!AB8,"")</f>
-        <v/>
-      </c>
-      <c r="AC33" t="str">
+        <v>829</v>
+      </c>
+      <c r="AC33">
         <f>IF(error!AC8=1,time!AC8,"")</f>
-        <v/>
-      </c>
-      <c r="AD33" t="str">
+        <v>1413</v>
+      </c>
+      <c r="AD33">
         <f>IF(error!AD8=1,time!AD8,"")</f>
-        <v/>
-      </c>
-      <c r="AE33" t="str">
+        <v>829</v>
+      </c>
+      <c r="AE33">
         <f>IF(error!AE8=1,time!AE8,"")</f>
-        <v/>
-      </c>
-      <c r="AF33" t="str">
+        <v>1012</v>
+      </c>
+      <c r="AF33">
         <f>IF(error!AF8=1,time!AF8,"")</f>
-        <v/>
-      </c>
-      <c r="AG33" t="str">
+        <v>1213</v>
+      </c>
+      <c r="AG33">
         <f>IF(error!AG8=1,time!AG8,"")</f>
-        <v/>
-      </c>
-      <c r="AH33" t="str">
+        <v>1100</v>
+      </c>
+      <c r="AH33">
         <f>IF(error!AH8=1,time!AH8,"")</f>
-        <v/>
-      </c>
-      <c r="AI33" t="str">
+        <v>812</v>
+      </c>
+      <c r="AI33">
         <f>IF(error!AI8=1,time!AI8,"")</f>
-        <v/>
-      </c>
-      <c r="AJ33" t="str">
+        <v>762</v>
+      </c>
+      <c r="AJ33">
         <f>IF(error!AJ8=1,time!AJ8,"")</f>
-        <v/>
-      </c>
-      <c r="AK33" t="str">
+        <v>861</v>
+      </c>
+      <c r="AK33">
         <f>IF(error!AK8=1,time!AK8,"")</f>
-        <v/>
-      </c>
-      <c r="AL33" t="str">
+        <v>962</v>
+      </c>
+      <c r="AL33">
         <f>IF(error!AL8=1,time!AL8,"")</f>
-        <v/>
+        <v>1062</v>
       </c>
       <c r="AM33" t="str">
         <f>IF(error!AM8=1,time!AM8,"")</f>
         <v/>
       </c>
-      <c r="AN33" t="str">
+      <c r="AN33">
         <f>IF(error!AN8=1,time!AN8,"")</f>
-        <v/>
+        <v>796</v>
       </c>
       <c r="AO33" t="str">
         <f>IF(error!AO8=1,time!AO8,"")</f>
         <v/>
       </c>
-      <c r="AP33" t="str">
+      <c r="AP33">
         <f>IF(error!AP8=1,time!AP8,"")</f>
-        <v/>
-      </c>
-      <c r="AQ33" t="str">
+        <v>814</v>
+      </c>
+      <c r="AQ33">
         <f>IF(error!AQ8=1,time!AQ8,"")</f>
-        <v/>
-      </c>
-      <c r="AR33" t="str">
+        <v>2582</v>
+      </c>
+      <c r="AR33">
         <f>IF(error!AR8=1,time!AR8,"")</f>
-        <v/>
+        <v>964</v>
       </c>
       <c r="AS33" t="str">
         <f>IF(error!AS8=1,time!AS8,"")</f>
         <v/>
       </c>
-      <c r="AT33" t="str">
+      <c r="AT33">
         <f>IF(error!AT8=1,time!AT8,"")</f>
-        <v/>
+        <v>764</v>
       </c>
       <c r="AU33" t="str">
         <f>IF(error!AU8=1,time!AU8,"")</f>
         <v/>
       </c>
-      <c r="AV33" t="str">
+      <c r="AV33">
         <f>IF(error!AV8=1,time!AV8,"")</f>
-        <v/>
+        <v>1998</v>
       </c>
       <c r="AW33" t="str">
         <f>IF(error!AW8=1,time!AW8,"")</f>
         <v/>
       </c>
-      <c r="AX33" t="str">
+      <c r="AX33">
         <f>IF(error!AX8=1,time!AX8,"")</f>
-        <v/>
-      </c>
-      <c r="AY33" t="str">
+        <v>1277</v>
+      </c>
+      <c r="AY33">
         <f>IF(error!AY8=1,time!AY8,"")</f>
-        <v/>
+        <v>1014</v>
       </c>
       <c r="AZ33" t="str">
         <f>IF(error!AZ8=1,time!AZ8,"")</f>
@@ -7484,37 +8085,37 @@
         <f>IF(error!BA8=1,time!BA8,"")</f>
         <v/>
       </c>
-      <c r="BB33" t="str">
+      <c r="BB33">
         <f>IF(error!BB8=1,time!BB8,"")</f>
-        <v/>
-      </c>
-      <c r="BC33" t="str">
+        <v>1331</v>
+      </c>
+      <c r="BC33">
         <f>IF(error!BC8=1,time!BC8,"")</f>
-        <v/>
-      </c>
-      <c r="BD33" t="str">
+        <v>877</v>
+      </c>
+      <c r="BD33">
         <f>IF(error!BD8=1,time!BD8,"")</f>
-        <v/>
+        <v>1048</v>
       </c>
       <c r="BE33" t="str">
         <f>IF(error!BE8=1,time!BE8,"")</f>
         <v/>
       </c>
-      <c r="BF33" t="str">
+      <c r="BF33">
         <f>IF(error!BF8=1,time!BF8,"")</f>
-        <v/>
-      </c>
-      <c r="BG33" t="str">
+        <v>3253</v>
+      </c>
+      <c r="BG33">
         <f>IF(error!BG8=1,time!BG8,"")</f>
-        <v/>
-      </c>
-      <c r="BH33" t="str">
+        <v>2099</v>
+      </c>
+      <c r="BH33">
         <f>IF(error!BH8=1,time!BH8,"")</f>
-        <v/>
-      </c>
-      <c r="BI33" t="str">
+        <v>2078</v>
+      </c>
+      <c r="BI33">
         <f>IF(error!BI8=1,time!BI8,"")</f>
-        <v/>
+        <v>3049</v>
       </c>
     </row>
     <row r="34" spans="1:61">
@@ -9039,27 +9640,27 @@
       </c>
       <c r="B47">
         <f>AVERAGE(B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42)</f>
-        <v>1248.7666666666667</v>
+        <v>1197.375</v>
       </c>
       <c r="C47">
         <f>AVERAGE(C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42)</f>
-        <v>1728.6785714285713</v>
+        <v>1689.3783783783783</v>
       </c>
       <c r="V47">
         <f t="shared" ref="V47:AQ47" si="11">AVERAGE(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42)</f>
-        <v>1175.1666666666667</v>
+        <v>1108.625</v>
       </c>
       <c r="W47">
         <f t="shared" si="11"/>
-        <v>1267.8214285714287</v>
+        <v>1215.4000000000001</v>
       </c>
       <c r="AP47">
         <f t="shared" si="11"/>
-        <v>1297.5517241379309</v>
+        <v>1346.2105263157894</v>
       </c>
       <c r="AQ47">
         <f t="shared" si="11"/>
-        <v>1955.7692307692307</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="48" spans="1:61">
@@ -9068,27 +9669,27 @@
       </c>
       <c r="B48">
         <f>STDEV((B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42))/SQRT(COUNT(B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42))</f>
-        <v>64.455967030398014</v>
+        <v>53.13369310474021</v>
       </c>
       <c r="C48">
         <f>STDEV((C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42))/SQRT(COUNT(C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42))</f>
-        <v>185.09066885523671</v>
+        <v>177.77273320646992</v>
       </c>
       <c r="V48">
         <f>STDEV((V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42))/SQRT(COUNT(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42))</f>
-        <v>92.245974068252778</v>
+        <v>72.080952421031981</v>
       </c>
       <c r="W48">
         <f>STDEV((W30:W42,Y30:Y42,AA30:AA42,AC30:AC42,AE30:AE42,AG30:AG42,AI30:AI42,AK30:AK42,AM30:AM42,AO30:AO42))/SQRT(COUNT(W30:W42,Y30:Y42,AA30:AA42,AC30:AC42,AE30:AE42,AG30:AG42,AI30:AI42,AK30:AK42,AM30:AM42,AO30:AO42))</f>
-        <v>52.45479418250202</v>
+        <v>47.900214908028254</v>
       </c>
       <c r="AP48">
         <f>STDEV((AP30:AP42,AR30:AR42,AT30:AT42,AV30:AV42,AX30:AX42,AZ30:AZ42,BB30:BB42,BD30:BD42,BF30:BF42,BH30:BH42))/SQRT(COUNT(AP30:AP42,AR30:AR42,AT30:AT42,AV30:AV42,AX30:AX42,AZ30:AZ42,BB30:BB42,BD30:BD42,BF30:BF42,BH30:BH42))</f>
-        <v>178.99620621104802</v>
+        <v>149.78243186705706</v>
       </c>
       <c r="AQ48">
         <f>STDEV((AQ30:AQ42,AS30:AS42,AU30:AU42,AW30:AW42,AY30:AY42,BA30:BA42,BC30:BC42,BE30:BE42,BG30:BG42,BI30:BI42))/SQRT(COUNT(AQ30:AQ42,AS30:AS42,AU30:AU42,AW30:AW42,AY30:AY42,BA30:BA42,BC30:BC42,BE30:BE42,BG30:BG42,BI30:BI42))</f>
-        <v>382.46575435512898</v>
+        <v>294.15221038744045</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -9112,15 +9713,15 @@
       </c>
       <c r="B54">
         <f>B47</f>
-        <v>1248.7666666666667</v>
+        <v>1197.375</v>
       </c>
       <c r="C54">
         <f>V47</f>
-        <v>1175.1666666666667</v>
+        <v>1108.625</v>
       </c>
       <c r="D54">
         <f>AP47</f>
-        <v>1297.5517241379309</v>
+        <v>1346.2105263157894</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -9130,15 +9731,15 @@
       </c>
       <c r="B55">
         <f>C47</f>
-        <v>1728.6785714285713</v>
+        <v>1689.3783783783783</v>
       </c>
       <c r="C55">
         <f>W47</f>
-        <v>1267.8214285714287</v>
+        <v>1215.4000000000001</v>
       </c>
       <c r="D55">
         <f>AQ47</f>
-        <v>1955.7692307692307</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -9162,15 +9763,15 @@
       </c>
       <c r="B60">
         <f>B48</f>
-        <v>64.455967030398014</v>
+        <v>53.13369310474021</v>
       </c>
       <c r="C60">
         <f>V48</f>
-        <v>92.245974068252778</v>
+        <v>72.080952421031981</v>
       </c>
       <c r="D60">
         <f>AP48</f>
-        <v>178.99620621104802</v>
+        <v>149.78243186705706</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -9180,15 +9781,15 @@
       </c>
       <c r="B61">
         <f>C48</f>
-        <v>185.09066885523671</v>
+        <v>177.77273320646992</v>
       </c>
       <c r="C61">
         <f>W48</f>
-        <v>52.45479418250202</v>
+        <v>47.900214908028254</v>
       </c>
       <c r="D61">
         <f>AQ48</f>
-        <v>382.46575435512898</v>
+        <v>294.15221038744045</v>
       </c>
     </row>
   </sheetData>

--- a/UnityProject/results.xlsx
+++ b/UnityProject/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="330" windowWidth="113955" windowHeight="16890" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="330" windowWidth="113955" windowHeight="16890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -259,7 +259,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,44 +303,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.92500000000000004</c:v>
+                  <c:v>0.94915254237288138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92105263157894735</c:v>
+                  <c:v>0.94827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127402752"/>
-        <c:axId val="127404288"/>
+        <c:axId val="128856832"/>
+        <c:axId val="128858368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127402752"/>
+        <c:axId val="128856832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127404288"/>
+        <c:crossAx val="128858368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127404288"/>
+        <c:axId val="128858368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127402752"/>
+        <c:crossAx val="128856832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -353,7 +355,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -392,13 +394,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>53.13369310474021</c:v>
+                    <c:v>39.91407738438064</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>72.080952421031981</c:v>
+                    <c:v>53.301559170264127</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>149.78243186705706</c:v>
+                    <c:v>128.42403563699798</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -410,13 +412,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>53.13369310474021</c:v>
+                    <c:v>39.91407738438064</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>72.080952421031981</c:v>
+                    <c:v>53.301559170264127</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>149.78243186705706</c:v>
+                    <c:v>128.42403563699798</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -446,13 +448,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1197.375</c:v>
+                  <c:v>1145.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1108.625</c:v>
+                  <c:v>997.48333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1346.2105263157894</c:v>
+                  <c:v>1319.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,13 +484,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>177.77273320646992</c:v>
+                    <c:v>123.19226490122465</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>47.900214908028254</c:v>
+                    <c:v>38.912240188481483</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>294.15221038744045</c:v>
+                    <c:v>243.48871850385046</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -500,13 +502,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>177.77273320646992</c:v>
+                    <c:v>123.19226490122465</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>47.900214908028254</c:v>
+                    <c:v>38.912240188481483</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>294.15221038744045</c:v>
+                    <c:v>243.48871850385046</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -536,36 +538,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1689.3783783783783</c:v>
+                  <c:v>1610.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1215.4000000000001</c:v>
+                  <c:v>1129.2545454545455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1947</c:v>
+                  <c:v>1896.1666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129017728"/>
-        <c:axId val="129019264"/>
+        <c:axId val="130340736"/>
+        <c:axId val="130342272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129017728"/>
+        <c:axId val="130340736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129019264"/>
+        <c:crossAx val="130342272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129019264"/>
+        <c:axId val="130342272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,7 +575,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129017728"/>
+        <c:crossAx val="130340736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -586,7 +588,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -950,7 +952,7 @@
   <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1941,7 +1943,6 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="1">
-        <f>error!A5</f>
         <v>2</v>
       </c>
       <c r="B5">
@@ -2678,57 +2679,392 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="1">
-        <f>error!A9</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>15</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>10</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>13</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+      <c r="AE9">
+        <v>12</v>
+      </c>
+      <c r="AF9">
+        <v>7</v>
+      </c>
+      <c r="AG9">
+        <v>8</v>
+      </c>
+      <c r="AH9">
+        <v>7</v>
+      </c>
+      <c r="AI9">
+        <v>9</v>
+      </c>
+      <c r="AJ9">
+        <v>3</v>
+      </c>
+      <c r="AK9">
+        <v>10</v>
+      </c>
+      <c r="AL9">
+        <v>7</v>
+      </c>
+      <c r="AM9">
+        <v>9</v>
+      </c>
+      <c r="AN9">
+        <v>9</v>
+      </c>
+      <c r="AO9">
+        <v>2</v>
+      </c>
+      <c r="AP9">
+        <v>6</v>
+      </c>
+      <c r="AQ9">
+        <v>-1</v>
+      </c>
+      <c r="AR9">
+        <v>9</v>
+      </c>
+      <c r="AS9">
+        <v>-1</v>
+      </c>
+      <c r="AT9">
+        <v>13</v>
+      </c>
+      <c r="AU9">
+        <v>-1</v>
+      </c>
+      <c r="AV9">
+        <v>10</v>
+      </c>
+      <c r="AW9">
+        <v>8</v>
+      </c>
+      <c r="AX9">
+        <v>8</v>
+      </c>
+      <c r="AY9">
+        <v>-1</v>
+      </c>
+      <c r="AZ9">
+        <v>5</v>
+      </c>
+      <c r="BA9">
+        <v>12</v>
+      </c>
+      <c r="BB9">
+        <v>8</v>
+      </c>
+      <c r="BC9">
+        <v>16</v>
+      </c>
+      <c r="BD9">
+        <v>9</v>
+      </c>
+      <c r="BE9">
+        <v>-1</v>
+      </c>
+      <c r="BF9">
+        <v>14</v>
+      </c>
+      <c r="BG9">
+        <v>9</v>
+      </c>
+      <c r="BH9">
+        <v>5</v>
+      </c>
+      <c r="BI9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="1">
-        <f>error!A10</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10">
+        <v>18</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <v>14</v>
+      </c>
+      <c r="AA10">
+        <v>7</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>7</v>
+      </c>
+      <c r="AD10">
+        <v>6</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
+      </c>
+      <c r="AF10">
+        <v>6</v>
+      </c>
+      <c r="AG10">
+        <v>7</v>
+      </c>
+      <c r="AH10">
+        <v>13</v>
+      </c>
+      <c r="AI10">
+        <v>68</v>
+      </c>
+      <c r="AJ10">
+        <v>8</v>
+      </c>
+      <c r="AK10">
+        <v>7</v>
+      </c>
+      <c r="AL10">
+        <v>13</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <v>3</v>
+      </c>
+      <c r="AP10">
+        <v>-1</v>
+      </c>
+      <c r="AQ10">
+        <v>-1</v>
+      </c>
+      <c r="AR10">
+        <v>-1</v>
+      </c>
+      <c r="AS10">
+        <v>-1</v>
+      </c>
+      <c r="AT10">
+        <v>-1</v>
+      </c>
+      <c r="AU10">
+        <v>-1</v>
+      </c>
+      <c r="AV10">
+        <v>7</v>
+      </c>
+      <c r="AW10">
+        <v>-1</v>
+      </c>
+      <c r="AX10">
+        <v>14</v>
+      </c>
+      <c r="AY10">
+        <v>-1</v>
+      </c>
+      <c r="AZ10">
+        <v>5</v>
+      </c>
+      <c r="BA10">
+        <v>-1</v>
+      </c>
+      <c r="BB10">
+        <v>5</v>
+      </c>
+      <c r="BC10">
+        <v>-1</v>
+      </c>
+      <c r="BD10">
+        <v>7</v>
+      </c>
+      <c r="BE10">
+        <v>-1</v>
+      </c>
+      <c r="BF10">
+        <v>6</v>
+      </c>
+      <c r="BG10">
+        <v>4</v>
+      </c>
+      <c r="BH10">
+        <v>5</v>
+      </c>
+      <c r="BI10">
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:61">
-      <c r="A11" s="1">
-        <f>error!A11</f>
-        <v>0</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:61">
-      <c r="A12" s="1">
-        <f>error!A12</f>
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:61">
-      <c r="A13" s="1">
-        <f>error!A13</f>
-        <v>0</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:61">
-      <c r="A14" s="1">
-        <f>error!A14</f>
-        <v>0</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:61">
-      <c r="A15" s="1">
-        <f>error!A15</f>
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:61">
-      <c r="A16" s="1">
-        <f>error!A16</f>
-        <v>0</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <f>error!A17</f>
-        <v>0</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2739,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3511,6 +3847,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="1">
+        <f>distance!A5</f>
         <v>2</v>
       </c>
       <c r="B5">
@@ -3756,6 +4093,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="1">
+        <f>distance!A6</f>
         <v>3</v>
       </c>
       <c r="B6">
@@ -4001,6 +4339,7 @@
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="1">
+        <f>distance!A7</f>
         <v>4</v>
       </c>
       <c r="B7">
@@ -4240,6 +4579,7 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" s="1">
+        <f>distance!A8</f>
         <v>5</v>
       </c>
       <c r="B8">
@@ -4484,13 +4824,499 @@
       </c>
     </row>
     <row r="9" spans="1:61">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <f>distance!A9</f>
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>IF(AND(distance!B9&lt;80,distance!B9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>IF(AND(distance!C9&lt;80,distance!C9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>IF(AND(distance!D9&lt;80,distance!D9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>IF(AND(distance!E9&lt;80,distance!E9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>IF(AND(distance!F9&lt;80,distance!F9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>IF(AND(distance!G9&lt;80,distance!G9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>IF(AND(distance!H9&lt;80,distance!H9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>IF(AND(distance!I9&lt;80,distance!I9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f>IF(AND(distance!J9&lt;80,distance!J9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>IF(AND(distance!K9&lt;80,distance!K9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>IF(AND(distance!L9&lt;80,distance!L9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(distance!M9&lt;80,distance!M9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f>IF(AND(distance!N9&lt;80,distance!N9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f>IF(AND(distance!O9&lt;80,distance!O9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f>IF(AND(distance!P9&lt;80,distance!P9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f>IF(AND(distance!Q9&lt;80,distance!Q9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f>IF(AND(distance!R9&lt;80,distance!R9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f>IF(AND(distance!S9&lt;80,distance!S9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <f>IF(AND(distance!T9&lt;80,distance!T9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f>IF(AND(distance!U9&lt;80,distance!U9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <f>IF(AND(distance!V9&lt;80,distance!V9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <f>IF(AND(distance!W9&lt;80,distance!W9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f>IF(AND(distance!X9&lt;80,distance!X9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <f>IF(AND(distance!Y9&lt;80,distance!Y9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <f>IF(AND(distance!Z9&lt;80,distance!Z9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <f>IF(AND(distance!AA9&lt;80,distance!AA9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <f>IF(AND(distance!AB9&lt;80,distance!AB9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <f>IF(AND(distance!AC9&lt;80,distance!AC9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <f>IF(AND(distance!AD9&lt;80,distance!AD9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <f>IF(AND(distance!AE9&lt;80,distance!AE9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <f>IF(AND(distance!AF9&lt;80,distance!AF9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <f>IF(AND(distance!AG9&lt;80,distance!AG9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <f>IF(AND(distance!AH9&lt;80,distance!AH9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <f>IF(AND(distance!AI9&lt;80,distance!AI9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <f>IF(AND(distance!AJ9&lt;80,distance!AJ9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <f>IF(AND(distance!AK9&lt;80,distance!AK9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <f>IF(AND(distance!AL9&lt;80,distance!AL9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <f>IF(AND(distance!AM9&lt;80,distance!AM9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <f>IF(AND(distance!AN9&lt;80,distance!AN9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <f>IF(AND(distance!AO9&lt;80,distance!AO9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <f>IF(AND(distance!AP9&lt;80,distance!AP9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <f>IF(AND(distance!AQ9&lt;80,distance!AQ9&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <f>IF(AND(distance!AR9&lt;80,distance!AR9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <f>IF(AND(distance!AS9&lt;80,distance!AS9&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <f>IF(AND(distance!AT9&lt;80,distance!AT9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <f>IF(AND(distance!AU9&lt;80,distance!AU9&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <f>IF(AND(distance!AV9&lt;80,distance!AV9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <f>IF(AND(distance!AW9&lt;80,distance!AW9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <f>IF(AND(distance!AX9&lt;80,distance!AX9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <f>IF(AND(distance!AY9&lt;80,distance!AY9&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <f>IF(AND(distance!AZ9&lt;80,distance!AZ9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <f>IF(AND(distance!BA9&lt;80,distance!BA9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <f>IF(AND(distance!BB9&lt;80,distance!BB9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <f>IF(AND(distance!BC9&lt;80,distance!BC9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD9">
+        <f>IF(AND(distance!BD9&lt;80,distance!BD9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <f>IF(AND(distance!BE9&lt;80,distance!BE9&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <f>IF(AND(distance!BF9&lt;80,distance!BF9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <f>IF(AND(distance!BG9&lt;80,distance!BG9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <f>IF(AND(distance!BH9&lt;80,distance!BH9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <f>IF(AND(distance!BI9&lt;80,distance!BI9&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:61">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <f>distance!A10</f>
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f>IF(AND(distance!B10&lt;80,distance!B10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>IF(AND(distance!C10&lt;80,distance!C10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>IF(AND(distance!D10&lt;80,distance!D10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>IF(AND(distance!E10&lt;80,distance!E10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>IF(AND(distance!F10&lt;80,distance!F10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>IF(AND(distance!G10&lt;80,distance!G10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f>IF(AND(distance!H10&lt;80,distance!H10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f>IF(AND(distance!I10&lt;80,distance!I10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f>IF(AND(distance!J10&lt;80,distance!J10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f>IF(AND(distance!K10&lt;80,distance!K10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>IF(AND(distance!L10&lt;80,distance!L10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(distance!M10&lt;80,distance!M10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>IF(AND(distance!N10&lt;80,distance!N10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f>IF(AND(distance!O10&lt;80,distance!O10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f>IF(AND(distance!P10&lt;80,distance!P10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10">
+        <f>IF(AND(distance!R10&lt;80,distance!R10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f>IF(AND(distance!S10&lt;80,distance!S10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <f>IF(AND(distance!T10&lt;80,distance!T10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <f>IF(AND(distance!U10&lt;80,distance!U10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <f>IF(AND(distance!V10&lt;80,distance!V10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <f>IF(AND(distance!W10&lt;80,distance!W10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <f>IF(AND(distance!X10&lt;80,distance!X10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <f>IF(AND(distance!Y10&lt;80,distance!Y10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <f>IF(AND(distance!Z10&lt;80,distance!Z10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <f>IF(AND(distance!AA10&lt;80,distance!AA10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <f>IF(AND(distance!AB10&lt;80,distance!AB10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <f>IF(AND(distance!AC10&lt;80,distance!AC10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <f>IF(AND(distance!AD10&lt;80,distance!AD10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <f>IF(AND(distance!AE10&lt;80,distance!AE10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <f>IF(AND(distance!AF10&lt;80,distance!AF10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <f>IF(AND(distance!AG10&lt;80,distance!AG10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <f>IF(AND(distance!AH10&lt;80,distance!AH10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <f>IF(AND(distance!AI10&lt;80,distance!AI10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <f>IF(AND(distance!AJ10&lt;80,distance!AJ10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <f>IF(AND(distance!AK10&lt;80,distance!AK10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <f>IF(AND(distance!AL10&lt;80,distance!AL10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <f>IF(AND(distance!AM10&lt;80,distance!AM10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <f>IF(AND(distance!AN10&lt;80,distance!AN10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <f>IF(AND(distance!AO10&lt;80,distance!AO10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <f>IF(AND(distance!AP10&lt;80,distance!AP10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <f>IF(AND(distance!AQ10&lt;80,distance!AQ10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <f>IF(AND(distance!AR10&lt;80,distance!AR10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <f>IF(AND(distance!AS10&lt;80,distance!AS10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <f>IF(AND(distance!AT10&lt;80,distance!AT10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <f>IF(AND(distance!AU10&lt;80,distance!AU10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <f>IF(AND(distance!AV10&lt;80,distance!AV10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <f>IF(AND(distance!AW10&lt;80,distance!AW10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <f>IF(AND(distance!AX10&lt;80,distance!AX10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <f>IF(AND(distance!AY10&lt;80,distance!AY10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <f>IF(AND(distance!AZ10&lt;80,distance!AZ10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <f>IF(AND(distance!BA10&lt;80,distance!BA10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <f>IF(AND(distance!BB10&lt;80,distance!BB10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <f>IF(AND(distance!BC10&lt;80,distance!BC10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <f>IF(AND(distance!BD10&lt;80,distance!BD10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <f>IF(AND(distance!BE10&lt;80,distance!BE10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <f>IF(AND(distance!BF10&lt;80,distance!BF10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG10">
+        <f>IF(AND(distance!BG10&lt;80,distance!BG10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH10">
+        <f>IF(AND(distance!BH10&lt;80,distance!BH10&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <f>IF(AND(distance!BI10&lt;80,distance!BI10&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:61">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <f>distance!A11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:61">
       <c r="A12" s="1"/>
@@ -4566,7 +5392,7 @@
       </c>
       <c r="C22">
         <f t="shared" ref="C22:AQ22" si="51">SUM(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)/COUNT(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)</f>
-        <v>0.92500000000000004</v>
+        <v>0.94915254237288138</v>
       </c>
       <c r="V22">
         <f t="shared" si="51"/>
@@ -4574,15 +5400,15 @@
       </c>
       <c r="W22">
         <f t="shared" si="51"/>
-        <v>0.92105263157894735</v>
+        <v>0.94827586206896552</v>
       </c>
       <c r="AP22">
         <f t="shared" si="51"/>
-        <v>0.95</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="51"/>
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4614,7 +5440,7 @@
       </c>
       <c r="D29">
         <f>AP22</f>
-        <v>0.95</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4624,15 +5450,15 @@
       </c>
       <c r="B30">
         <f>C22</f>
-        <v>0.92500000000000004</v>
+        <v>0.94915254237288138</v>
       </c>
       <c r="C30">
         <f>W22</f>
-        <v>0.92105263157894735</v>
+        <v>0.94827586206896552</v>
       </c>
       <c r="D30">
         <f>AQ22</f>
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -4645,8 +5471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6382,13 +7208,373 @@
     <row r="9" spans="1:61">
       <c r="A9">
         <f>error!A9</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>698</v>
+      </c>
+      <c r="C9">
+        <v>2683</v>
+      </c>
+      <c r="D9">
+        <v>1132</v>
+      </c>
+      <c r="E9">
+        <v>1065</v>
+      </c>
+      <c r="F9">
+        <v>1336</v>
+      </c>
+      <c r="G9">
+        <v>982</v>
+      </c>
+      <c r="H9">
+        <v>911</v>
+      </c>
+      <c r="I9">
+        <v>1566</v>
+      </c>
+      <c r="J9">
+        <v>965</v>
+      </c>
+      <c r="K9">
+        <v>982</v>
+      </c>
+      <c r="L9">
+        <v>949</v>
+      </c>
+      <c r="M9">
+        <v>2033</v>
+      </c>
+      <c r="N9">
+        <v>882</v>
+      </c>
+      <c r="O9">
+        <v>1578</v>
+      </c>
+      <c r="P9">
+        <v>936</v>
+      </c>
+      <c r="Q9">
+        <v>1212</v>
+      </c>
+      <c r="R9">
+        <v>1015</v>
+      </c>
+      <c r="S9">
+        <v>1465</v>
+      </c>
+      <c r="T9">
+        <v>832</v>
+      </c>
+      <c r="U9">
+        <v>1269</v>
+      </c>
+      <c r="V9">
+        <v>829</v>
+      </c>
+      <c r="W9">
+        <v>679</v>
+      </c>
+      <c r="X9">
+        <v>679</v>
+      </c>
+      <c r="Y9">
+        <v>566</v>
+      </c>
+      <c r="Z9">
+        <v>716</v>
+      </c>
+      <c r="AA9">
+        <v>682</v>
+      </c>
+      <c r="AB9">
+        <v>495</v>
+      </c>
+      <c r="AC9">
+        <v>1142</v>
+      </c>
+      <c r="AD9">
+        <v>717</v>
+      </c>
+      <c r="AE9">
+        <v>1311</v>
+      </c>
+      <c r="AF9">
+        <v>405</v>
+      </c>
+      <c r="AG9">
+        <v>679</v>
+      </c>
+      <c r="AH9">
+        <v>677</v>
+      </c>
+      <c r="AI9">
+        <v>841</v>
+      </c>
+      <c r="AJ9">
+        <v>756</v>
+      </c>
+      <c r="AK9">
+        <v>941</v>
+      </c>
+      <c r="AL9">
+        <v>779</v>
+      </c>
+      <c r="AM9">
+        <v>740</v>
+      </c>
+      <c r="AN9">
+        <v>610</v>
+      </c>
+      <c r="AO9">
+        <v>1187</v>
+      </c>
+      <c r="AP9">
+        <v>1915</v>
+      </c>
+      <c r="AQ9">
+        <v>5005</v>
+      </c>
+      <c r="AR9">
+        <v>1662</v>
+      </c>
+      <c r="AS9">
+        <v>5004</v>
+      </c>
+      <c r="AT9">
+        <v>770</v>
+      </c>
+      <c r="AU9">
+        <v>5000</v>
+      </c>
+      <c r="AV9">
+        <v>543</v>
+      </c>
+      <c r="AW9">
+        <v>1131</v>
+      </c>
+      <c r="AX9">
+        <v>464</v>
+      </c>
+      <c r="AY9">
+        <v>5009</v>
+      </c>
+      <c r="AZ9">
+        <v>799</v>
+      </c>
+      <c r="BA9">
+        <v>3963</v>
+      </c>
+      <c r="BB9">
+        <v>1164</v>
+      </c>
+      <c r="BC9">
+        <v>1217</v>
+      </c>
+      <c r="BD9">
+        <v>831</v>
+      </c>
+      <c r="BE9">
+        <v>5004</v>
+      </c>
+      <c r="BF9">
+        <v>792</v>
+      </c>
+      <c r="BG9">
+        <v>1135</v>
+      </c>
+      <c r="BH9">
+        <v>710</v>
+      </c>
+      <c r="BI9">
+        <v>1551</v>
       </c>
     </row>
     <row r="10" spans="1:61">
       <c r="A10">
         <f>error!A10</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>961</v>
+      </c>
+      <c r="C10">
+        <v>2379</v>
+      </c>
+      <c r="D10">
+        <v>1032</v>
+      </c>
+      <c r="E10">
+        <v>1399</v>
+      </c>
+      <c r="F10">
+        <v>1315</v>
+      </c>
+      <c r="G10">
+        <v>1482</v>
+      </c>
+      <c r="H10">
+        <v>815</v>
+      </c>
+      <c r="I10">
+        <v>1432</v>
+      </c>
+      <c r="J10">
+        <v>1132</v>
+      </c>
+      <c r="K10">
+        <v>1149</v>
+      </c>
+      <c r="L10">
+        <v>1286</v>
+      </c>
+      <c r="M10">
+        <v>1432</v>
+      </c>
+      <c r="N10">
+        <v>1645</v>
+      </c>
+      <c r="O10">
+        <v>1553</v>
+      </c>
+      <c r="P10">
+        <v>982</v>
+      </c>
+      <c r="Q10">
+        <v>965</v>
+      </c>
+      <c r="R10">
+        <v>915</v>
+      </c>
+      <c r="S10">
+        <v>1148</v>
+      </c>
+      <c r="T10">
+        <v>1099</v>
+      </c>
+      <c r="U10">
+        <v>865</v>
+      </c>
+      <c r="V10">
+        <v>762</v>
+      </c>
+      <c r="W10">
+        <v>958</v>
+      </c>
+      <c r="X10">
+        <v>1017</v>
+      </c>
+      <c r="Y10">
+        <v>1163</v>
+      </c>
+      <c r="Z10">
+        <v>825</v>
+      </c>
+      <c r="AA10">
+        <v>1329</v>
+      </c>
+      <c r="AB10">
+        <v>863</v>
+      </c>
+      <c r="AC10">
+        <v>979</v>
+      </c>
+      <c r="AD10">
+        <v>962</v>
+      </c>
+      <c r="AE10">
+        <v>795</v>
+      </c>
+      <c r="AF10">
+        <v>879</v>
+      </c>
+      <c r="AG10">
+        <v>1113</v>
+      </c>
+      <c r="AH10">
+        <v>746</v>
+      </c>
+      <c r="AI10">
+        <v>962</v>
+      </c>
+      <c r="AJ10">
+        <v>983</v>
+      </c>
+      <c r="AK10">
+        <v>1062</v>
+      </c>
+      <c r="AL10">
+        <v>842</v>
+      </c>
+      <c r="AM10">
+        <v>1329</v>
+      </c>
+      <c r="AN10">
+        <v>962</v>
+      </c>
+      <c r="AO10">
+        <v>1112</v>
+      </c>
+      <c r="AP10">
+        <v>5001</v>
+      </c>
+      <c r="AQ10">
+        <v>5001</v>
+      </c>
+      <c r="AR10">
+        <v>5001</v>
+      </c>
+      <c r="AS10">
+        <v>5008</v>
+      </c>
+      <c r="AT10">
+        <v>5018</v>
+      </c>
+      <c r="AU10">
+        <v>5001</v>
+      </c>
+      <c r="AV10">
+        <v>1582</v>
+      </c>
+      <c r="AW10">
+        <v>5005</v>
+      </c>
+      <c r="AX10">
+        <v>944</v>
+      </c>
+      <c r="AY10">
+        <v>5001</v>
+      </c>
+      <c r="AZ10">
+        <v>5001</v>
+      </c>
+      <c r="BA10">
+        <v>5001</v>
+      </c>
+      <c r="BB10">
+        <v>1147</v>
+      </c>
+      <c r="BC10">
+        <v>5001</v>
+      </c>
+      <c r="BD10">
+        <v>797</v>
+      </c>
+      <c r="BE10">
+        <v>5000</v>
+      </c>
+      <c r="BF10">
+        <v>1181</v>
+      </c>
+      <c r="BG10">
+        <v>1465</v>
+      </c>
+      <c r="BH10">
+        <v>1131</v>
+      </c>
+      <c r="BI10">
+        <v>5001</v>
       </c>
     </row>
     <row r="26" spans="1:61">
@@ -8121,413 +9307,413 @@
     <row r="34" spans="1:61">
       <c r="A34">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B34" t="str">
+        <v>6</v>
+      </c>
+      <c r="B34">
         <f>IF(error!B9=1,time!B9,"")</f>
-        <v/>
-      </c>
-      <c r="C34" t="str">
+        <v>698</v>
+      </c>
+      <c r="C34">
         <f>IF(error!C9=1,time!C9,"")</f>
-        <v/>
-      </c>
-      <c r="D34" t="str">
+        <v>2683</v>
+      </c>
+      <c r="D34">
         <f>IF(error!D9=1,time!D9,"")</f>
-        <v/>
-      </c>
-      <c r="E34" t="str">
+        <v>1132</v>
+      </c>
+      <c r="E34">
         <f>IF(error!E9=1,time!E9,"")</f>
-        <v/>
-      </c>
-      <c r="F34" t="str">
+        <v>1065</v>
+      </c>
+      <c r="F34">
         <f>IF(error!F9=1,time!F9,"")</f>
-        <v/>
-      </c>
-      <c r="G34" t="str">
+        <v>1336</v>
+      </c>
+      <c r="G34">
         <f>IF(error!G9=1,time!G9,"")</f>
-        <v/>
-      </c>
-      <c r="H34" t="str">
+        <v>982</v>
+      </c>
+      <c r="H34">
         <f>IF(error!H9=1,time!H9,"")</f>
-        <v/>
-      </c>
-      <c r="I34" t="str">
+        <v>911</v>
+      </c>
+      <c r="I34">
         <f>IF(error!I9=1,time!I9,"")</f>
-        <v/>
-      </c>
-      <c r="J34" t="str">
+        <v>1566</v>
+      </c>
+      <c r="J34">
         <f>IF(error!J9=1,time!J9,"")</f>
-        <v/>
-      </c>
-      <c r="K34" t="str">
+        <v>965</v>
+      </c>
+      <c r="K34">
         <f>IF(error!K9=1,time!K9,"")</f>
-        <v/>
-      </c>
-      <c r="L34" t="str">
+        <v>982</v>
+      </c>
+      <c r="L34">
         <f>IF(error!L9=1,time!L9,"")</f>
-        <v/>
-      </c>
-      <c r="M34" t="str">
+        <v>949</v>
+      </c>
+      <c r="M34">
         <f>IF(error!M9=1,time!M9,"")</f>
-        <v/>
-      </c>
-      <c r="N34" t="str">
+        <v>2033</v>
+      </c>
+      <c r="N34">
         <f>IF(error!N9=1,time!N9,"")</f>
-        <v/>
-      </c>
-      <c r="O34" t="str">
+        <v>882</v>
+      </c>
+      <c r="O34">
         <f>IF(error!O9=1,time!O9,"")</f>
-        <v/>
-      </c>
-      <c r="P34" t="str">
+        <v>1578</v>
+      </c>
+      <c r="P34">
         <f>IF(error!P9=1,time!P9,"")</f>
-        <v/>
-      </c>
-      <c r="Q34" t="str">
+        <v>936</v>
+      </c>
+      <c r="Q34">
         <f>IF(error!Q9=1,time!Q9,"")</f>
-        <v/>
-      </c>
-      <c r="R34" t="str">
+        <v>1212</v>
+      </c>
+      <c r="R34">
         <f>IF(error!R9=1,time!R9,"")</f>
-        <v/>
-      </c>
-      <c r="S34" t="str">
+        <v>1015</v>
+      </c>
+      <c r="S34">
         <f>IF(error!S9=1,time!S9,"")</f>
-        <v/>
-      </c>
-      <c r="T34" t="str">
+        <v>1465</v>
+      </c>
+      <c r="T34">
         <f>IF(error!T9=1,time!T9,"")</f>
-        <v/>
-      </c>
-      <c r="U34" t="str">
+        <v>832</v>
+      </c>
+      <c r="U34">
         <f>IF(error!U9=1,time!U9,"")</f>
-        <v/>
-      </c>
-      <c r="V34" t="str">
+        <v>1269</v>
+      </c>
+      <c r="V34">
         <f>IF(error!V9=1,time!V9,"")</f>
-        <v/>
-      </c>
-      <c r="W34" t="str">
+        <v>829</v>
+      </c>
+      <c r="W34">
         <f>IF(error!W9=1,time!W9,"")</f>
-        <v/>
-      </c>
-      <c r="X34" t="str">
+        <v>679</v>
+      </c>
+      <c r="X34">
         <f>IF(error!X9=1,time!X9,"")</f>
-        <v/>
-      </c>
-      <c r="Y34" t="str">
+        <v>679</v>
+      </c>
+      <c r="Y34">
         <f>IF(error!Y9=1,time!Y9,"")</f>
-        <v/>
-      </c>
-      <c r="Z34" t="str">
+        <v>566</v>
+      </c>
+      <c r="Z34">
         <f>IF(error!Z9=1,time!Z9,"")</f>
-        <v/>
-      </c>
-      <c r="AA34" t="str">
+        <v>716</v>
+      </c>
+      <c r="AA34">
         <f>IF(error!AA9=1,time!AA9,"")</f>
-        <v/>
-      </c>
-      <c r="AB34" t="str">
+        <v>682</v>
+      </c>
+      <c r="AB34">
         <f>IF(error!AB9=1,time!AB9,"")</f>
-        <v/>
-      </c>
-      <c r="AC34" t="str">
+        <v>495</v>
+      </c>
+      <c r="AC34">
         <f>IF(error!AC9=1,time!AC9,"")</f>
-        <v/>
-      </c>
-      <c r="AD34" t="str">
+        <v>1142</v>
+      </c>
+      <c r="AD34">
         <f>IF(error!AD9=1,time!AD9,"")</f>
-        <v/>
-      </c>
-      <c r="AE34" t="str">
+        <v>717</v>
+      </c>
+      <c r="AE34">
         <f>IF(error!AE9=1,time!AE9,"")</f>
-        <v/>
-      </c>
-      <c r="AF34" t="str">
+        <v>1311</v>
+      </c>
+      <c r="AF34">
         <f>IF(error!AF9=1,time!AF9,"")</f>
-        <v/>
-      </c>
-      <c r="AG34" t="str">
+        <v>405</v>
+      </c>
+      <c r="AG34">
         <f>IF(error!AG9=1,time!AG9,"")</f>
-        <v/>
-      </c>
-      <c r="AH34" t="str">
+        <v>679</v>
+      </c>
+      <c r="AH34">
         <f>IF(error!AH9=1,time!AH9,"")</f>
-        <v/>
-      </c>
-      <c r="AI34" t="str">
+        <v>677</v>
+      </c>
+      <c r="AI34">
         <f>IF(error!AI9=1,time!AI9,"")</f>
-        <v/>
-      </c>
-      <c r="AJ34" t="str">
+        <v>841</v>
+      </c>
+      <c r="AJ34">
         <f>IF(error!AJ9=1,time!AJ9,"")</f>
-        <v/>
-      </c>
-      <c r="AK34" t="str">
+        <v>756</v>
+      </c>
+      <c r="AK34">
         <f>IF(error!AK9=1,time!AK9,"")</f>
-        <v/>
-      </c>
-      <c r="AL34" t="str">
+        <v>941</v>
+      </c>
+      <c r="AL34">
         <f>IF(error!AL9=1,time!AL9,"")</f>
-        <v/>
-      </c>
-      <c r="AM34" t="str">
+        <v>779</v>
+      </c>
+      <c r="AM34">
         <f>IF(error!AM9=1,time!AM9,"")</f>
-        <v/>
-      </c>
-      <c r="AN34" t="str">
+        <v>740</v>
+      </c>
+      <c r="AN34">
         <f>IF(error!AN9=1,time!AN9,"")</f>
-        <v/>
-      </c>
-      <c r="AO34" t="str">
+        <v>610</v>
+      </c>
+      <c r="AO34">
         <f>IF(error!AO9=1,time!AO9,"")</f>
-        <v/>
-      </c>
-      <c r="AP34" t="str">
+        <v>1187</v>
+      </c>
+      <c r="AP34">
         <f>IF(error!AP9=1,time!AP9,"")</f>
-        <v/>
+        <v>1915</v>
       </c>
       <c r="AQ34" t="str">
         <f>IF(error!AQ9=1,time!AQ9,"")</f>
         <v/>
       </c>
-      <c r="AR34" t="str">
+      <c r="AR34">
         <f>IF(error!AR9=1,time!AR9,"")</f>
-        <v/>
+        <v>1662</v>
       </c>
       <c r="AS34" t="str">
         <f>IF(error!AS9=1,time!AS9,"")</f>
         <v/>
       </c>
-      <c r="AT34" t="str">
+      <c r="AT34">
         <f>IF(error!AT9=1,time!AT9,"")</f>
-        <v/>
+        <v>770</v>
       </c>
       <c r="AU34" t="str">
         <f>IF(error!AU9=1,time!AU9,"")</f>
         <v/>
       </c>
-      <c r="AV34" t="str">
+      <c r="AV34">
         <f>IF(error!AV9=1,time!AV9,"")</f>
-        <v/>
-      </c>
-      <c r="AW34" t="str">
+        <v>543</v>
+      </c>
+      <c r="AW34">
         <f>IF(error!AW9=1,time!AW9,"")</f>
-        <v/>
-      </c>
-      <c r="AX34" t="str">
+        <v>1131</v>
+      </c>
+      <c r="AX34">
         <f>IF(error!AX9=1,time!AX9,"")</f>
-        <v/>
+        <v>464</v>
       </c>
       <c r="AY34" t="str">
         <f>IF(error!AY9=1,time!AY9,"")</f>
         <v/>
       </c>
-      <c r="AZ34" t="str">
+      <c r="AZ34">
         <f>IF(error!AZ9=1,time!AZ9,"")</f>
-        <v/>
-      </c>
-      <c r="BA34" t="str">
+        <v>799</v>
+      </c>
+      <c r="BA34">
         <f>IF(error!BA9=1,time!BA9,"")</f>
-        <v/>
-      </c>
-      <c r="BB34" t="str">
+        <v>3963</v>
+      </c>
+      <c r="BB34">
         <f>IF(error!BB9=1,time!BB9,"")</f>
-        <v/>
-      </c>
-      <c r="BC34" t="str">
+        <v>1164</v>
+      </c>
+      <c r="BC34">
         <f>IF(error!BC9=1,time!BC9,"")</f>
-        <v/>
-      </c>
-      <c r="BD34" t="str">
+        <v>1217</v>
+      </c>
+      <c r="BD34">
         <f>IF(error!BD9=1,time!BD9,"")</f>
-        <v/>
+        <v>831</v>
       </c>
       <c r="BE34" t="str">
         <f>IF(error!BE9=1,time!BE9,"")</f>
         <v/>
       </c>
-      <c r="BF34" t="str">
+      <c r="BF34">
         <f>IF(error!BF9=1,time!BF9,"")</f>
-        <v/>
-      </c>
-      <c r="BG34" t="str">
+        <v>792</v>
+      </c>
+      <c r="BG34">
         <f>IF(error!BG9=1,time!BG9,"")</f>
-        <v/>
-      </c>
-      <c r="BH34" t="str">
+        <v>1135</v>
+      </c>
+      <c r="BH34">
         <f>IF(error!BH9=1,time!BH9,"")</f>
-        <v/>
-      </c>
-      <c r="BI34" t="str">
+        <v>710</v>
+      </c>
+      <c r="BI34">
         <f>IF(error!BI9=1,time!BI9,"")</f>
-        <v/>
+        <v>1551</v>
       </c>
     </row>
     <row r="35" spans="1:61">
       <c r="A35">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B35" t="str">
+        <v>7</v>
+      </c>
+      <c r="B35">
         <f>IF(error!B10=1,time!B10,"")</f>
-        <v/>
-      </c>
-      <c r="C35" t="str">
+        <v>961</v>
+      </c>
+      <c r="C35">
         <f>IF(error!C10=1,time!C10,"")</f>
-        <v/>
-      </c>
-      <c r="D35" t="str">
+        <v>2379</v>
+      </c>
+      <c r="D35">
         <f>IF(error!D10=1,time!D10,"")</f>
-        <v/>
-      </c>
-      <c r="E35" t="str">
+        <v>1032</v>
+      </c>
+      <c r="E35">
         <f>IF(error!E10=1,time!E10,"")</f>
-        <v/>
-      </c>
-      <c r="F35" t="str">
+        <v>1399</v>
+      </c>
+      <c r="F35">
         <f>IF(error!F10=1,time!F10,"")</f>
-        <v/>
-      </c>
-      <c r="G35" t="str">
+        <v>1315</v>
+      </c>
+      <c r="G35">
         <f>IF(error!G10=1,time!G10,"")</f>
-        <v/>
-      </c>
-      <c r="H35" t="str">
+        <v>1482</v>
+      </c>
+      <c r="H35">
         <f>IF(error!H10=1,time!H10,"")</f>
-        <v/>
-      </c>
-      <c r="I35" t="str">
+        <v>815</v>
+      </c>
+      <c r="I35">
         <f>IF(error!I10=1,time!I10,"")</f>
-        <v/>
-      </c>
-      <c r="J35" t="str">
+        <v>1432</v>
+      </c>
+      <c r="J35">
         <f>IF(error!J10=1,time!J10,"")</f>
-        <v/>
-      </c>
-      <c r="K35" t="str">
+        <v>1132</v>
+      </c>
+      <c r="K35">
         <f>IF(error!K10=1,time!K10,"")</f>
-        <v/>
-      </c>
-      <c r="L35" t="str">
+        <v>1149</v>
+      </c>
+      <c r="L35">
         <f>IF(error!L10=1,time!L10,"")</f>
-        <v/>
-      </c>
-      <c r="M35" t="str">
+        <v>1286</v>
+      </c>
+      <c r="M35">
         <f>IF(error!M10=1,time!M10,"")</f>
-        <v/>
-      </c>
-      <c r="N35" t="str">
+        <v>1432</v>
+      </c>
+      <c r="N35">
         <f>IF(error!N10=1,time!N10,"")</f>
-        <v/>
-      </c>
-      <c r="O35" t="str">
+        <v>1645</v>
+      </c>
+      <c r="O35">
         <f>IF(error!O10=1,time!O10,"")</f>
-        <v/>
-      </c>
-      <c r="P35" t="str">
+        <v>1553</v>
+      </c>
+      <c r="P35">
         <f>IF(error!P10=1,time!P10,"")</f>
-        <v/>
+        <v>982</v>
       </c>
       <c r="Q35" t="str">
         <f>IF(error!Q10=1,time!Q10,"")</f>
         <v/>
       </c>
-      <c r="R35" t="str">
+      <c r="R35">
         <f>IF(error!R10=1,time!R10,"")</f>
-        <v/>
-      </c>
-      <c r="S35" t="str">
+        <v>915</v>
+      </c>
+      <c r="S35">
         <f>IF(error!S10=1,time!S10,"")</f>
-        <v/>
-      </c>
-      <c r="T35" t="str">
+        <v>1148</v>
+      </c>
+      <c r="T35">
         <f>IF(error!T10=1,time!T10,"")</f>
-        <v/>
-      </c>
-      <c r="U35" t="str">
+        <v>1099</v>
+      </c>
+      <c r="U35">
         <f>IF(error!U10=1,time!U10,"")</f>
-        <v/>
-      </c>
-      <c r="V35" t="str">
+        <v>865</v>
+      </c>
+      <c r="V35">
         <f>IF(error!V10=1,time!V10,"")</f>
-        <v/>
-      </c>
-      <c r="W35" t="str">
+        <v>762</v>
+      </c>
+      <c r="W35">
         <f>IF(error!W10=1,time!W10,"")</f>
-        <v/>
-      </c>
-      <c r="X35" t="str">
+        <v>958</v>
+      </c>
+      <c r="X35">
         <f>IF(error!X10=1,time!X10,"")</f>
-        <v/>
-      </c>
-      <c r="Y35" t="str">
+        <v>1017</v>
+      </c>
+      <c r="Y35">
         <f>IF(error!Y10=1,time!Y10,"")</f>
-        <v/>
-      </c>
-      <c r="Z35" t="str">
+        <v>1163</v>
+      </c>
+      <c r="Z35">
         <f>IF(error!Z10=1,time!Z10,"")</f>
-        <v/>
-      </c>
-      <c r="AA35" t="str">
+        <v>825</v>
+      </c>
+      <c r="AA35">
         <f>IF(error!AA10=1,time!AA10,"")</f>
-        <v/>
-      </c>
-      <c r="AB35" t="str">
+        <v>1329</v>
+      </c>
+      <c r="AB35">
         <f>IF(error!AB10=1,time!AB10,"")</f>
-        <v/>
-      </c>
-      <c r="AC35" t="str">
+        <v>863</v>
+      </c>
+      <c r="AC35">
         <f>IF(error!AC10=1,time!AC10,"")</f>
-        <v/>
-      </c>
-      <c r="AD35" t="str">
+        <v>979</v>
+      </c>
+      <c r="AD35">
         <f>IF(error!AD10=1,time!AD10,"")</f>
-        <v/>
-      </c>
-      <c r="AE35" t="str">
+        <v>962</v>
+      </c>
+      <c r="AE35">
         <f>IF(error!AE10=1,time!AE10,"")</f>
-        <v/>
-      </c>
-      <c r="AF35" t="str">
+        <v>795</v>
+      </c>
+      <c r="AF35">
         <f>IF(error!AF10=1,time!AF10,"")</f>
-        <v/>
-      </c>
-      <c r="AG35" t="str">
+        <v>879</v>
+      </c>
+      <c r="AG35">
         <f>IF(error!AG10=1,time!AG10,"")</f>
-        <v/>
-      </c>
-      <c r="AH35" t="str">
+        <v>1113</v>
+      </c>
+      <c r="AH35">
         <f>IF(error!AH10=1,time!AH10,"")</f>
-        <v/>
-      </c>
-      <c r="AI35" t="str">
+        <v>746</v>
+      </c>
+      <c r="AI35">
         <f>IF(error!AI10=1,time!AI10,"")</f>
-        <v/>
-      </c>
-      <c r="AJ35" t="str">
+        <v>962</v>
+      </c>
+      <c r="AJ35">
         <f>IF(error!AJ10=1,time!AJ10,"")</f>
-        <v/>
-      </c>
-      <c r="AK35" t="str">
+        <v>983</v>
+      </c>
+      <c r="AK35">
         <f>IF(error!AK10=1,time!AK10,"")</f>
-        <v/>
-      </c>
-      <c r="AL35" t="str">
+        <v>1062</v>
+      </c>
+      <c r="AL35">
         <f>IF(error!AL10=1,time!AL10,"")</f>
-        <v/>
-      </c>
-      <c r="AM35" t="str">
+        <v>842</v>
+      </c>
+      <c r="AM35">
         <f>IF(error!AM10=1,time!AM10,"")</f>
-        <v/>
-      </c>
-      <c r="AN35" t="str">
+        <v>1329</v>
+      </c>
+      <c r="AN35">
         <f>IF(error!AN10=1,time!AN10,"")</f>
-        <v/>
-      </c>
-      <c r="AO35" t="str">
+        <v>962</v>
+      </c>
+      <c r="AO35">
         <f>IF(error!AO10=1,time!AO10,"")</f>
-        <v/>
+        <v>1112</v>
       </c>
       <c r="AP35" t="str">
         <f>IF(error!AP10=1,time!AP10,"")</f>
@@ -8553,57 +9739,57 @@
         <f>IF(error!AU10=1,time!AU10,"")</f>
         <v/>
       </c>
-      <c r="AV35" t="str">
+      <c r="AV35">
         <f>IF(error!AV10=1,time!AV10,"")</f>
-        <v/>
+        <v>1582</v>
       </c>
       <c r="AW35" t="str">
         <f>IF(error!AW10=1,time!AW10,"")</f>
         <v/>
       </c>
-      <c r="AX35" t="str">
+      <c r="AX35">
         <f>IF(error!AX10=1,time!AX10,"")</f>
-        <v/>
+        <v>944</v>
       </c>
       <c r="AY35" t="str">
         <f>IF(error!AY10=1,time!AY10,"")</f>
         <v/>
       </c>
-      <c r="AZ35" t="str">
+      <c r="AZ35">
         <f>IF(error!AZ10=1,time!AZ10,"")</f>
-        <v/>
+        <v>5001</v>
       </c>
       <c r="BA35" t="str">
         <f>IF(error!BA10=1,time!BA10,"")</f>
         <v/>
       </c>
-      <c r="BB35" t="str">
+      <c r="BB35">
         <f>IF(error!BB10=1,time!BB10,"")</f>
-        <v/>
+        <v>1147</v>
       </c>
       <c r="BC35" t="str">
         <f>IF(error!BC10=1,time!BC10,"")</f>
         <v/>
       </c>
-      <c r="BD35" t="str">
+      <c r="BD35">
         <f>IF(error!BD10=1,time!BD10,"")</f>
-        <v/>
+        <v>797</v>
       </c>
       <c r="BE35" t="str">
         <f>IF(error!BE10=1,time!BE10,"")</f>
         <v/>
       </c>
-      <c r="BF35" t="str">
+      <c r="BF35">
         <f>IF(error!BF10=1,time!BF10,"")</f>
-        <v/>
-      </c>
-      <c r="BG35" t="str">
+        <v>1181</v>
+      </c>
+      <c r="BG35">
         <f>IF(error!BG10=1,time!BG10,"")</f>
-        <v/>
-      </c>
-      <c r="BH35" t="str">
+        <v>1465</v>
+      </c>
+      <c r="BH35">
         <f>IF(error!BH10=1,time!BH10,"")</f>
-        <v/>
+        <v>1131</v>
       </c>
       <c r="BI35" t="str">
         <f>IF(error!BI10=1,time!BI10,"")</f>
@@ -9640,27 +10826,27 @@
       </c>
       <c r="B47">
         <f>AVERAGE(B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42)</f>
-        <v>1197.375</v>
+        <v>1145.55</v>
       </c>
       <c r="C47">
         <f>AVERAGE(C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42)</f>
-        <v>1689.3783783783783</v>
+        <v>1610.375</v>
       </c>
       <c r="V47">
         <f t="shared" ref="V47:AQ47" si="11">AVERAGE(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42)</f>
-        <v>1108.625</v>
+        <v>997.48333333333335</v>
       </c>
       <c r="W47">
         <f t="shared" si="11"/>
-        <v>1215.4000000000001</v>
+        <v>1129.2545454545455</v>
       </c>
       <c r="AP47">
         <f t="shared" si="11"/>
-        <v>1346.2105263157894</v>
+        <v>1319.8</v>
       </c>
       <c r="AQ47">
         <f t="shared" si="11"/>
-        <v>1947</v>
+        <v>1896.1666666666667</v>
       </c>
     </row>
     <row r="48" spans="1:61">
@@ -9669,27 +10855,27 @@
       </c>
       <c r="B48">
         <f>STDEV((B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42))/SQRT(COUNT(B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42))</f>
-        <v>53.13369310474021</v>
+        <v>39.91407738438064</v>
       </c>
       <c r="C48">
         <f>STDEV((C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42))/SQRT(COUNT(C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42))</f>
-        <v>177.77273320646992</v>
+        <v>123.19226490122465</v>
       </c>
       <c r="V48">
         <f>STDEV((V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42))/SQRT(COUNT(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42))</f>
-        <v>72.080952421031981</v>
+        <v>53.301559170264127</v>
       </c>
       <c r="W48">
         <f>STDEV((W30:W42,Y30:Y42,AA30:AA42,AC30:AC42,AE30:AE42,AG30:AG42,AI30:AI42,AK30:AK42,AM30:AM42,AO30:AO42))/SQRT(COUNT(W30:W42,Y30:Y42,AA30:AA42,AC30:AC42,AE30:AE42,AG30:AG42,AI30:AI42,AK30:AK42,AM30:AM42,AO30:AO42))</f>
-        <v>47.900214908028254</v>
+        <v>38.912240188481483</v>
       </c>
       <c r="AP48">
         <f>STDEV((AP30:AP42,AR30:AR42,AT30:AT42,AV30:AV42,AX30:AX42,AZ30:AZ42,BB30:BB42,BD30:BD42,BF30:BF42,BH30:BH42))/SQRT(COUNT(AP30:AP42,AR30:AR42,AT30:AT42,AV30:AV42,AX30:AX42,AZ30:AZ42,BB30:BB42,BD30:BD42,BF30:BF42,BH30:BH42))</f>
-        <v>149.78243186705706</v>
+        <v>128.42403563699798</v>
       </c>
       <c r="AQ48">
         <f>STDEV((AQ30:AQ42,AS30:AS42,AU30:AU42,AW30:AW42,AY30:AY42,BA30:BA42,BC30:BC42,BE30:BE42,BG30:BG42,BI30:BI42))/SQRT(COUNT(AQ30:AQ42,AS30:AS42,AU30:AU42,AW30:AW42,AY30:AY42,BA30:BA42,BC30:BC42,BE30:BE42,BG30:BG42,BI30:BI42))</f>
-        <v>294.15221038744045</v>
+        <v>243.48871850385046</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -9713,15 +10899,15 @@
       </c>
       <c r="B54">
         <f>B47</f>
-        <v>1197.375</v>
+        <v>1145.55</v>
       </c>
       <c r="C54">
         <f>V47</f>
-        <v>1108.625</v>
+        <v>997.48333333333335</v>
       </c>
       <c r="D54">
         <f>AP47</f>
-        <v>1346.2105263157894</v>
+        <v>1319.8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -9731,15 +10917,15 @@
       </c>
       <c r="B55">
         <f>C47</f>
-        <v>1689.3783783783783</v>
+        <v>1610.375</v>
       </c>
       <c r="C55">
         <f>W47</f>
-        <v>1215.4000000000001</v>
+        <v>1129.2545454545455</v>
       </c>
       <c r="D55">
         <f>AQ47</f>
-        <v>1947</v>
+        <v>1896.1666666666667</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -9763,15 +10949,15 @@
       </c>
       <c r="B60">
         <f>B48</f>
-        <v>53.13369310474021</v>
+        <v>39.91407738438064</v>
       </c>
       <c r="C60">
         <f>V48</f>
-        <v>72.080952421031981</v>
+        <v>53.301559170264127</v>
       </c>
       <c r="D60">
         <f>AP48</f>
-        <v>149.78243186705706</v>
+        <v>128.42403563699798</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -9781,15 +10967,15 @@
       </c>
       <c r="B61">
         <f>C48</f>
-        <v>177.77273320646992</v>
+        <v>123.19226490122465</v>
       </c>
       <c r="C61">
         <f>W48</f>
-        <v>47.900214908028254</v>
+        <v>38.912240188481483</v>
       </c>
       <c r="D61">
         <f>AQ48</f>
-        <v>294.15221038744045</v>
+        <v>243.48871850385046</v>
       </c>
     </row>
   </sheetData>

--- a/UnityProject/results.xlsx
+++ b/UnityProject/results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="330" windowWidth="24240" windowHeight="13740" activeTab="2"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -164,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,25 +242,13 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="de-AT"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -275,7 +263,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>error!$B$28:$D$28</c:f>
@@ -306,7 +293,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91666666666666663</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,7 +313,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>error!$B$28:$D$28</c:f>
@@ -351,62 +337,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.94915254237288138</c:v>
+                  <c:v>0.96202531645569622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94827586206896552</c:v>
+                  <c:v>0.94871794871794868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.38750000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="56824320"/>
-        <c:axId val="89674816"/>
+        <c:dLbls/>
+        <c:axId val="127900288"/>
+        <c:axId val="127922560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56824320"/>
+        <c:axId val="127900288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89674816"/>
+        <c:crossAx val="127922560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89674816"/>
+        <c:axId val="127922560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56824320"/>
+        <c:crossAx val="127900288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -414,15 +385,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -430,25 +399,13 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="de-AT"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -463,11 +420,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>time!$B$60:$D$60</c:f>
@@ -475,13 +430,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>39.91407738438064</c:v>
+                    <c:v>31.352194798305373</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>53.301559170264127</c:v>
+                    <c:v>44.483416676073965</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>128.42403563699798</c:v>
+                    <c:v>107.70861709165054</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -493,13 +448,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>39.91407738438064</c:v>
+                    <c:v>31.352194798305373</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>53.301559170264127</c:v>
+                    <c:v>44.483416676073965</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>128.42403563699798</c:v>
+                    <c:v>107.70861709165054</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -529,13 +484,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1145.55</c:v>
+                  <c:v>1123.5250000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>997.48333333333335</c:v>
+                  <c:v>1015.725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1319.8</c:v>
+                  <c:v>1315.1866666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,11 +510,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>time!$B$61:$D$61</c:f>
@@ -567,13 +520,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>123.19226490122465</c:v>
+                    <c:v>93.016923270842369</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>38.912240188481483</c:v>
+                    <c:v>63.607603292640107</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>243.48871850385046</c:v>
+                    <c:v>243.31333740581513</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -585,13 +538,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>123.19226490122465</c:v>
+                    <c:v>93.016923270842369</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>38.912240188481483</c:v>
+                    <c:v>63.607603292640107</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>243.48871850385046</c:v>
+                    <c:v>243.31333740581513</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -621,60 +574,45 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1610.375</c:v>
+                  <c:v>1551.3684210526317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1129.2545454545455</c:v>
+                  <c:v>1244.1756756756756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1896.1666666666667</c:v>
+                  <c:v>2146.4193548387098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="56639488"/>
-        <c:axId val="89677120"/>
+        <c:dLbls/>
+        <c:axId val="128025344"/>
+        <c:axId val="128026880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56639488"/>
+        <c:axId val="128025344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89677120"/>
+        <c:crossAx val="128026880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89677120"/>
+        <c:axId val="128026880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56639488"/>
+        <c:crossAx val="128025344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -682,15 +620,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -841,7 +777,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -876,7 +811,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1052,16 +986,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="AP12" sqref="AP12:BI12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61">
       <c r="A1">
         <f>error!A1</f>
         <v>0</v>
@@ -1307,7 +1241,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61">
       <c r="A2">
         <f>error!A2</f>
         <v>0</v>
@@ -1553,7 +1487,7 @@
         <v>R9</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61">
       <c r="A3">
         <f>error!A3</f>
         <v>0</v>
@@ -1799,7 +1733,7 @@
         <v>peripheral</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61">
       <c r="A4" s="1">
         <f>error!A4</f>
         <v>0</v>
@@ -2045,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2230,7 +2164,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2415,7 +2349,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2596,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2781,7 +2715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2966,7 +2900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -3149,25 +3083,389 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>12</v>
+      </c>
+      <c r="U11">
+        <v>16</v>
+      </c>
+      <c r="V11">
+        <v>13</v>
+      </c>
+      <c r="W11">
+        <v>28</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>9</v>
+      </c>
+      <c r="Z11">
+        <v>12</v>
+      </c>
+      <c r="AA11">
+        <v>9</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11">
+        <v>9</v>
+      </c>
+      <c r="AE11">
+        <v>18</v>
+      </c>
+      <c r="AF11">
+        <v>14</v>
+      </c>
+      <c r="AG11">
+        <v>15</v>
+      </c>
+      <c r="AH11">
+        <v>16</v>
+      </c>
+      <c r="AI11">
+        <v>19</v>
+      </c>
+      <c r="AJ11">
+        <v>3</v>
+      </c>
+      <c r="AK11">
+        <v>10</v>
+      </c>
+      <c r="AL11">
+        <v>20</v>
+      </c>
+      <c r="AM11">
+        <v>7</v>
+      </c>
+      <c r="AN11">
+        <v>10</v>
+      </c>
+      <c r="AO11">
+        <v>6</v>
+      </c>
+      <c r="AP11">
+        <v>7</v>
+      </c>
+      <c r="AQ11">
+        <v>4</v>
+      </c>
+      <c r="AR11">
+        <v>6</v>
+      </c>
+      <c r="AS11">
+        <v>-1</v>
+      </c>
+      <c r="AT11">
+        <v>11</v>
+      </c>
+      <c r="AU11">
+        <v>-1</v>
+      </c>
+      <c r="AV11">
+        <v>13</v>
+      </c>
+      <c r="AW11">
+        <v>-1</v>
+      </c>
+      <c r="AX11">
+        <v>5</v>
+      </c>
+      <c r="AY11">
+        <v>-1</v>
+      </c>
+      <c r="AZ11">
+        <v>4</v>
+      </c>
+      <c r="BA11">
+        <v>-1</v>
+      </c>
+      <c r="BB11">
+        <v>6</v>
+      </c>
+      <c r="BC11">
+        <v>-1</v>
+      </c>
+      <c r="BD11">
+        <v>7</v>
+      </c>
+      <c r="BE11">
+        <v>-1</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>-1</v>
+      </c>
+      <c r="BH11">
+        <v>6</v>
+      </c>
+      <c r="BI11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <v>12</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>9</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>21</v>
+      </c>
+      <c r="Z12">
+        <v>8</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AB12">
+        <v>43</v>
+      </c>
+      <c r="AC12">
+        <v>7</v>
+      </c>
+      <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AE12">
+        <v>7121</v>
+      </c>
+      <c r="AF12">
+        <v>5</v>
+      </c>
+      <c r="AG12">
+        <v>6</v>
+      </c>
+      <c r="AH12">
+        <v>2</v>
+      </c>
+      <c r="AI12">
+        <v>4</v>
+      </c>
+      <c r="AJ12">
+        <v>10</v>
+      </c>
+      <c r="AK12">
+        <v>11</v>
+      </c>
+      <c r="AL12">
+        <v>4</v>
+      </c>
+      <c r="AM12">
+        <v>10</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>2</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>288</v>
+      </c>
+      <c r="AR12">
+        <v>5</v>
+      </c>
+      <c r="AS12">
+        <v>10</v>
+      </c>
+      <c r="AT12">
+        <v>11</v>
+      </c>
+      <c r="AU12">
+        <v>6</v>
+      </c>
+      <c r="AV12">
+        <v>5</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>-1</v>
+      </c>
+      <c r="AZ12">
+        <v>4</v>
+      </c>
+      <c r="BA12">
+        <v>5</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
+        <v>-1</v>
+      </c>
+      <c r="BD12">
+        <v>2</v>
+      </c>
+      <c r="BE12">
+        <v>-1</v>
+      </c>
+      <c r="BF12">
+        <v>4</v>
+      </c>
+      <c r="BG12">
+        <v>6</v>
+      </c>
+      <c r="BH12">
+        <v>7</v>
+      </c>
+      <c r="BI12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
   </sheetData>
@@ -3176,16 +3474,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ30"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AX32" sqref="AX32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69">
       <c r="B1" t="s">
         <v>32</v>
       </c>
@@ -3448,7 +3746,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -3671,7 +3969,7 @@
         <v>R9</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -3935,7 +4233,7 @@
         <v>peripheral</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -3997,7 +4295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69">
       <c r="A5" s="1">
         <f>distance!A5</f>
         <v>2</v>
@@ -4267,7 +4565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69">
       <c r="A6" s="1">
         <f>distance!A6</f>
         <v>3</v>
@@ -4537,7 +4835,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69">
       <c r="A7" s="1">
         <f>distance!A7</f>
         <v>4</v>
@@ -4801,7 +5099,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69">
       <c r="A8" s="1">
         <f>distance!A8</f>
         <v>5</v>
@@ -5071,7 +5369,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69">
       <c r="A9" s="1">
         <f>distance!A9</f>
         <v>6</v>
@@ -5341,7 +5639,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69">
       <c r="A10" s="1">
         <f>distance!A10</f>
         <v>7</v>
@@ -5608,106 +5906,637 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69">
       <c r="A11" s="1">
         <f>distance!A11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f>IF(AND(distance!B11&lt;80,distance!B11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>IF(AND(distance!C11&lt;80,distance!C11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f>IF(AND(distance!D11&lt;80,distance!D11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>IF(AND(distance!E11&lt;80,distance!E11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>IF(AND(distance!F11&lt;80,distance!F11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>IF(AND(distance!G11&lt;80,distance!G11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>IF(AND(distance!H11&lt;80,distance!H11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f>IF(AND(distance!I11&lt;80,distance!I11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f>IF(AND(distance!J11&lt;80,distance!J11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f>IF(AND(distance!K11&lt;80,distance!K11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f>IF(AND(distance!L11&lt;80,distance!L11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>IF(AND(distance!M11&lt;80,distance!M11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>IF(AND(distance!N11&lt;80,distance!N11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f>IF(AND(distance!O11&lt;80,distance!O11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f>IF(AND(distance!P11&lt;80,distance!P11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f>IF(AND(distance!Q11&lt;80,distance!Q11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f>IF(AND(distance!R11&lt;80,distance!R11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f>IF(AND(distance!S11&lt;80,distance!S11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <f>IF(AND(distance!T11&lt;80,distance!T11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f>IF(AND(distance!U11&lt;80,distance!U11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f>IF(AND(distance!V11&lt;80,distance!V11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f>IF(AND(distance!W11&lt;80,distance!W11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <f>IF(AND(distance!X11&lt;80,distance!X11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <f>IF(AND(distance!Y11&lt;80,distance!Y11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <f>IF(AND(distance!Z11&lt;80,distance!Z11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <f>IF(AND(distance!AA11&lt;80,distance!AA11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <f>IF(AND(distance!AB11&lt;80,distance!AB11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <f>IF(AND(distance!AC11&lt;80,distance!AC11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <f>IF(AND(distance!AD11&lt;80,distance!AD11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <f>IF(AND(distance!AE11&lt;80,distance!AE11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <f>IF(AND(distance!AF11&lt;80,distance!AF11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <f>IF(AND(distance!AG11&lt;80,distance!AG11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <f>IF(AND(distance!AH11&lt;80,distance!AH11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <f>IF(AND(distance!AI11&lt;80,distance!AI11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <f>IF(AND(distance!AJ11&lt;80,distance!AJ11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <f>IF(AND(distance!AK11&lt;80,distance!AK11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <f>IF(AND(distance!AL11&lt;80,distance!AL11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <f>IF(AND(distance!AM11&lt;80,distance!AM11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <f>IF(AND(distance!AN11&lt;80,distance!AN11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <f>IF(AND(distance!AO11&lt;80,distance!AO11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <f>IF(AND(distance!AP11&lt;80,distance!AP11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <f>IF(AND(distance!AQ11&lt;80,distance!AQ11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <f>IF(AND(distance!AR11&lt;80,distance!AR11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <f>IF(AND(distance!AS11&lt;80,distance!AS11&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <f>IF(AND(distance!AT11&lt;80,distance!AT11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <f>IF(AND(distance!AU11&lt;80,distance!AU11&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <f>IF(AND(distance!AV11&lt;80,distance!AV11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <f>IF(AND(distance!AW11&lt;80,distance!AW11&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <f>IF(AND(distance!AX11&lt;80,distance!AX11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <f>IF(AND(distance!AY11&lt;80,distance!AY11&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <f>IF(AND(distance!AZ11&lt;80,distance!AZ11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <f>IF(AND(distance!BA11&lt;80,distance!BA11&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <f>IF(AND(distance!BB11&lt;80,distance!BB11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <f>IF(AND(distance!BC11&lt;80,distance!BC11&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <f>IF(AND(distance!BD11&lt;80,distance!BD11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <f>IF(AND(distance!BE11&lt;80,distance!BE11&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <f>IF(AND(distance!BF11&lt;80,distance!BF11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <f>IF(AND(distance!BG11&lt;80,distance!BG11&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <f>IF(AND(distance!BH11&lt;80,distance!BH11&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI11">
+        <f>IF(AND(distance!BI11&lt;80,distance!BI11&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <f t="shared" ref="BL11:BL12" si="54">SUM(B11,D11,F11,H11,J11,L11,N11,P11,R11,T11)/COUNT(B11,D11,F11,H11,J11,L11,N11,P11,R11,T11)</f>
+        <v>1</v>
+      </c>
+      <c r="BM11">
+        <f t="shared" ref="BM11:BM12" si="55">SUM(C11,E11,G11,I11,K11,M11,O11,Q11,S11,U11)/COUNT(C11,E11,G11,I11,K11,M11,O11,Q11,S11,U11)</f>
+        <v>1</v>
+      </c>
+      <c r="BN11">
+        <f t="shared" ref="BN11:BN12" si="56">SUM(V11,X11,Z11,AB11,AD11,AF11,AH11,AJ11,AL11,AN11)/COUNT(V11,X11,Z11,AB11,AD11,AF11,AH11,AJ11,AL11,AN11)</f>
+        <v>1</v>
+      </c>
+      <c r="BO11">
+        <f t="shared" ref="BO11:BO12" si="57">SUM(W11,Y11,AA11,AC11,AE11,AG11,AI11,AK11,AM11,AO11)/COUNT(W11,Y11,AA11,AC11,AE11,AG11,AI11,AK11,AM11,AO11)</f>
+        <v>1</v>
+      </c>
+      <c r="BP11">
+        <f t="shared" ref="BP11:BP12" si="58">SUM(AP11,AR11,AT11,AV11,AX11,AZ11,BB11,BD11,BF11,BH11)/COUNT(AP11,AR11,AT11,AV11,AX11,AZ11,BB11,BD11,BF11,BH11)</f>
+        <v>1</v>
+      </c>
+      <c r="BQ11">
+        <f t="shared" ref="BQ11:BQ12" si="59">SUM(AQ11,AS11,AU11,AW11,AY11,BA11,BC11,BE11,BG11,BI11)/COUNT(AQ11,AS11,AU11,AW11,AY11,BA11,BC11,BE11,BG11,BI11)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69">
+      <c r="A12" s="1">
+        <f>distance!A12</f>
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f>IF(AND(distance!B12&lt;80,distance!B12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>IF(AND(distance!C12&lt;80,distance!C12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>IF(AND(distance!D12&lt;80,distance!D12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>IF(AND(distance!E12&lt;80,distance!E12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>IF(AND(distance!F12&lt;80,distance!F12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>IF(AND(distance!G12&lt;80,distance!G12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>IF(AND(distance!H12&lt;80,distance!H12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>IF(AND(distance!I12&lt;80,distance!I12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f>IF(AND(distance!J12&lt;80,distance!J12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f>IF(AND(distance!K12&lt;80,distance!K12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f>IF(AND(distance!L12&lt;80,distance!L12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>IF(AND(distance!M12&lt;80,distance!M12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f>IF(AND(distance!N12&lt;80,distance!N12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f>IF(AND(distance!O12&lt;80,distance!O12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f>IF(AND(distance!P12&lt;80,distance!P12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f>IF(AND(distance!Q12&lt;80,distance!Q12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f>IF(AND(distance!R12&lt;80,distance!R12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f>IF(AND(distance!S12&lt;80,distance!S12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <f>IF(AND(distance!T12&lt;80,distance!T12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f>IF(AND(distance!U12&lt;80,distance!U12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <f>IF(AND(distance!V12&lt;80,distance!V12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <f>IF(AND(distance!W12&lt;80,distance!W12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <f>IF(AND(distance!X12&lt;80,distance!X12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <f>IF(AND(distance!Y12&lt;80,distance!Y12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f>IF(AND(distance!Z12&lt;80,distance!Z12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <f>IF(AND(distance!AA12&lt;80,distance!AA12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <f>IF(AND(distance!AB12&lt;80,distance!AB12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <f>IF(AND(distance!AC12&lt;80,distance!AC12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <f>IF(AND(distance!AD12&lt;80,distance!AD12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <f>IF(AND(distance!AE12&lt;80,distance!AE12&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f>IF(AND(distance!AF12&lt;80,distance!AF12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <f>IF(AND(distance!AG12&lt;80,distance!AG12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <f>IF(AND(distance!AH12&lt;80,distance!AH12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <f>IF(AND(distance!AI12&lt;80,distance!AI12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <f>IF(AND(distance!AJ12&lt;80,distance!AJ12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <f>IF(AND(distance!AK12&lt;80,distance!AK12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <f>IF(AND(distance!AL12&lt;80,distance!AL12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <f>IF(AND(distance!AM12&lt;80,distance!AM12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <f>IF(AND(distance!AN12&lt;80,distance!AN12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <f>IF(AND(distance!AO12&lt;80,distance!AO12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <f>IF(AND(distance!AP12&lt;80,distance!AP12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <f>IF(AND(distance!AQ12&lt;80,distance!AQ12&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <f>IF(AND(distance!AR12&lt;80,distance!AR12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <f>IF(AND(distance!AS12&lt;80,distance!AS12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <f>IF(AND(distance!AT12&lt;80,distance!AT12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <f>IF(AND(distance!AU12&lt;80,distance!AU12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <f>IF(AND(distance!AV12&lt;80,distance!AV12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <f>IF(AND(distance!AW12&lt;80,distance!AW12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <f>IF(AND(distance!AX12&lt;80,distance!AX12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <f>IF(AND(distance!AY12&lt;80,distance!AY12&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <f>IF(AND(distance!AZ12&lt;80,distance!AZ12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <f>IF(AND(distance!BA12&lt;80,distance!BA12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <f>IF(AND(distance!BB12&lt;80,distance!BB12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC12">
+        <f>IF(AND(distance!BC12&lt;80,distance!BC12&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <f>IF(AND(distance!BD12&lt;80,distance!BD12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <f>IF(AND(distance!BE12&lt;80,distance!BE12&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <f>IF(AND(distance!BF12&lt;80,distance!BF12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG12">
+        <f>IF(AND(distance!BG12&lt;80,distance!BG12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH12">
+        <f>IF(AND(distance!BH12&lt;80,distance!BH12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI12">
+        <f>IF(AND(distance!BI12&lt;80,distance!BI12&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BL12">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="BM12">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="BN12">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <f t="shared" si="57"/>
+        <v>0.9</v>
+      </c>
+      <c r="BP12">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="BQ12">
+        <f t="shared" si="59"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69">
       <c r="A16" s="1"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="B20" t="str">
         <f>B1</f>
         <v>AF</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ref="C20" si="54">C1</f>
+        <f t="shared" ref="C20" si="60">C1</f>
         <v>AF</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" ref="V20:AQ20" si="55">V1</f>
+        <f t="shared" ref="V20:AQ20" si="61">V1</f>
         <v>SL</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>SL</v>
       </c>
       <c r="AP20" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>H</v>
       </c>
       <c r="AQ20" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>H</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="B21" t="str">
         <f>B3</f>
         <v>(para)foveal</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21" si="56">C3</f>
+        <f t="shared" ref="C21" si="62">C3</f>
         <v>peripheral</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" ref="V21:AQ21" si="57">V3</f>
+        <f t="shared" ref="V21:AQ21" si="63">V3</f>
         <v>(para)foveal</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>peripheral</v>
       </c>
       <c r="AP21" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>(para)foveal</v>
       </c>
       <c r="AQ21" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>peripheral</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="B22">
         <f>SUM(B5:B17,D5:D17,F5:F17,H5:H17,J5:J17,L5:L17,N5:N17,P5:P17,R5:R17,T5:T17)/COUNT(B5:B17,D5:D17,F5:F17,H5:H17,J5:J17,L5:L17,N5:N17,P5:P17,R5:R17,T5:T17)</f>
         <v>1</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:AQ22" si="58">SUM(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)/COUNT(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)</f>
-        <v>0.94915254237288138</v>
+        <f t="shared" ref="C22:AQ22" si="64">SUM(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)/COUNT(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)</f>
+        <v>0.96202531645569622</v>
       </c>
       <c r="V22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="W22">
-        <f t="shared" si="58"/>
-        <v>0.94827586206896552</v>
+        <f t="shared" si="64"/>
+        <v>0.94871794871794868</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="58"/>
-        <v>0.91666666666666663</v>
+        <f t="shared" si="64"/>
+        <v>0.9375</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="58"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+        <f t="shared" si="64"/>
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
       <c r="B28" t="str">
         <f>B20</f>
         <v>AF</v>
@@ -5721,7 +6550,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29" t="str">
         <f>B21</f>
         <v>(para)foveal</v>
@@ -5736,25 +6565,25 @@
       </c>
       <c r="D29">
         <f>AP22</f>
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" t="str">
         <f>C21</f>
         <v>peripheral</v>
       </c>
       <c r="B30">
         <f>C22</f>
-        <v>0.94915254237288138</v>
+        <v>0.96202531645569622</v>
       </c>
       <c r="C30">
         <f>W22</f>
-        <v>0.94827586206896552</v>
+        <v>0.94871794871794868</v>
       </c>
       <c r="D30">
         <f>AQ22</f>
-        <v>0.4</v>
+        <v>0.38750000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5765,16 +6594,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BH23" sqref="BH23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BQ40" sqref="BQ40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61">
       <c r="A1">
         <f>error!A1</f>
         <v>0</v>
@@ -6020,7 +6849,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61">
       <c r="A2">
         <f>error!A2</f>
         <v>0</v>
@@ -6266,7 +7095,7 @@
         <v>R9</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61">
       <c r="A3">
         <f>error!A3</f>
         <v>0</v>
@@ -6512,7 +7341,7 @@
         <v>peripheral</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61">
       <c r="A4">
         <f>error!A4</f>
         <v>0</v>
@@ -6758,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61">
       <c r="A5">
         <f>error!A5</f>
         <v>2</v>
@@ -6944,7 +7773,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61">
       <c r="A6">
         <f>error!A6</f>
         <v>3</v>
@@ -7130,7 +7959,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61">
       <c r="A7">
         <f>error!A7</f>
         <v>4</v>
@@ -7316,7 +8145,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61">
       <c r="A8">
         <f>error!A8</f>
         <v>5</v>
@@ -7502,7 +8331,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61">
       <c r="A9">
         <f>error!A9</f>
         <v>6</v>
@@ -7688,7 +8517,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61">
       <c r="A10">
         <f>error!A10</f>
         <v>7</v>
@@ -7874,12 +8703,384 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61">
+      <c r="A11">
+        <f>error!A11</f>
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1065</v>
+      </c>
+      <c r="C11">
+        <v>1620</v>
+      </c>
+      <c r="D11">
+        <v>1266</v>
+      </c>
+      <c r="E11">
+        <v>1082</v>
+      </c>
+      <c r="F11">
+        <v>845</v>
+      </c>
+      <c r="G11">
+        <v>1820</v>
+      </c>
+      <c r="H11">
+        <v>1245</v>
+      </c>
+      <c r="I11">
+        <v>1432</v>
+      </c>
+      <c r="J11">
+        <v>1037</v>
+      </c>
+      <c r="K11">
+        <v>1399</v>
+      </c>
+      <c r="L11">
+        <v>1215</v>
+      </c>
+      <c r="M11">
+        <v>1425</v>
+      </c>
+      <c r="N11">
+        <v>1232</v>
+      </c>
+      <c r="O11">
+        <v>1332</v>
+      </c>
+      <c r="P11">
+        <v>1199</v>
+      </c>
+      <c r="Q11">
+        <v>1629</v>
+      </c>
+      <c r="R11">
+        <v>1232</v>
+      </c>
+      <c r="S11">
+        <v>1198</v>
+      </c>
+      <c r="T11">
+        <v>1132</v>
+      </c>
+      <c r="U11">
+        <v>765</v>
+      </c>
+      <c r="V11">
+        <v>966</v>
+      </c>
+      <c r="W11">
+        <v>1622</v>
+      </c>
+      <c r="X11">
+        <v>1743</v>
+      </c>
+      <c r="Y11">
+        <v>1530</v>
+      </c>
+      <c r="Z11">
+        <v>1130</v>
+      </c>
+      <c r="AA11">
+        <v>1111</v>
+      </c>
+      <c r="AB11">
+        <v>1209</v>
+      </c>
+      <c r="AC11">
+        <v>1580</v>
+      </c>
+      <c r="AD11">
+        <v>1116</v>
+      </c>
+      <c r="AE11">
+        <v>1376</v>
+      </c>
+      <c r="AF11">
+        <v>1179</v>
+      </c>
+      <c r="AG11">
+        <v>1830</v>
+      </c>
+      <c r="AH11">
+        <v>879</v>
+      </c>
+      <c r="AI11">
+        <v>1579</v>
+      </c>
+      <c r="AJ11">
+        <v>1075</v>
+      </c>
+      <c r="AK11">
+        <v>1267</v>
+      </c>
+      <c r="AL11">
+        <v>1213</v>
+      </c>
+      <c r="AM11">
+        <v>1095</v>
+      </c>
+      <c r="AN11">
+        <v>1179</v>
+      </c>
+      <c r="AO11">
+        <v>2212</v>
+      </c>
+      <c r="AP11">
+        <v>648</v>
+      </c>
+      <c r="AQ11">
+        <v>1282</v>
+      </c>
+      <c r="AR11">
+        <v>868</v>
+      </c>
+      <c r="AS11">
+        <v>5001</v>
+      </c>
+      <c r="AT11">
+        <v>2532</v>
+      </c>
+      <c r="AU11">
+        <v>5001</v>
+      </c>
+      <c r="AV11">
+        <v>864</v>
+      </c>
+      <c r="AW11">
+        <v>5001</v>
+      </c>
+      <c r="AX11">
+        <v>1177</v>
+      </c>
+      <c r="AY11">
+        <v>5018</v>
+      </c>
+      <c r="AZ11">
+        <v>881</v>
+      </c>
+      <c r="BA11">
+        <v>5002</v>
+      </c>
+      <c r="BB11">
+        <v>1110</v>
+      </c>
+      <c r="BC11">
+        <v>5018</v>
+      </c>
+      <c r="BD11">
+        <v>1048</v>
+      </c>
+      <c r="BE11">
+        <v>5002</v>
+      </c>
+      <c r="BF11">
+        <v>1198</v>
+      </c>
+      <c r="BG11">
+        <v>5001</v>
+      </c>
+      <c r="BH11">
+        <v>1098</v>
+      </c>
+      <c r="BI11">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61">
+      <c r="A12">
+        <f>error!A12</f>
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1047</v>
+      </c>
+      <c r="C12">
+        <v>1286</v>
+      </c>
+      <c r="D12">
+        <v>982</v>
+      </c>
+      <c r="E12">
+        <v>2080</v>
+      </c>
+      <c r="F12">
+        <v>1066</v>
+      </c>
+      <c r="G12">
+        <v>1565</v>
+      </c>
+      <c r="H12">
+        <v>915</v>
+      </c>
+      <c r="I12">
+        <v>1312</v>
+      </c>
+      <c r="J12">
+        <v>1053</v>
+      </c>
+      <c r="K12">
+        <v>1199</v>
+      </c>
+      <c r="L12">
+        <v>776</v>
+      </c>
+      <c r="M12">
+        <v>879</v>
+      </c>
+      <c r="N12">
+        <v>1186</v>
+      </c>
+      <c r="O12">
+        <v>1528</v>
+      </c>
+      <c r="P12">
+        <v>898</v>
+      </c>
+      <c r="Q12">
+        <v>1119</v>
+      </c>
+      <c r="R12">
+        <v>810</v>
+      </c>
+      <c r="S12">
+        <v>1355</v>
+      </c>
+      <c r="T12">
+        <v>948</v>
+      </c>
+      <c r="U12">
+        <v>1698</v>
+      </c>
+      <c r="V12">
+        <v>1556</v>
+      </c>
+      <c r="W12">
+        <v>5007</v>
+      </c>
+      <c r="X12">
+        <v>952</v>
+      </c>
+      <c r="Y12">
+        <v>725</v>
+      </c>
+      <c r="Z12">
+        <v>1896</v>
+      </c>
+      <c r="AA12">
+        <v>1046</v>
+      </c>
+      <c r="AB12">
+        <v>474</v>
+      </c>
+      <c r="AC12">
+        <v>1809</v>
+      </c>
+      <c r="AD12">
+        <v>1011</v>
+      </c>
+      <c r="AE12">
+        <v>562</v>
+      </c>
+      <c r="AF12">
+        <v>819</v>
+      </c>
+      <c r="AG12">
+        <v>1328</v>
+      </c>
+      <c r="AH12">
+        <v>590</v>
+      </c>
+      <c r="AI12">
+        <v>1028</v>
+      </c>
+      <c r="AJ12">
+        <v>838</v>
+      </c>
+      <c r="AK12">
+        <v>1315</v>
+      </c>
+      <c r="AL12">
+        <v>736</v>
+      </c>
+      <c r="AM12">
+        <v>1246</v>
+      </c>
+      <c r="AN12">
+        <v>848</v>
+      </c>
+      <c r="AO12">
+        <v>1254</v>
+      </c>
+      <c r="AP12">
+        <v>1887</v>
+      </c>
+      <c r="AQ12">
+        <v>5005</v>
+      </c>
+      <c r="AR12">
+        <v>718</v>
+      </c>
+      <c r="AS12">
+        <v>4834</v>
+      </c>
+      <c r="AT12">
+        <v>827</v>
+      </c>
+      <c r="AU12">
+        <v>3683</v>
+      </c>
+      <c r="AV12">
+        <v>945</v>
+      </c>
+      <c r="AW12">
+        <v>2116</v>
+      </c>
+      <c r="AX12">
+        <v>1202</v>
+      </c>
+      <c r="AY12">
+        <v>5015</v>
+      </c>
+      <c r="AZ12">
+        <v>1421</v>
+      </c>
+      <c r="BA12">
+        <v>3683</v>
+      </c>
+      <c r="BB12">
+        <v>593</v>
+      </c>
+      <c r="BC12">
+        <v>5013</v>
+      </c>
+      <c r="BD12">
+        <v>814</v>
+      </c>
+      <c r="BE12">
+        <v>5011</v>
+      </c>
+      <c r="BF12">
+        <v>4592</v>
+      </c>
+      <c r="BG12">
+        <v>4651</v>
+      </c>
+      <c r="BH12">
+        <v>1627</v>
+      </c>
+      <c r="BI12">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:69">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69">
       <c r="A27">
         <f>A1</f>
         <v>0</v>
@@ -8149,7 +9350,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69">
       <c r="A28">
         <f t="shared" ref="A28:A29" si="1">A2</f>
         <v>0</v>
@@ -8395,7 +9596,7 @@
         <v>R9</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8665,7 +9866,7 @@
         <v>peripheral</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69">
       <c r="A30">
         <f>A5</f>
         <v>2</v>
@@ -8935,9 +10136,9 @@
         <v>2028.8</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69">
       <c r="A31">
-        <f t="shared" ref="A31:A36" si="7">A6</f>
+        <f t="shared" ref="A31:A37" si="7">A6</f>
         <v>3</v>
       </c>
       <c r="B31">
@@ -9205,7 +10406,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69">
       <c r="A32">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -9475,7 +10676,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -9745,7 +10946,7 @@
         <v>1924.2</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69">
       <c r="A34">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -10015,7 +11216,7 @@
         <v>1799.4</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69">
       <c r="A35">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -10285,495 +11486,547 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69">
       <c r="A36">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="B36" t="str">
+        <v>8</v>
+      </c>
+      <c r="B36">
         <f>IF(error!B11=1,time!B11,"")</f>
-        <v/>
-      </c>
-      <c r="C36" t="str">
+        <v>1065</v>
+      </c>
+      <c r="C36">
         <f>IF(error!C11=1,time!C11,"")</f>
-        <v/>
-      </c>
-      <c r="D36" t="str">
+        <v>1620</v>
+      </c>
+      <c r="D36">
         <f>IF(error!D11=1,time!D11,"")</f>
-        <v/>
-      </c>
-      <c r="E36" t="str">
+        <v>1266</v>
+      </c>
+      <c r="E36">
         <f>IF(error!E11=1,time!E11,"")</f>
-        <v/>
-      </c>
-      <c r="F36" t="str">
+        <v>1082</v>
+      </c>
+      <c r="F36">
         <f>IF(error!F11=1,time!F11,"")</f>
-        <v/>
-      </c>
-      <c r="G36" t="str">
+        <v>845</v>
+      </c>
+      <c r="G36">
         <f>IF(error!G11=1,time!G11,"")</f>
-        <v/>
-      </c>
-      <c r="H36" t="str">
+        <v>1820</v>
+      </c>
+      <c r="H36">
         <f>IF(error!H11=1,time!H11,"")</f>
-        <v/>
-      </c>
-      <c r="I36" t="str">
+        <v>1245</v>
+      </c>
+      <c r="I36">
         <f>IF(error!I11=1,time!I11,"")</f>
-        <v/>
-      </c>
-      <c r="J36" t="str">
+        <v>1432</v>
+      </c>
+      <c r="J36">
         <f>IF(error!J11=1,time!J11,"")</f>
-        <v/>
-      </c>
-      <c r="K36" t="str">
+        <v>1037</v>
+      </c>
+      <c r="K36">
         <f>IF(error!K11=1,time!K11,"")</f>
-        <v/>
-      </c>
-      <c r="L36" t="str">
+        <v>1399</v>
+      </c>
+      <c r="L36">
         <f>IF(error!L11=1,time!L11,"")</f>
-        <v/>
-      </c>
-      <c r="M36" t="str">
+        <v>1215</v>
+      </c>
+      <c r="M36">
         <f>IF(error!M11=1,time!M11,"")</f>
-        <v/>
-      </c>
-      <c r="N36" t="str">
+        <v>1425</v>
+      </c>
+      <c r="N36">
         <f>IF(error!N11=1,time!N11,"")</f>
-        <v/>
-      </c>
-      <c r="O36" t="str">
+        <v>1232</v>
+      </c>
+      <c r="O36">
         <f>IF(error!O11=1,time!O11,"")</f>
-        <v/>
-      </c>
-      <c r="P36" t="str">
+        <v>1332</v>
+      </c>
+      <c r="P36">
         <f>IF(error!P11=1,time!P11,"")</f>
-        <v/>
-      </c>
-      <c r="Q36" t="str">
+        <v>1199</v>
+      </c>
+      <c r="Q36">
         <f>IF(error!Q11=1,time!Q11,"")</f>
-        <v/>
-      </c>
-      <c r="R36" t="str">
+        <v>1629</v>
+      </c>
+      <c r="R36">
         <f>IF(error!R11=1,time!R11,"")</f>
-        <v/>
-      </c>
-      <c r="S36" t="str">
+        <v>1232</v>
+      </c>
+      <c r="S36">
         <f>IF(error!S11=1,time!S11,"")</f>
-        <v/>
-      </c>
-      <c r="T36" t="str">
+        <v>1198</v>
+      </c>
+      <c r="T36">
         <f>IF(error!T11=1,time!T11,"")</f>
-        <v/>
-      </c>
-      <c r="U36" t="str">
+        <v>1132</v>
+      </c>
+      <c r="U36">
         <f>IF(error!U11=1,time!U11,"")</f>
-        <v/>
-      </c>
-      <c r="V36" t="str">
+        <v>765</v>
+      </c>
+      <c r="V36">
         <f>IF(error!V11=1,time!V11,"")</f>
-        <v/>
-      </c>
-      <c r="W36" t="str">
+        <v>966</v>
+      </c>
+      <c r="W36">
         <f>IF(error!W11=1,time!W11,"")</f>
-        <v/>
-      </c>
-      <c r="X36" t="str">
+        <v>1622</v>
+      </c>
+      <c r="X36">
         <f>IF(error!X11=1,time!X11,"")</f>
-        <v/>
-      </c>
-      <c r="Y36" t="str">
+        <v>1743</v>
+      </c>
+      <c r="Y36">
         <f>IF(error!Y11=1,time!Y11,"")</f>
-        <v/>
-      </c>
-      <c r="Z36" t="str">
+        <v>1530</v>
+      </c>
+      <c r="Z36">
         <f>IF(error!Z11=1,time!Z11,"")</f>
-        <v/>
-      </c>
-      <c r="AA36" t="str">
+        <v>1130</v>
+      </c>
+      <c r="AA36">
         <f>IF(error!AA11=1,time!AA11,"")</f>
-        <v/>
-      </c>
-      <c r="AB36" t="str">
+        <v>1111</v>
+      </c>
+      <c r="AB36">
         <f>IF(error!AB11=1,time!AB11,"")</f>
-        <v/>
-      </c>
-      <c r="AC36" t="str">
+        <v>1209</v>
+      </c>
+      <c r="AC36">
         <f>IF(error!AC11=1,time!AC11,"")</f>
-        <v/>
-      </c>
-      <c r="AD36" t="str">
+        <v>1580</v>
+      </c>
+      <c r="AD36">
         <f>IF(error!AD11=1,time!AD11,"")</f>
-        <v/>
-      </c>
-      <c r="AE36" t="str">
+        <v>1116</v>
+      </c>
+      <c r="AE36">
         <f>IF(error!AE11=1,time!AE11,"")</f>
-        <v/>
-      </c>
-      <c r="AF36" t="str">
+        <v>1376</v>
+      </c>
+      <c r="AF36">
         <f>IF(error!AF11=1,time!AF11,"")</f>
-        <v/>
-      </c>
-      <c r="AG36" t="str">
+        <v>1179</v>
+      </c>
+      <c r="AG36">
         <f>IF(error!AG11=1,time!AG11,"")</f>
-        <v/>
-      </c>
-      <c r="AH36" t="str">
+        <v>1830</v>
+      </c>
+      <c r="AH36">
         <f>IF(error!AH11=1,time!AH11,"")</f>
-        <v/>
-      </c>
-      <c r="AI36" t="str">
+        <v>879</v>
+      </c>
+      <c r="AI36">
         <f>IF(error!AI11=1,time!AI11,"")</f>
-        <v/>
-      </c>
-      <c r="AJ36" t="str">
+        <v>1579</v>
+      </c>
+      <c r="AJ36">
         <f>IF(error!AJ11=1,time!AJ11,"")</f>
-        <v/>
-      </c>
-      <c r="AK36" t="str">
+        <v>1075</v>
+      </c>
+      <c r="AK36">
         <f>IF(error!AK11=1,time!AK11,"")</f>
-        <v/>
-      </c>
-      <c r="AL36" t="str">
+        <v>1267</v>
+      </c>
+      <c r="AL36">
         <f>IF(error!AL11=1,time!AL11,"")</f>
-        <v/>
-      </c>
-      <c r="AM36" t="str">
+        <v>1213</v>
+      </c>
+      <c r="AM36">
         <f>IF(error!AM11=1,time!AM11,"")</f>
-        <v/>
-      </c>
-      <c r="AN36" t="str">
+        <v>1095</v>
+      </c>
+      <c r="AN36">
         <f>IF(error!AN11=1,time!AN11,"")</f>
-        <v/>
-      </c>
-      <c r="AO36" t="str">
+        <v>1179</v>
+      </c>
+      <c r="AO36">
         <f>IF(error!AO11=1,time!AO11,"")</f>
-        <v/>
-      </c>
-      <c r="AP36" t="str">
+        <v>2212</v>
+      </c>
+      <c r="AP36">
         <f>IF(error!AP11=1,time!AP11,"")</f>
-        <v/>
-      </c>
-      <c r="AQ36" t="str">
+        <v>648</v>
+      </c>
+      <c r="AQ36">
         <f>IF(error!AQ11=1,time!AQ11,"")</f>
-        <v/>
-      </c>
-      <c r="AR36" t="str">
+        <v>1282</v>
+      </c>
+      <c r="AR36">
         <f>IF(error!AR11=1,time!AR11,"")</f>
-        <v/>
+        <v>868</v>
       </c>
       <c r="AS36" t="str">
         <f>IF(error!AS11=1,time!AS11,"")</f>
         <v/>
       </c>
-      <c r="AT36" t="str">
+      <c r="AT36">
         <f>IF(error!AT11=1,time!AT11,"")</f>
-        <v/>
+        <v>2532</v>
       </c>
       <c r="AU36" t="str">
         <f>IF(error!AU11=1,time!AU11,"")</f>
         <v/>
       </c>
-      <c r="AV36" t="str">
+      <c r="AV36">
         <f>IF(error!AV11=1,time!AV11,"")</f>
-        <v/>
+        <v>864</v>
       </c>
       <c r="AW36" t="str">
         <f>IF(error!AW11=1,time!AW11,"")</f>
         <v/>
       </c>
-      <c r="AX36" t="str">
+      <c r="AX36">
         <f>IF(error!AX11=1,time!AX11,"")</f>
-        <v/>
+        <v>1177</v>
       </c>
       <c r="AY36" t="str">
         <f>IF(error!AY11=1,time!AY11,"")</f>
         <v/>
       </c>
-      <c r="AZ36" t="str">
+      <c r="AZ36">
         <f>IF(error!AZ11=1,time!AZ11,"")</f>
-        <v/>
+        <v>881</v>
       </c>
       <c r="BA36" t="str">
         <f>IF(error!BA11=1,time!BA11,"")</f>
         <v/>
       </c>
-      <c r="BB36" t="str">
+      <c r="BB36">
         <f>IF(error!BB11=1,time!BB11,"")</f>
-        <v/>
+        <v>1110</v>
       </c>
       <c r="BC36" t="str">
         <f>IF(error!BC11=1,time!BC11,"")</f>
         <v/>
       </c>
-      <c r="BD36" t="str">
+      <c r="BD36">
         <f>IF(error!BD11=1,time!BD11,"")</f>
-        <v/>
+        <v>1048</v>
       </c>
       <c r="BE36" t="str">
         <f>IF(error!BE11=1,time!BE11,"")</f>
         <v/>
       </c>
-      <c r="BF36" t="str">
+      <c r="BF36">
         <f>IF(error!BF11=1,time!BF11,"")</f>
-        <v/>
+        <v>1198</v>
       </c>
       <c r="BG36" t="str">
         <f>IF(error!BG11=1,time!BG11,"")</f>
         <v/>
       </c>
-      <c r="BH36" t="str">
+      <c r="BH36">
         <f>IF(error!BH11=1,time!BH11,"")</f>
-        <v/>
+        <v>1098</v>
       </c>
       <c r="BI36" t="str">
         <f>IF(error!BI11=1,time!BI11,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B37" t="str">
+      <c r="BL36">
+        <f t="shared" ref="BL36:BL38" si="14">AVERAGE(B36,D36,F36,H36,J36,L36,N36,P36,R36,T36)</f>
+        <v>1146.8</v>
+      </c>
+      <c r="BM36">
+        <f t="shared" ref="BM36:BM38" si="15">AVERAGE(C36,E36,G36,I36,K36,M36,O36,Q36,S36,U36)</f>
+        <v>1370.2</v>
+      </c>
+      <c r="BN36">
+        <f t="shared" ref="BN36:BN38" si="16">AVERAGE(V36,X36,Z36,AB36,AD36,AF36,AH36,AJ36,AL36,AN36)</f>
+        <v>1168.9000000000001</v>
+      </c>
+      <c r="BO36">
+        <f t="shared" ref="BO36:BO38" si="17">AVERAGE(W36,Y36,AA36,AC36,AE36,AG36,AI36,AK36,AM36,AO36)</f>
+        <v>1520.2</v>
+      </c>
+      <c r="BP36">
+        <f t="shared" ref="BP36:BP38" si="18">AVERAGE(AP36,AR36,AT36,AV36,AX36,AZ36,BB36,BD36,BF36,BH36)</f>
+        <v>1142.4000000000001</v>
+      </c>
+      <c r="BQ36">
+        <f t="shared" ref="BQ36:BQ38" si="19">AVERAGE(AQ36,AS36,AU36,AW36,AY36,BA36,BC36,BE36,BG36,BI36)</f>
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:69">
+      <c r="A37">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B37">
         <f>IF(error!B12=1,time!B12,"")</f>
-        <v/>
-      </c>
-      <c r="C37" t="str">
+        <v>1047</v>
+      </c>
+      <c r="C37">
         <f>IF(error!C12=1,time!C12,"")</f>
-        <v/>
-      </c>
-      <c r="D37" t="str">
+        <v>1286</v>
+      </c>
+      <c r="D37">
         <f>IF(error!D12=1,time!D12,"")</f>
-        <v/>
-      </c>
-      <c r="E37" t="str">
+        <v>982</v>
+      </c>
+      <c r="E37">
         <f>IF(error!E12=1,time!E12,"")</f>
-        <v/>
-      </c>
-      <c r="F37" t="str">
+        <v>2080</v>
+      </c>
+      <c r="F37">
         <f>IF(error!F12=1,time!F12,"")</f>
-        <v/>
-      </c>
-      <c r="G37" t="str">
+        <v>1066</v>
+      </c>
+      <c r="G37">
         <f>IF(error!G12=1,time!G12,"")</f>
-        <v/>
-      </c>
-      <c r="H37" t="str">
+        <v>1565</v>
+      </c>
+      <c r="H37">
         <f>IF(error!H12=1,time!H12,"")</f>
-        <v/>
-      </c>
-      <c r="I37" t="str">
+        <v>915</v>
+      </c>
+      <c r="I37">
         <f>IF(error!I12=1,time!I12,"")</f>
-        <v/>
-      </c>
-      <c r="J37" t="str">
+        <v>1312</v>
+      </c>
+      <c r="J37">
         <f>IF(error!J12=1,time!J12,"")</f>
-        <v/>
-      </c>
-      <c r="K37" t="str">
+        <v>1053</v>
+      </c>
+      <c r="K37">
         <f>IF(error!K12=1,time!K12,"")</f>
-        <v/>
-      </c>
-      <c r="L37" t="str">
+        <v>1199</v>
+      </c>
+      <c r="L37">
         <f>IF(error!L12=1,time!L12,"")</f>
-        <v/>
-      </c>
-      <c r="M37" t="str">
+        <v>776</v>
+      </c>
+      <c r="M37">
         <f>IF(error!M12=1,time!M12,"")</f>
-        <v/>
-      </c>
-      <c r="N37" t="str">
+        <v>879</v>
+      </c>
+      <c r="N37">
         <f>IF(error!N12=1,time!N12,"")</f>
-        <v/>
-      </c>
-      <c r="O37" t="str">
+        <v>1186</v>
+      </c>
+      <c r="O37">
         <f>IF(error!O12=1,time!O12,"")</f>
-        <v/>
-      </c>
-      <c r="P37" t="str">
+        <v>1528</v>
+      </c>
+      <c r="P37">
         <f>IF(error!P12=1,time!P12,"")</f>
-        <v/>
-      </c>
-      <c r="Q37" t="str">
+        <v>898</v>
+      </c>
+      <c r="Q37">
         <f>IF(error!Q12=1,time!Q12,"")</f>
-        <v/>
-      </c>
-      <c r="R37" t="str">
+        <v>1119</v>
+      </c>
+      <c r="R37">
         <f>IF(error!R12=1,time!R12,"")</f>
-        <v/>
-      </c>
-      <c r="S37" t="str">
+        <v>810</v>
+      </c>
+      <c r="S37">
         <f>IF(error!S12=1,time!S12,"")</f>
-        <v/>
-      </c>
-      <c r="T37" t="str">
+        <v>1355</v>
+      </c>
+      <c r="T37">
         <f>IF(error!T12=1,time!T12,"")</f>
-        <v/>
-      </c>
-      <c r="U37" t="str">
+        <v>948</v>
+      </c>
+      <c r="U37">
         <f>IF(error!U12=1,time!U12,"")</f>
-        <v/>
-      </c>
-      <c r="V37" t="str">
+        <v>1698</v>
+      </c>
+      <c r="V37">
         <f>IF(error!V12=1,time!V12,"")</f>
-        <v/>
-      </c>
-      <c r="W37" t="str">
+        <v>1556</v>
+      </c>
+      <c r="W37">
         <f>IF(error!W12=1,time!W12,"")</f>
-        <v/>
-      </c>
-      <c r="X37" t="str">
+        <v>5007</v>
+      </c>
+      <c r="X37">
         <f>IF(error!X12=1,time!X12,"")</f>
-        <v/>
-      </c>
-      <c r="Y37" t="str">
+        <v>952</v>
+      </c>
+      <c r="Y37">
         <f>IF(error!Y12=1,time!Y12,"")</f>
-        <v/>
-      </c>
-      <c r="Z37" t="str">
+        <v>725</v>
+      </c>
+      <c r="Z37">
         <f>IF(error!Z12=1,time!Z12,"")</f>
-        <v/>
-      </c>
-      <c r="AA37" t="str">
+        <v>1896</v>
+      </c>
+      <c r="AA37">
         <f>IF(error!AA12=1,time!AA12,"")</f>
-        <v/>
-      </c>
-      <c r="AB37" t="str">
+        <v>1046</v>
+      </c>
+      <c r="AB37">
         <f>IF(error!AB12=1,time!AB12,"")</f>
-        <v/>
-      </c>
-      <c r="AC37" t="str">
+        <v>474</v>
+      </c>
+      <c r="AC37">
         <f>IF(error!AC12=1,time!AC12,"")</f>
-        <v/>
-      </c>
-      <c r="AD37" t="str">
+        <v>1809</v>
+      </c>
+      <c r="AD37">
         <f>IF(error!AD12=1,time!AD12,"")</f>
-        <v/>
+        <v>1011</v>
       </c>
       <c r="AE37" t="str">
         <f>IF(error!AE12=1,time!AE12,"")</f>
         <v/>
       </c>
-      <c r="AF37" t="str">
+      <c r="AF37">
         <f>IF(error!AF12=1,time!AF12,"")</f>
-        <v/>
-      </c>
-      <c r="AG37" t="str">
+        <v>819</v>
+      </c>
+      <c r="AG37">
         <f>IF(error!AG12=1,time!AG12,"")</f>
-        <v/>
-      </c>
-      <c r="AH37" t="str">
+        <v>1328</v>
+      </c>
+      <c r="AH37">
         <f>IF(error!AH12=1,time!AH12,"")</f>
-        <v/>
-      </c>
-      <c r="AI37" t="str">
+        <v>590</v>
+      </c>
+      <c r="AI37">
         <f>IF(error!AI12=1,time!AI12,"")</f>
-        <v/>
-      </c>
-      <c r="AJ37" t="str">
+        <v>1028</v>
+      </c>
+      <c r="AJ37">
         <f>IF(error!AJ12=1,time!AJ12,"")</f>
-        <v/>
-      </c>
-      <c r="AK37" t="str">
+        <v>838</v>
+      </c>
+      <c r="AK37">
         <f>IF(error!AK12=1,time!AK12,"")</f>
-        <v/>
-      </c>
-      <c r="AL37" t="str">
+        <v>1315</v>
+      </c>
+      <c r="AL37">
         <f>IF(error!AL12=1,time!AL12,"")</f>
-        <v/>
-      </c>
-      <c r="AM37" t="str">
+        <v>736</v>
+      </c>
+      <c r="AM37">
         <f>IF(error!AM12=1,time!AM12,"")</f>
-        <v/>
-      </c>
-      <c r="AN37" t="str">
+        <v>1246</v>
+      </c>
+      <c r="AN37">
         <f>IF(error!AN12=1,time!AN12,"")</f>
-        <v/>
-      </c>
-      <c r="AO37" t="str">
+        <v>848</v>
+      </c>
+      <c r="AO37">
         <f>IF(error!AO12=1,time!AO12,"")</f>
-        <v/>
-      </c>
-      <c r="AP37" t="str">
+        <v>1254</v>
+      </c>
+      <c r="AP37">
         <f>IF(error!AP12=1,time!AP12,"")</f>
-        <v/>
+        <v>1887</v>
       </c>
       <c r="AQ37" t="str">
         <f>IF(error!AQ12=1,time!AQ12,"")</f>
         <v/>
       </c>
-      <c r="AR37" t="str">
+      <c r="AR37">
         <f>IF(error!AR12=1,time!AR12,"")</f>
-        <v/>
-      </c>
-      <c r="AS37" t="str">
+        <v>718</v>
+      </c>
+      <c r="AS37">
         <f>IF(error!AS12=1,time!AS12,"")</f>
-        <v/>
-      </c>
-      <c r="AT37" t="str">
+        <v>4834</v>
+      </c>
+      <c r="AT37">
         <f>IF(error!AT12=1,time!AT12,"")</f>
-        <v/>
-      </c>
-      <c r="AU37" t="str">
+        <v>827</v>
+      </c>
+      <c r="AU37">
         <f>IF(error!AU12=1,time!AU12,"")</f>
-        <v/>
-      </c>
-      <c r="AV37" t="str">
+        <v>3683</v>
+      </c>
+      <c r="AV37">
         <f>IF(error!AV12=1,time!AV12,"")</f>
-        <v/>
-      </c>
-      <c r="AW37" t="str">
+        <v>945</v>
+      </c>
+      <c r="AW37">
         <f>IF(error!AW12=1,time!AW12,"")</f>
-        <v/>
-      </c>
-      <c r="AX37" t="str">
+        <v>2116</v>
+      </c>
+      <c r="AX37">
         <f>IF(error!AX12=1,time!AX12,"")</f>
-        <v/>
+        <v>1202</v>
       </c>
       <c r="AY37" t="str">
         <f>IF(error!AY12=1,time!AY12,"")</f>
         <v/>
       </c>
-      <c r="AZ37" t="str">
+      <c r="AZ37">
         <f>IF(error!AZ12=1,time!AZ12,"")</f>
-        <v/>
-      </c>
-      <c r="BA37" t="str">
+        <v>1421</v>
+      </c>
+      <c r="BA37">
         <f>IF(error!BA12=1,time!BA12,"")</f>
-        <v/>
-      </c>
-      <c r="BB37" t="str">
+        <v>3683</v>
+      </c>
+      <c r="BB37">
         <f>IF(error!BB12=1,time!BB12,"")</f>
-        <v/>
+        <v>593</v>
       </c>
       <c r="BC37" t="str">
         <f>IF(error!BC12=1,time!BC12,"")</f>
         <v/>
       </c>
-      <c r="BD37" t="str">
+      <c r="BD37">
         <f>IF(error!BD12=1,time!BD12,"")</f>
-        <v/>
+        <v>814</v>
       </c>
       <c r="BE37" t="str">
         <f>IF(error!BE12=1,time!BE12,"")</f>
         <v/>
       </c>
-      <c r="BF37" t="str">
+      <c r="BF37">
         <f>IF(error!BF12=1,time!BF12,"")</f>
-        <v/>
-      </c>
-      <c r="BG37" t="str">
+        <v>4592</v>
+      </c>
+      <c r="BG37">
         <f>IF(error!BG12=1,time!BG12,"")</f>
-        <v/>
-      </c>
-      <c r="BH37" t="str">
+        <v>4651</v>
+      </c>
+      <c r="BH37">
         <f>IF(error!BH12=1,time!BH12,"")</f>
-        <v/>
-      </c>
-      <c r="BI37" t="str">
+        <v>1627</v>
+      </c>
+      <c r="BI37">
         <f>IF(error!BI12=1,time!BI12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+      <c r="BL37">
+        <f t="shared" si="14"/>
+        <v>968.1</v>
+      </c>
+      <c r="BM37">
+        <f t="shared" si="15"/>
+        <v>1402.1</v>
+      </c>
+      <c r="BN37">
+        <f t="shared" si="16"/>
+        <v>972</v>
+      </c>
+      <c r="BO37">
+        <f t="shared" si="17"/>
+        <v>1639.7777777777778</v>
+      </c>
+      <c r="BP37">
+        <f t="shared" si="18"/>
+        <v>1462.6</v>
+      </c>
+      <c r="BQ37">
+        <f t="shared" si="19"/>
+        <v>3291.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:69">
       <c r="B38" t="str">
         <f>IF(error!B13=1,time!B13,"")</f>
         <v/>
@@ -11015,7 +12268,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69">
       <c r="B39" t="str">
         <f>IF(error!B14=1,time!B14,"")</f>
         <v/>
@@ -11257,117 +12510,117 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69">
       <c r="B45" t="str">
         <f>B27</f>
         <v>AF</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ref="C45" si="14">C27</f>
+        <f t="shared" ref="C45" si="20">C27</f>
         <v>AF</v>
       </c>
       <c r="V45" t="str">
-        <f t="shared" ref="V45:W45" si="15">V27</f>
+        <f t="shared" ref="V45:W45" si="21">V27</f>
         <v>SL</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>SL</v>
       </c>
       <c r="AP45" t="str">
-        <f t="shared" ref="AP45:AQ45" si="16">AP27</f>
+        <f t="shared" ref="AP45:AQ45" si="22">AP27</f>
         <v>H</v>
       </c>
       <c r="AQ45" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>H</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69">
       <c r="B46" t="str">
         <f>B29</f>
         <v>(para)foveal</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" ref="C46" si="17">C29</f>
+        <f t="shared" ref="C46" si="23">C29</f>
         <v>peripheral</v>
       </c>
       <c r="V46" t="str">
-        <f t="shared" ref="V46:W46" si="18">V29</f>
+        <f t="shared" ref="V46:W46" si="24">V29</f>
         <v>(para)foveal</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>peripheral</v>
       </c>
       <c r="AP46" t="str">
-        <f t="shared" ref="AP46:AQ46" si="19">AP29</f>
+        <f t="shared" ref="AP46:AQ46" si="25">AP29</f>
         <v>(para)foveal</v>
       </c>
       <c r="AQ46" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>peripheral</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69">
       <c r="A47" t="s">
         <v>36</v>
       </c>
       <c r="B47">
         <f>AVERAGE(B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42)</f>
-        <v>1145.55</v>
+        <v>1123.5250000000001</v>
       </c>
       <c r="C47">
         <f>AVERAGE(C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42)</f>
-        <v>1610.375</v>
+        <v>1551.3684210526317</v>
       </c>
       <c r="V47">
-        <f t="shared" ref="V47:AQ47" si="20">AVERAGE(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42)</f>
-        <v>997.48333333333335</v>
+        <f t="shared" ref="V47:AQ47" si="26">AVERAGE(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42)</f>
+        <v>1015.725</v>
       </c>
       <c r="W47">
-        <f t="shared" si="20"/>
-        <v>1129.2545454545455</v>
+        <f t="shared" si="26"/>
+        <v>1244.1756756756756</v>
       </c>
       <c r="AP47">
-        <f t="shared" si="20"/>
-        <v>1319.8</v>
+        <f t="shared" si="26"/>
+        <v>1315.1866666666667</v>
       </c>
       <c r="AQ47">
-        <f t="shared" si="20"/>
-        <v>1896.1666666666667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>2146.4193548387098</v>
+      </c>
+    </row>
+    <row r="48" spans="1:69">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48">
         <f>STDEV((B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42))/SQRT(COUNT(B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42))</f>
-        <v>39.91407738438064</v>
+        <v>31.352194798305373</v>
       </c>
       <c r="C48">
         <f>STDEV((C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42))/SQRT(COUNT(C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42))</f>
-        <v>123.19226490122465</v>
+        <v>93.016923270842369</v>
       </c>
       <c r="V48">
         <f>STDEV((V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42))/SQRT(COUNT(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42))</f>
-        <v>53.301559170264127</v>
+        <v>44.483416676073965</v>
       </c>
       <c r="W48">
         <f>STDEV((W30:W42,Y30:Y42,AA30:AA42,AC30:AC42,AE30:AE42,AG30:AG42,AI30:AI42,AK30:AK42,AM30:AM42,AO30:AO42))/SQRT(COUNT(W30:W42,Y30:Y42,AA30:AA42,AC30:AC42,AE30:AE42,AG30:AG42,AI30:AI42,AK30:AK42,AM30:AM42,AO30:AO42))</f>
-        <v>38.912240188481483</v>
+        <v>63.607603292640107</v>
       </c>
       <c r="AP48">
         <f>STDEV((AP30:AP42,AR30:AR42,AT30:AT42,AV30:AV42,AX30:AX42,AZ30:AZ42,BB30:BB42,BD30:BD42,BF30:BF42,BH30:BH42))/SQRT(COUNT(AP30:AP42,AR30:AR42,AT30:AT42,AV30:AV42,AX30:AX42,AZ30:AZ42,BB30:BB42,BD30:BD42,BF30:BF42,BH30:BH42))</f>
-        <v>128.42403563699798</v>
+        <v>107.70861709165054</v>
       </c>
       <c r="AQ48">
         <f>STDEV((AQ30:AQ42,AS30:AS42,AU30:AU42,AW30:AW42,AY30:AY42,BA30:BA42,BC30:BC42,BE30:BE42,BG30:BG42,BI30:BI42))/SQRT(COUNT(AQ30:AQ42,AS30:AS42,AU30:AU42,AW30:AW42,AY30:AY42,BA30:BA42,BC30:BC42,BE30:BE42,BG30:BG42,BI30:BI42))</f>
-        <v>243.48871850385046</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243.31333740581513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="B53" t="str">
         <f>B45</f>
         <v>AF</v>
@@ -11381,90 +12634,90 @@
         <v>H</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="str">
         <f>B46</f>
         <v>(para)foveal</v>
       </c>
       <c r="B54">
         <f>B47</f>
-        <v>1145.55</v>
+        <v>1123.5250000000001</v>
       </c>
       <c r="C54">
         <f>V47</f>
-        <v>997.48333333333335</v>
+        <v>1015.725</v>
       </c>
       <c r="D54">
         <f>AP47</f>
-        <v>1319.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1315.1866666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="str">
         <f>C46</f>
         <v>peripheral</v>
       </c>
       <c r="B55">
         <f>C47</f>
-        <v>1610.375</v>
+        <v>1551.3684210526317</v>
       </c>
       <c r="C55">
         <f>W47</f>
-        <v>1129.2545454545455</v>
+        <v>1244.1756756756756</v>
       </c>
       <c r="D55">
         <f>AQ47</f>
-        <v>1896.1666666666667</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2146.4193548387098</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="B59" t="str">
         <f>B53</f>
         <v>AF</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" ref="C59:D59" si="21">C53</f>
+        <f t="shared" ref="C59:D59" si="27">C53</f>
         <v>SL</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>H</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="str">
         <f>A54</f>
         <v>(para)foveal</v>
       </c>
       <c r="B60">
         <f>B48</f>
-        <v>39.91407738438064</v>
+        <v>31.352194798305373</v>
       </c>
       <c r="C60">
         <f>V48</f>
-        <v>53.301559170264127</v>
+        <v>44.483416676073965</v>
       </c>
       <c r="D60">
         <f>AP48</f>
-        <v>128.42403563699798</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107.70861709165054</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="str">
         <f>A55</f>
         <v>peripheral</v>
       </c>
       <c r="B61">
         <f>C48</f>
-        <v>123.19226490122465</v>
+        <v>93.016923270842369</v>
       </c>
       <c r="C61">
         <f>W48</f>
-        <v>38.912240188481483</v>
+        <v>63.607603292640107</v>
       </c>
       <c r="D61">
         <f>AQ48</f>
-        <v>243.48871850385046</v>
+        <v>243.31333740581513</v>
       </c>
     </row>
   </sheetData>
@@ -11475,16 +12728,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="C1">
         <v>0</v>
       </c>
@@ -11506,7 +12759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="C2">
         <v>0</v>
       </c>
@@ -11530,7 +12783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" t="str">
         <f>time!B1</f>
         <v>AF</v>
@@ -11556,7 +12809,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -11588,7 +12841,7 @@
         <v>peripheral</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <f>time!A5</f>
         <v>2</v>
@@ -11621,7 +12874,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <f>IF(B5&gt;B6,A5+1,A5)</f>
         <v>2</v>
@@ -11655,7 +12908,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <f t="shared" ref="A7:A64" si="2">IF(B6&gt;B7,A6+1,A6)</f>
         <v>2</v>
@@ -11689,7 +12942,7 @@
         <v>4471</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -11723,7 +12976,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -11757,7 +13010,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -11791,7 +13044,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -11825,7 +13078,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -11859,7 +13112,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -11893,7 +13146,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -11927,7 +13180,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -11961,7 +13214,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -11995,7 +13248,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -12029,7 +13282,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -12063,7 +13316,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -12097,7 +13350,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -12131,7 +13384,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -12165,7 +13418,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -12199,7 +13452,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -12233,7 +13486,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -12267,7 +13520,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -12301,7 +13554,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -12335,7 +13588,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -12369,7 +13622,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -12403,7 +13656,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -12437,7 +13690,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -12471,7 +13724,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -12505,7 +13758,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -12539,7 +13792,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -12573,7 +13826,7 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -12607,7 +13860,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -12641,7 +13894,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -12675,7 +13928,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -12709,7 +13962,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -12743,7 +13996,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -12777,7 +14030,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -12811,7 +14064,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -12845,7 +14098,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -12879,7 +14132,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -12913,7 +14166,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -12947,7 +14200,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -12981,7 +14234,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13015,7 +14268,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13049,7 +14302,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13083,7 +14336,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13117,7 +14370,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13151,7 +14404,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13185,7 +14438,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13219,7 +14472,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13253,7 +14506,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13287,7 +14540,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13321,7 +14574,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13355,7 +14608,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13389,7 +14642,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13423,7 +14676,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13457,7 +14710,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13491,7 +14744,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13525,7 +14778,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13559,7 +14812,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13593,7 +14846,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13634,19 +14887,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K363"/>
   <sheetViews>
     <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="K292" sqref="K292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -13672,7 +14925,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13702,7 +14955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <f>IF(B5&gt;=B4,A4,A4+1)</f>
         <v>2</v>
@@ -13734,7 +14987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <f t="shared" ref="A6:A69" si="2">IF(B6&gt;=B5,A5,A5+1)</f>
         <v>2</v>
@@ -13767,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -13800,7 +15053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -13833,7 +15086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -13866,7 +15119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -13900,13 +15153,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B67" si="5">B5+1</f>
+        <f t="shared" ref="B11:B63" si="5">B5+1</f>
         <v>2</v>
       </c>
       <c r="C11">
@@ -13934,7 +15187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -13968,7 +15221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14002,7 +15255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14036,7 +15289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14070,7 +15323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14104,7 +15357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14138,7 +15391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14172,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14206,7 +15459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14240,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14274,7 +15527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14308,7 +15561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14342,7 +15595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14376,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14410,7 +15663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14444,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14478,7 +15731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14512,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14546,7 +15799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14580,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14614,7 +15867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14648,7 +15901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14682,7 +15935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14716,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14750,7 +16003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14784,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14818,7 +16071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14852,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14886,7 +16139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14920,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14954,7 +16207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14988,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15022,7 +16275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15056,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15090,7 +16343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15124,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15158,7 +16411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15192,7 +16445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15226,7 +16479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15260,7 +16513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15294,7 +16547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15328,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15362,7 +16615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15396,7 +16649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15430,7 +16683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15464,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15498,7 +16751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15532,7 +16785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15566,7 +16819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15600,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15634,7 +16887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15668,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15702,7 +16955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -15736,7 +16989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -15770,7 +17023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -15804,7 +17057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -15838,7 +17091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -15872,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -15906,7 +17159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70">
         <f t="shared" ref="A70:A133" si="11">IF(B70&gt;=B69,A69,A69+1)</f>
         <v>3</v>
@@ -15940,7 +17193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -15974,7 +17227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16008,7 +17261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16042,7 +17295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16076,7 +17329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16110,7 +17363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16144,7 +17397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16178,7 +17431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16212,7 +17465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16246,7 +17499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16280,7 +17533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16314,7 +17567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16348,7 +17601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16382,7 +17635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16416,7 +17669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16450,7 +17703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16484,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16518,7 +17771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16552,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16586,7 +17839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16620,7 +17873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16654,7 +17907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16688,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16722,7 +17975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16756,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16790,7 +18043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16824,7 +18077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16858,7 +18111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16892,7 +18145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16926,7 +18179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16960,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -16994,7 +18247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17028,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17062,7 +18315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17096,7 +18349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17130,7 +18383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17164,7 +18417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17198,7 +18451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17232,7 +18485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17266,7 +18519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17300,7 +18553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17334,7 +18587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17368,7 +18621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17402,7 +18655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17436,7 +18689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17470,7 +18723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17504,7 +18757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17538,7 +18791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17572,7 +18825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17606,7 +18859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17640,7 +18893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17674,7 +18927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17708,7 +18961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -17742,7 +18995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -17776,7 +19029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -17810,7 +19063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -17844,7 +19097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -17878,7 +19131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -17912,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -17946,7 +19199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -17980,7 +19233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -18014,7 +19267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -18048,7 +19301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -18082,7 +19335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134">
         <f t="shared" ref="A134:A197" si="17">IF(B134&gt;=B133,A133,A133+1)</f>
         <v>4</v>
@@ -18116,7 +19369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18150,7 +19403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18184,7 +19437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18218,7 +19471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18252,7 +19505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18286,7 +19539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18320,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18354,7 +19607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18388,7 +19641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18422,7 +19675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18456,7 +19709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18490,7 +19743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18524,7 +19777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18558,7 +19811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18592,7 +19845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18626,7 +19879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18660,7 +19913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18694,7 +19947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18728,7 +19981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18762,7 +20015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18796,7 +20049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18830,7 +20083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18864,7 +20117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18898,7 +20151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18932,7 +20185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -18966,7 +20219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19000,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19034,7 +20287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19068,7 +20321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19102,7 +20355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19136,7 +20389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19170,7 +20423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19204,7 +20457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19238,7 +20491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19272,7 +20525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19306,7 +20559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19340,7 +20593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19374,7 +20627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19408,7 +20661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19442,7 +20695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19476,7 +20729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19510,7 +20763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19544,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19578,7 +20831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19612,7 +20865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19646,7 +20899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19680,7 +20933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19714,7 +20967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19748,7 +21001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -19782,7 +21035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -19816,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -19850,7 +21103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -19884,7 +21137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -19918,7 +21171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -19952,7 +21205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -19986,7 +21239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -20020,7 +21273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -20054,7 +21307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -20088,7 +21341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -20122,7 +21375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -20156,7 +21409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -20190,7 +21443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -20224,7 +21477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -20258,7 +21511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198">
         <f t="shared" ref="A198:A261" si="23">IF(B198&gt;=B197,A197,A197+1)</f>
         <v>5</v>
@@ -20292,7 +21545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20326,7 +21579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20360,7 +21613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20394,7 +21647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20428,7 +21681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="A203">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20462,7 +21715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11">
       <c r="A204">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20496,7 +21749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11">
       <c r="A205">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20530,7 +21783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20564,7 +21817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20598,7 +21851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11">
       <c r="A208">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20632,7 +21885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11">
       <c r="A209">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20666,7 +21919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11">
       <c r="A210">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20700,7 +21953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11">
       <c r="A211">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20734,7 +21987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11">
       <c r="A212">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20768,7 +22021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20802,7 +22055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20836,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11">
       <c r="A215">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20870,7 +22123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11">
       <c r="A216">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20904,7 +22157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11">
       <c r="A217">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20938,7 +22191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11">
       <c r="A218">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -20972,7 +22225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11">
       <c r="A219">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21006,7 +22259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11">
       <c r="A220">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21040,7 +22293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11">
       <c r="A221">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21074,7 +22327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11">
       <c r="A222">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21108,7 +22361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11">
       <c r="A223">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21142,7 +22395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11">
       <c r="A224">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21176,7 +22429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11">
       <c r="A225">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21210,7 +22463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11">
       <c r="A226">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21244,7 +22497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11">
       <c r="A227">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21278,7 +22531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11">
       <c r="A228">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21312,7 +22565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11">
       <c r="A229">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21346,7 +22599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11">
       <c r="A230">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21380,7 +22633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21414,7 +22667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11">
       <c r="A232">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21448,7 +22701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11">
       <c r="A233">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21482,7 +22735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11">
       <c r="A234">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21516,7 +22769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11">
       <c r="A235">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21550,7 +22803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11">
       <c r="A236">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21584,7 +22837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11">
       <c r="A237">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21618,7 +22871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11">
       <c r="A238">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21652,7 +22905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11">
       <c r="A239">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21686,7 +22939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11">
       <c r="A240">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21720,7 +22973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11">
       <c r="A241">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21754,7 +23007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11">
       <c r="A242">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21788,7 +23041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11">
       <c r="A243">
         <f t="shared" si="23"/>
         <v>5</v>
@@ -21822,7 +23075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11">
       <c r="A244">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -21856,7 +23109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11">
       <c r="A245">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -21890,7 +23143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11">
       <c r="A246">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -21924,7 +23177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11">
       <c r="A247">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -21958,7 +23211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11">
       <c r="A248">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -21992,7 +23245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11">
       <c r="A249">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22026,7 +23279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11">
       <c r="A250">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22060,7 +23313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11">
       <c r="A251">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22094,7 +23347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11">
       <c r="A252">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22128,7 +23381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11">
       <c r="A253">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22162,7 +23415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11">
       <c r="A254">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22196,7 +23449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11">
       <c r="A255">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22230,7 +23483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11">
       <c r="A256">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22264,7 +23517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11">
       <c r="A257">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22298,7 +23551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11">
       <c r="A258">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22332,7 +23585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11">
       <c r="A259">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22366,7 +23619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11">
       <c r="A260">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22400,7 +23653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11">
       <c r="A261">
         <f t="shared" si="23"/>
         <v>6</v>
@@ -22434,7 +23687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11">
       <c r="A262">
         <f t="shared" ref="A262:A325" si="29">IF(B262&gt;=B261,A261,A261+1)</f>
         <v>6</v>
@@ -22468,7 +23721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11">
       <c r="A263">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22502,7 +23755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11">
       <c r="A264">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22536,7 +23789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11">
       <c r="A265">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22570,7 +23823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11">
       <c r="A266">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22604,7 +23857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11">
       <c r="A267">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22638,7 +23891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11">
       <c r="A268">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22672,7 +23925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11">
       <c r="A269">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22706,7 +23959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11">
       <c r="A270">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22740,7 +23993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11">
       <c r="A271">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22774,7 +24027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11">
       <c r="A272">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22808,7 +24061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11">
       <c r="A273">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22842,7 +24095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11">
       <c r="A274">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22876,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="A275">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22910,7 +24163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11">
       <c r="A276">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22944,7 +24197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11">
       <c r="A277">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -22978,7 +24231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11">
       <c r="A278">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23012,7 +24265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="A279">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23046,7 +24299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11">
       <c r="A280">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23080,7 +24333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11">
       <c r="A281">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23114,7 +24367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11">
       <c r="A282">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23148,7 +24401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="A283">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23182,7 +24435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11">
       <c r="A284">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23216,7 +24469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11">
       <c r="A285">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23250,7 +24503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11">
       <c r="A286">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23284,7 +24537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11">
       <c r="A287">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23318,7 +24571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11">
       <c r="A288">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23352,7 +24605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11">
       <c r="A289">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23386,7 +24639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11">
       <c r="A290">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23420,7 +24673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11">
       <c r="A291">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23454,7 +24707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11">
       <c r="A292">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23488,7 +24741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11">
       <c r="A293">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23522,7 +24775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11">
       <c r="A294">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23556,7 +24809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11">
       <c r="A295">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23590,7 +24843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11">
       <c r="A296">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23624,7 +24877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11">
       <c r="A297">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23658,7 +24911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11">
       <c r="A298">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23692,7 +24945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11">
       <c r="A299">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23726,7 +24979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11">
       <c r="A300">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23760,7 +25013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11">
       <c r="A301">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23794,7 +25047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11">
       <c r="A302">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23828,7 +25081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11">
       <c r="A303">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -23862,7 +25115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11">
       <c r="A304">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -23896,7 +25149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11">
       <c r="A305">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -23930,7 +25183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11">
       <c r="A306">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -23964,7 +25217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11">
       <c r="A307">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -23998,7 +25251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11">
       <c r="A308">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24032,7 +25285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11">
       <c r="A309">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24066,7 +25319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11">
       <c r="A310">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24100,7 +25353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11">
       <c r="A311">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24134,7 +25387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11">
       <c r="A312">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24168,7 +25421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11">
       <c r="A313">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24202,7 +25455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11">
       <c r="A314">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24236,7 +25489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11">
       <c r="A315">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24270,7 +25523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11">
       <c r="A316">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24304,7 +25557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11">
       <c r="A317">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24338,7 +25591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11">
       <c r="A318">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24372,7 +25625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11">
       <c r="A319">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24406,7 +25659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11">
       <c r="A320">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24440,13 +25693,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11">
       <c r="A321">
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
       <c r="B321">
-        <f t="shared" ref="B321:B384" si="32">B261</f>
+        <f t="shared" ref="B321:B363" si="32">B261</f>
         <v>3</v>
       </c>
       <c r="C321">
@@ -24474,7 +25727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11">
       <c r="A322">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24508,7 +25761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11">
       <c r="A323">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24542,7 +25795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11">
       <c r="A324">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24576,7 +25829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11">
       <c r="A325">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -24610,9 +25863,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11">
       <c r="A326">
-        <f t="shared" ref="A326:A389" si="35">IF(B326&gt;=B325,A325,A325+1)</f>
+        <f t="shared" ref="A326:A363" si="35">IF(B326&gt;=B325,A325,A325+1)</f>
         <v>7</v>
       </c>
       <c r="B326">
@@ -24644,7 +25897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11">
       <c r="A327">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -24678,7 +25931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11">
       <c r="A328">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -24712,7 +25965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11">
       <c r="A329">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -24746,7 +25999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11">
       <c r="A330">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -24780,7 +26033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11">
       <c r="A331">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -24814,7 +26067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11">
       <c r="A332">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -24848,7 +26101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11">
       <c r="A333">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -24882,7 +26135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11">
       <c r="A334">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -24916,7 +26169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11">
       <c r="A335">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -24950,7 +26203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11">
       <c r="A336">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -24984,7 +26237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11">
       <c r="A337">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25018,7 +26271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11">
       <c r="A338">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25052,7 +26305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11">
       <c r="A339">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25086,7 +26339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11">
       <c r="A340">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25120,7 +26373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11">
       <c r="A341">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25154,7 +26407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11">
       <c r="A342">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25188,7 +26441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11">
       <c r="A343">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25222,7 +26475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11">
       <c r="A344">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25256,7 +26509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11">
       <c r="A345">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25290,7 +26543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11">
       <c r="A346">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25324,7 +26577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11">
       <c r="A347">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25358,7 +26611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11">
       <c r="A348">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25392,7 +26645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11">
       <c r="A349">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25426,7 +26679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11">
       <c r="A350">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25460,7 +26713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11">
       <c r="A351">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25494,7 +26747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11">
       <c r="A352">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25528,7 +26781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11">
       <c r="A353">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25562,7 +26815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11">
       <c r="A354">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25596,7 +26849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11">
       <c r="A355">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25630,7 +26883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11">
       <c r="A356">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25664,7 +26917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11">
       <c r="A357">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25698,7 +26951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11">
       <c r="A358">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25732,7 +26985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11">
       <c r="A359">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25766,7 +27019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11">
       <c r="A360">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25800,7 +27053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11">
       <c r="A361">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25834,7 +27087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11">
       <c r="A362">
         <f t="shared" si="35"/>
         <v>7</v>
@@ -25868,7 +27121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11">
       <c r="A363">
         <f t="shared" si="35"/>
         <v>7</v>

--- a/UnityProject/results.xlsx
+++ b/UnityProject/results.xlsx
@@ -293,7 +293,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9375</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,37 +337,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.96202531645569622</c:v>
+                  <c:v>0.95959595959595956</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94871794871794868</c:v>
+                  <c:v>0.94897959183673475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38750000000000001</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="127900288"/>
-        <c:axId val="127922560"/>
+        <c:axId val="127261312"/>
+        <c:axId val="127345024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127900288"/>
+        <c:axId val="127261312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127922560"/>
+        <c:crossAx val="127345024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127922560"/>
+        <c:axId val="127345024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -377,7 +376,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127900288"/>
+        <c:crossAx val="127261312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -391,7 +390,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -430,13 +429,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>31.352194798305373</c:v>
+                    <c:v>29.235396354419407</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>44.483416676073965</c:v>
+                    <c:v>39.413350799089905</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>107.70861709165054</c:v>
+                    <c:v>96.094400281935677</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -448,13 +447,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>31.352194798305373</c:v>
+                    <c:v>29.235396354419407</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>44.483416676073965</c:v>
+                    <c:v>39.413350799089905</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>107.70861709165054</c:v>
+                    <c:v>96.094400281935677</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -484,13 +483,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1123.5250000000001</c:v>
+                  <c:v>1139.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1015.725</c:v>
+                  <c:v>1061.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1315.1866666666667</c:v>
+                  <c:v>1361.3157894736842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,13 +519,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>93.016923270842369</c:v>
+                    <c:v>94.13276573395305</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>63.607603292640107</c:v>
+                    <c:v>54.501606219974747</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>243.31333740581513</c:v>
+                    <c:v>231.95314389233542</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -538,13 +537,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>93.016923270842369</c:v>
+                    <c:v>94.13276573395305</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>63.607603292640107</c:v>
+                    <c:v>54.501606219974747</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>243.31333740581513</c:v>
+                    <c:v>231.95314389233542</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -574,37 +573,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1551.3684210526317</c:v>
+                  <c:v>1674.957894736842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1244.1756756756756</c:v>
+                  <c:v>1278.989247311828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2146.4193548387098</c:v>
+                  <c:v>2478.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="128025344"/>
-        <c:axId val="128026880"/>
+        <c:axId val="133083904"/>
+        <c:axId val="133085440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128025344"/>
+        <c:axId val="133083904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128026880"/>
+        <c:crossAx val="133085440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128026880"/>
+        <c:axId val="133085440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +610,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128025344"/>
+        <c:crossAx val="133083904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -626,7 +624,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -990,7 +988,7 @@
   <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12:BI12"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3454,10 +3452,374 @@
       </c>
     </row>
     <row r="13" spans="1:61">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>133</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AB13">
+        <v>6</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <v>6</v>
+      </c>
+      <c r="AF13">
+        <v>6</v>
+      </c>
+      <c r="AG13">
+        <v>12</v>
+      </c>
+      <c r="AH13">
+        <v>7</v>
+      </c>
+      <c r="AI13">
+        <v>4</v>
+      </c>
+      <c r="AJ13">
+        <v>3</v>
+      </c>
+      <c r="AK13">
+        <v>4</v>
+      </c>
+      <c r="AL13">
+        <v>8</v>
+      </c>
+      <c r="AM13">
+        <v>4</v>
+      </c>
+      <c r="AN13">
+        <v>7</v>
+      </c>
+      <c r="AO13">
+        <v>9</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
+        <v>6</v>
+      </c>
+      <c r="AR13">
+        <v>9</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>2</v>
+      </c>
+      <c r="AU13">
+        <v>-1</v>
+      </c>
+      <c r="AV13">
+        <v>5</v>
+      </c>
+      <c r="AW13">
+        <v>6</v>
+      </c>
+      <c r="AX13">
+        <v>4</v>
+      </c>
+      <c r="AY13">
+        <v>10</v>
+      </c>
+      <c r="AZ13">
+        <v>10</v>
+      </c>
+      <c r="BA13">
+        <v>16</v>
+      </c>
+      <c r="BB13">
+        <v>3</v>
+      </c>
+      <c r="BC13">
+        <v>6</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>13</v>
+      </c>
+      <c r="BF13">
+        <v>16</v>
+      </c>
+      <c r="BG13">
+        <v>7</v>
+      </c>
+      <c r="BH13">
+        <v>11</v>
+      </c>
+      <c r="BI13">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14" spans="1:61">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>7</v>
+      </c>
+      <c r="Y14">
+        <v>6</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+      <c r="AA14">
+        <v>9</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <v>15</v>
+      </c>
+      <c r="AD14">
+        <v>17</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>11</v>
+      </c>
+      <c r="AG14">
+        <v>7</v>
+      </c>
+      <c r="AH14">
+        <v>5</v>
+      </c>
+      <c r="AI14">
+        <v>7</v>
+      </c>
+      <c r="AJ14">
+        <v>17</v>
+      </c>
+      <c r="AK14">
+        <v>13</v>
+      </c>
+      <c r="AL14">
+        <v>6</v>
+      </c>
+      <c r="AM14">
+        <v>135</v>
+      </c>
+      <c r="AN14">
+        <v>9</v>
+      </c>
+      <c r="AO14">
+        <v>11</v>
+      </c>
+      <c r="AP14">
+        <v>11</v>
+      </c>
+      <c r="AQ14">
+        <v>-1</v>
+      </c>
+      <c r="AR14">
+        <v>4</v>
+      </c>
+      <c r="AS14">
+        <v>-1</v>
+      </c>
+      <c r="AT14">
+        <v>11</v>
+      </c>
+      <c r="AU14">
+        <v>-1</v>
+      </c>
+      <c r="AV14">
+        <v>15</v>
+      </c>
+      <c r="AW14">
+        <v>-1</v>
+      </c>
+      <c r="AX14">
+        <v>14</v>
+      </c>
+      <c r="AY14">
+        <v>3</v>
+      </c>
+      <c r="AZ14">
+        <v>20</v>
+      </c>
+      <c r="BA14">
+        <v>-1</v>
+      </c>
+      <c r="BB14">
+        <v>9</v>
+      </c>
+      <c r="BC14">
+        <v>-1</v>
+      </c>
+      <c r="BD14">
+        <v>7</v>
+      </c>
+      <c r="BE14">
+        <v>-1</v>
+      </c>
+      <c r="BF14">
+        <v>16</v>
+      </c>
+      <c r="BG14">
+        <v>-1</v>
+      </c>
+      <c r="BH14">
+        <v>14</v>
+      </c>
+      <c r="BI14">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="1"/>
@@ -3478,7 +3840,7 @@
   <dimension ref="A1:BQ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6447,10 +6809,544 @@
       </c>
     </row>
     <row r="13" spans="1:69">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <f>distance!A13</f>
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f>IF(AND(distance!B13&lt;80,distance!B13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>IF(AND(distance!C13&lt;80,distance!C13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>IF(AND(distance!D13&lt;80,distance!D13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>IF(AND(distance!E13&lt;80,distance!E13&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>IF(AND(distance!F13&lt;80,distance!F13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f>IF(AND(distance!G13&lt;80,distance!G13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>IF(AND(distance!H13&lt;80,distance!H13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f>IF(AND(distance!I13&lt;80,distance!I13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f>IF(AND(distance!J13&lt;80,distance!J13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f>IF(AND(distance!K13&lt;80,distance!K13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f>IF(AND(distance!L13&lt;80,distance!L13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f>IF(AND(distance!M13&lt;80,distance!M13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f>IF(AND(distance!N13&lt;80,distance!N13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f>IF(AND(distance!O13&lt;80,distance!O13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f>IF(AND(distance!P13&lt;80,distance!P13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f>IF(AND(distance!Q13&lt;80,distance!Q13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f>IF(AND(distance!R13&lt;80,distance!R13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f>IF(AND(distance!S13&lt;80,distance!S13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f>IF(AND(distance!T13&lt;80,distance!T13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f>IF(AND(distance!U13&lt;80,distance!U13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f>IF(AND(distance!V13&lt;80,distance!V13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <f>IF(AND(distance!W13&lt;80,distance!W13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f>IF(AND(distance!X13&lt;80,distance!X13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <f>IF(AND(distance!Y13&lt;80,distance!Y13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <f>IF(AND(distance!Z13&lt;80,distance!Z13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <f>IF(AND(distance!AA13&lt;80,distance!AA13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <f>IF(AND(distance!AB13&lt;80,distance!AB13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <f>IF(AND(distance!AC13&lt;80,distance!AC13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <f>IF(AND(distance!AD13&lt;80,distance!AD13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <f>IF(AND(distance!AE13&lt;80,distance!AE13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <f>IF(AND(distance!AF13&lt;80,distance!AF13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <f>IF(AND(distance!AG13&lt;80,distance!AG13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <f>IF(AND(distance!AH13&lt;80,distance!AH13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <f>IF(AND(distance!AI13&lt;80,distance!AI13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <f>IF(AND(distance!AJ13&lt;80,distance!AJ13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <f>IF(AND(distance!AK13&lt;80,distance!AK13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <f>IF(AND(distance!AL13&lt;80,distance!AL13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <f>IF(AND(distance!AM13&lt;80,distance!AM13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <f>IF(AND(distance!AN13&lt;80,distance!AN13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <f>IF(AND(distance!AO13&lt;80,distance!AO13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <f>IF(AND(distance!AP13&lt;80,distance!AP13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <f>IF(AND(distance!AQ13&lt;80,distance!AQ13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <f>IF(AND(distance!AR13&lt;80,distance!AR13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AS13">
+        <f>IF(AND(distance!AS13&lt;80,distance!AS13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <f>IF(AND(distance!AT13&lt;80,distance!AT13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <f>IF(AND(distance!AU13&lt;80,distance!AU13&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <f>IF(AND(distance!AV13&lt;80,distance!AV13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <f>IF(AND(distance!AW13&lt;80,distance!AW13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <f>IF(AND(distance!AX13&lt;80,distance!AX13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <f>IF(AND(distance!AY13&lt;80,distance!AY13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <f>IF(AND(distance!AZ13&lt;80,distance!AZ13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <f>IF(AND(distance!BA13&lt;80,distance!BA13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <f>IF(AND(distance!BB13&lt;80,distance!BB13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <f>IF(AND(distance!BC13&lt;80,distance!BC13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <f>IF(AND(distance!BD13&lt;80,distance!BD13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <f>IF(AND(distance!BE13&lt;80,distance!BE13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF13">
+        <f>IF(AND(distance!BF13&lt;80,distance!BF13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG13">
+        <f>IF(AND(distance!BG13&lt;80,distance!BG13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH13">
+        <f>IF(AND(distance!BH13&lt;80,distance!BH13&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI13">
+        <f>IF(AND(distance!BI13&lt;80,distance!BI13&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" ref="BL13:BL14" si="60">SUM(B13,D13,F13,H13,J13,L13,N13,P13,R13,T13)/COUNT(B13,D13,F13,H13,J13,L13,N13,P13,R13,T13)</f>
+        <v>1</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" ref="BM13:BM14" si="61">SUM(C13,E13,G13,I13,K13,M13,O13,Q13,S13,U13)/COUNT(C13,E13,G13,I13,K13,M13,O13,Q13,S13,U13)</f>
+        <v>0.9</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" ref="BN13:BN14" si="62">SUM(V13,X13,Z13,AB13,AD13,AF13,AH13,AJ13,AL13,AN13)/COUNT(V13,X13,Z13,AB13,AD13,AF13,AH13,AJ13,AL13,AN13)</f>
+        <v>1</v>
+      </c>
+      <c r="BO13">
+        <f t="shared" ref="BO13:BO14" si="63">SUM(W13,Y13,AA13,AC13,AE13,AG13,AI13,AK13,AM13,AO13)/COUNT(W13,Y13,AA13,AC13,AE13,AG13,AI13,AK13,AM13,AO13)</f>
+        <v>1</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" ref="BP13:BP14" si="64">SUM(AP13,AR13,AT13,AV13,AX13,AZ13,BB13,BD13,BF13,BH13)/COUNT(AP13,AR13,AT13,AV13,AX13,AZ13,BB13,BD13,BF13,BH13)</f>
+        <v>1</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" ref="BQ13:BQ14" si="65">SUM(AQ13,AS13,AU13,AW13,AY13,BA13,BC13,BE13,BG13,BI13)/COUNT(AQ13,AS13,AU13,AW13,AY13,BA13,BC13,BE13,BG13,BI13)</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="14" spans="1:69">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <f>distance!A14</f>
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>IF(AND(distance!B14&lt;80,distance!B14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>IF(AND(distance!C14&lt;80,distance!C14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>IF(AND(distance!D14&lt;80,distance!D14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>IF(AND(distance!E14&lt;80,distance!E14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f>IF(AND(distance!F14&lt;80,distance!F14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>IF(AND(distance!G14&lt;80,distance!G14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>IF(AND(distance!H14&lt;80,distance!H14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>IF(AND(distance!I14&lt;80,distance!I14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>IF(AND(distance!J14&lt;80,distance!J14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f>IF(AND(distance!K14&lt;80,distance!K14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>IF(AND(distance!L14&lt;80,distance!L14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f>IF(AND(distance!M14&lt;80,distance!M14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f>IF(AND(distance!N14&lt;80,distance!N14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f>IF(AND(distance!O14&lt;80,distance!O14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>IF(AND(distance!P14&lt;80,distance!P14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>IF(AND(distance!Q14&lt;80,distance!Q14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f>IF(AND(distance!R14&lt;80,distance!R14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f>IF(AND(distance!S14&lt;80,distance!S14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <f>IF(AND(distance!T14&lt;80,distance!T14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f>IF(AND(distance!U14&lt;80,distance!U14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <f>IF(AND(distance!V14&lt;80,distance!V14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f>IF(AND(distance!W14&lt;80,distance!W14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f>IF(AND(distance!X14&lt;80,distance!X14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f>IF(AND(distance!Y14&lt;80,distance!Y14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <f>IF(AND(distance!Z14&lt;80,distance!Z14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <f>IF(AND(distance!AA14&lt;80,distance!AA14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <f>IF(AND(distance!AB14&lt;80,distance!AB14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <f>IF(AND(distance!AC14&lt;80,distance!AC14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <f>IF(AND(distance!AD14&lt;80,distance!AD14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <f>IF(AND(distance!AE14&lt;80,distance!AE14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <f>IF(AND(distance!AF14&lt;80,distance!AF14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <f>IF(AND(distance!AG14&lt;80,distance!AG14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <f>IF(AND(distance!AH14&lt;80,distance!AH14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <f>IF(AND(distance!AI14&lt;80,distance!AI14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <f>IF(AND(distance!AJ14&lt;80,distance!AJ14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <f>IF(AND(distance!AK14&lt;80,distance!AK14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <f>IF(AND(distance!AL14&lt;80,distance!AL14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <f>IF(AND(distance!AM14&lt;80,distance!AM14&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <f>IF(AND(distance!AN14&lt;80,distance!AN14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <f>IF(AND(distance!AO14&lt;80,distance!AO14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <f>IF(AND(distance!AP14&lt;80,distance!AP14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <f>IF(AND(distance!AQ14&lt;80,distance!AQ14&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <f>IF(AND(distance!AR14&lt;80,distance!AR14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <f>IF(AND(distance!AS14&lt;80,distance!AS14&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <f>IF(AND(distance!AT14&lt;80,distance!AT14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <f>IF(AND(distance!AU14&lt;80,distance!AU14&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <f>IF(AND(distance!AV14&lt;80,distance!AV14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <f>IF(AND(distance!AW14&lt;80,distance!AW14&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <f>IF(AND(distance!AX14&lt;80,distance!AX14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY14">
+        <f>IF(AND(distance!AY14&lt;80,distance!AY14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ14">
+        <f>IF(AND(distance!AZ14&lt;80,distance!AZ14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <f>IF(AND(distance!BA14&lt;80,distance!BA14&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <f>IF(AND(distance!BB14&lt;80,distance!BB14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC14">
+        <f>IF(AND(distance!BC14&lt;80,distance!BC14&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <f>IF(AND(distance!BD14&lt;80,distance!BD14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <f>IF(AND(distance!BE14&lt;80,distance!BE14&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <f>IF(AND(distance!BF14&lt;80,distance!BF14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <f>IF(AND(distance!BG14&lt;80,distance!BG14&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <f>IF(AND(distance!BH14&lt;80,distance!BH14&gt;=0),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI14">
+        <f>IF(AND(distance!BI14&lt;80,distance!BI14&gt;=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="BM14">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="BN14">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="BO14">
+        <f t="shared" si="63"/>
+        <v>0.9</v>
+      </c>
+      <c r="BP14">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="BQ14">
+        <f t="shared" si="65"/>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="15" spans="1:69">
       <c r="A15" s="1"/>
@@ -6464,23 +7360,23 @@
         <v>AF</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ref="C20" si="60">C1</f>
+        <f t="shared" ref="C20" si="66">C1</f>
         <v>AF</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" ref="V20:AQ20" si="61">V1</f>
+        <f t="shared" ref="V20:AQ20" si="67">V1</f>
         <v>SL</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>SL</v>
       </c>
       <c r="AP20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>H</v>
       </c>
       <c r="AQ20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>H</v>
       </c>
     </row>
@@ -6490,23 +7386,23 @@
         <v>(para)foveal</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21" si="62">C3</f>
+        <f t="shared" ref="C21" si="68">C3</f>
         <v>peripheral</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" ref="V21:AQ21" si="63">V3</f>
+        <f t="shared" ref="V21:AQ21" si="69">V3</f>
         <v>(para)foveal</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>peripheral</v>
       </c>
       <c r="AP21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>(para)foveal</v>
       </c>
       <c r="AQ21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>peripheral</v>
       </c>
     </row>
@@ -6516,24 +7412,24 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:AQ22" si="64">SUM(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)/COUNT(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)</f>
-        <v>0.96202531645569622</v>
+        <f t="shared" ref="C22:AQ22" si="70">SUM(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)/COUNT(C5:C17,E5:E17,G5:G17,I5:I17,K5:K17,M5:M17,O5:O17,Q5:Q17,S5:S17,U5:U17)</f>
+        <v>0.95959595959595956</v>
       </c>
       <c r="V22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="W22">
-        <f t="shared" si="64"/>
-        <v>0.94871794871794868</v>
+        <f t="shared" si="70"/>
+        <v>0.94897959183673475</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="64"/>
-        <v>0.9375</v>
+        <f t="shared" si="70"/>
+        <v>0.95</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="64"/>
-        <v>0.38750000000000001</v>
+        <f t="shared" si="70"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -6565,7 +7461,7 @@
       </c>
       <c r="D29">
         <f>AP22</f>
-        <v>0.9375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -6575,15 +7471,15 @@
       </c>
       <c r="B30">
         <f>C22</f>
-        <v>0.96202531645569622</v>
+        <v>0.95959595959595956</v>
       </c>
       <c r="C30">
         <f>W22</f>
-        <v>0.94871794871794868</v>
+        <v>0.94897959183673475</v>
       </c>
       <c r="D30">
         <f>AQ22</f>
-        <v>0.38750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -6597,8 +7493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BQ40" sqref="BQ40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9075,6 +9971,378 @@
         <v>782</v>
       </c>
     </row>
+    <row r="13" spans="1:61">
+      <c r="A13">
+        <f>error!A13</f>
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1009</v>
+      </c>
+      <c r="C13">
+        <v>1283</v>
+      </c>
+      <c r="D13">
+        <v>999</v>
+      </c>
+      <c r="E13">
+        <v>821</v>
+      </c>
+      <c r="F13">
+        <v>863</v>
+      </c>
+      <c r="G13">
+        <v>1498</v>
+      </c>
+      <c r="H13">
+        <v>1589</v>
+      </c>
+      <c r="I13">
+        <v>1136</v>
+      </c>
+      <c r="J13">
+        <v>1010</v>
+      </c>
+      <c r="K13">
+        <v>1245</v>
+      </c>
+      <c r="L13">
+        <v>919</v>
+      </c>
+      <c r="M13">
+        <v>2867</v>
+      </c>
+      <c r="N13">
+        <v>1212</v>
+      </c>
+      <c r="O13">
+        <v>1516</v>
+      </c>
+      <c r="P13">
+        <v>801</v>
+      </c>
+      <c r="Q13">
+        <v>944</v>
+      </c>
+      <c r="R13">
+        <v>1184</v>
+      </c>
+      <c r="S13">
+        <v>1295</v>
+      </c>
+      <c r="T13">
+        <v>1454</v>
+      </c>
+      <c r="U13">
+        <v>1389</v>
+      </c>
+      <c r="V13">
+        <v>1113</v>
+      </c>
+      <c r="W13">
+        <v>1396</v>
+      </c>
+      <c r="X13">
+        <v>986</v>
+      </c>
+      <c r="Y13">
+        <v>1335</v>
+      </c>
+      <c r="Z13">
+        <v>1046</v>
+      </c>
+      <c r="AA13">
+        <v>1042</v>
+      </c>
+      <c r="AB13">
+        <v>1529</v>
+      </c>
+      <c r="AC13">
+        <v>1596</v>
+      </c>
+      <c r="AD13">
+        <v>1134</v>
+      </c>
+      <c r="AE13">
+        <v>1508</v>
+      </c>
+      <c r="AF13">
+        <v>824</v>
+      </c>
+      <c r="AG13">
+        <v>1080</v>
+      </c>
+      <c r="AH13">
+        <v>623</v>
+      </c>
+      <c r="AI13">
+        <v>1266</v>
+      </c>
+      <c r="AJ13">
+        <v>986</v>
+      </c>
+      <c r="AK13">
+        <v>1079</v>
+      </c>
+      <c r="AL13">
+        <v>1313</v>
+      </c>
+      <c r="AM13">
+        <v>963</v>
+      </c>
+      <c r="AN13">
+        <v>922</v>
+      </c>
+      <c r="AO13">
+        <v>1171</v>
+      </c>
+      <c r="AP13">
+        <v>721</v>
+      </c>
+      <c r="AQ13">
+        <v>3370</v>
+      </c>
+      <c r="AR13">
+        <v>1930</v>
+      </c>
+      <c r="AS13">
+        <v>3259</v>
+      </c>
+      <c r="AT13">
+        <v>3841</v>
+      </c>
+      <c r="AU13">
+        <v>5012</v>
+      </c>
+      <c r="AV13">
+        <v>1044</v>
+      </c>
+      <c r="AW13">
+        <v>4902</v>
+      </c>
+      <c r="AX13">
+        <v>587</v>
+      </c>
+      <c r="AY13">
+        <v>5018</v>
+      </c>
+      <c r="AZ13">
+        <v>664</v>
+      </c>
+      <c r="BA13">
+        <v>4199</v>
+      </c>
+      <c r="BB13">
+        <v>1051</v>
+      </c>
+      <c r="BC13">
+        <v>1219</v>
+      </c>
+      <c r="BD13">
+        <v>1000</v>
+      </c>
+      <c r="BE13">
+        <v>2266</v>
+      </c>
+      <c r="BF13">
+        <v>614</v>
+      </c>
+      <c r="BG13">
+        <v>3350</v>
+      </c>
+      <c r="BH13">
+        <v>957</v>
+      </c>
+      <c r="BI13">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61">
+      <c r="A14">
+        <f>error!A14</f>
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>828</v>
+      </c>
+      <c r="C14">
+        <v>3267</v>
+      </c>
+      <c r="D14">
+        <v>2203</v>
+      </c>
+      <c r="E14">
+        <v>4685</v>
+      </c>
+      <c r="F14">
+        <v>1328</v>
+      </c>
+      <c r="G14">
+        <v>2550</v>
+      </c>
+      <c r="H14">
+        <v>1399</v>
+      </c>
+      <c r="I14">
+        <v>1432</v>
+      </c>
+      <c r="J14">
+        <v>1161</v>
+      </c>
+      <c r="K14">
+        <v>1166</v>
+      </c>
+      <c r="L14">
+        <v>1286</v>
+      </c>
+      <c r="M14">
+        <v>3831</v>
+      </c>
+      <c r="N14">
+        <v>1199</v>
+      </c>
+      <c r="O14">
+        <v>4301</v>
+      </c>
+      <c r="P14">
+        <v>1599</v>
+      </c>
+      <c r="Q14">
+        <v>2433</v>
+      </c>
+      <c r="R14">
+        <v>898</v>
+      </c>
+      <c r="S14">
+        <v>1712</v>
+      </c>
+      <c r="T14">
+        <v>1099</v>
+      </c>
+      <c r="U14">
+        <v>2667</v>
+      </c>
+      <c r="V14">
+        <v>1196</v>
+      </c>
+      <c r="W14">
+        <v>998</v>
+      </c>
+      <c r="X14">
+        <v>1417</v>
+      </c>
+      <c r="Y14">
+        <v>2011</v>
+      </c>
+      <c r="Z14">
+        <v>1446</v>
+      </c>
+      <c r="AA14">
+        <v>2247</v>
+      </c>
+      <c r="AB14">
+        <v>1417</v>
+      </c>
+      <c r="AC14">
+        <v>1213</v>
+      </c>
+      <c r="AD14">
+        <v>1814</v>
+      </c>
+      <c r="AE14">
+        <v>1219</v>
+      </c>
+      <c r="AF14">
+        <v>1296</v>
+      </c>
+      <c r="AG14">
+        <v>1980</v>
+      </c>
+      <c r="AH14">
+        <v>1559</v>
+      </c>
+      <c r="AI14">
+        <v>2147</v>
+      </c>
+      <c r="AJ14">
+        <v>1780</v>
+      </c>
+      <c r="AK14">
+        <v>963</v>
+      </c>
+      <c r="AL14">
+        <v>1596</v>
+      </c>
+      <c r="AM14">
+        <v>729</v>
+      </c>
+      <c r="AN14">
+        <v>846</v>
+      </c>
+      <c r="AO14">
+        <v>1663</v>
+      </c>
+      <c r="AP14">
+        <v>3403</v>
+      </c>
+      <c r="AQ14">
+        <v>5018</v>
+      </c>
+      <c r="AR14">
+        <v>2215</v>
+      </c>
+      <c r="AS14">
+        <v>5001</v>
+      </c>
+      <c r="AT14">
+        <v>1251</v>
+      </c>
+      <c r="AU14">
+        <v>5001</v>
+      </c>
+      <c r="AV14">
+        <v>831</v>
+      </c>
+      <c r="AW14">
+        <v>5001</v>
+      </c>
+      <c r="AX14">
+        <v>1882</v>
+      </c>
+      <c r="AY14">
+        <v>5004</v>
+      </c>
+      <c r="AZ14">
+        <v>2569</v>
+      </c>
+      <c r="BA14">
+        <v>5001</v>
+      </c>
+      <c r="BB14">
+        <v>1198</v>
+      </c>
+      <c r="BC14">
+        <v>5002</v>
+      </c>
+      <c r="BD14">
+        <v>911</v>
+      </c>
+      <c r="BE14">
+        <v>5005</v>
+      </c>
+      <c r="BF14">
+        <v>1334</v>
+      </c>
+      <c r="BG14">
+        <v>5001</v>
+      </c>
+      <c r="BH14">
+        <v>2683</v>
+      </c>
+      <c r="BI14">
+        <v>5005</v>
+      </c>
+    </row>
     <row r="26" spans="1:69">
       <c r="A26" t="s">
         <v>35</v>
@@ -10138,7 +11406,7 @@
     </row>
     <row r="31" spans="1:69">
       <c r="A31">
-        <f t="shared" ref="A31:A37" si="7">A6</f>
+        <f t="shared" ref="A31:A39" si="7">A6</f>
         <v>3</v>
       </c>
       <c r="B31">
@@ -11732,27 +13000,27 @@
         <v/>
       </c>
       <c r="BL36">
-        <f t="shared" ref="BL36:BL38" si="14">AVERAGE(B36,D36,F36,H36,J36,L36,N36,P36,R36,T36)</f>
+        <f t="shared" ref="BL36:BL37" si="14">AVERAGE(B36,D36,F36,H36,J36,L36,N36,P36,R36,T36)</f>
         <v>1146.8</v>
       </c>
       <c r="BM36">
-        <f t="shared" ref="BM36:BM38" si="15">AVERAGE(C36,E36,G36,I36,K36,M36,O36,Q36,S36,U36)</f>
+        <f t="shared" ref="BM36:BM37" si="15">AVERAGE(C36,E36,G36,I36,K36,M36,O36,Q36,S36,U36)</f>
         <v>1370.2</v>
       </c>
       <c r="BN36">
-        <f t="shared" ref="BN36:BN38" si="16">AVERAGE(V36,X36,Z36,AB36,AD36,AF36,AH36,AJ36,AL36,AN36)</f>
+        <f t="shared" ref="BN36:BN37" si="16">AVERAGE(V36,X36,Z36,AB36,AD36,AF36,AH36,AJ36,AL36,AN36)</f>
         <v>1168.9000000000001</v>
       </c>
       <c r="BO36">
-        <f t="shared" ref="BO36:BO38" si="17">AVERAGE(W36,Y36,AA36,AC36,AE36,AG36,AI36,AK36,AM36,AO36)</f>
+        <f t="shared" ref="BO36:BO37" si="17">AVERAGE(W36,Y36,AA36,AC36,AE36,AG36,AI36,AK36,AM36,AO36)</f>
         <v>1520.2</v>
       </c>
       <c r="BP36">
-        <f t="shared" ref="BP36:BP38" si="18">AVERAGE(AP36,AR36,AT36,AV36,AX36,AZ36,BB36,BD36,BF36,BH36)</f>
+        <f t="shared" ref="BP36:BP37" si="18">AVERAGE(AP36,AR36,AT36,AV36,AX36,AZ36,BB36,BD36,BF36,BH36)</f>
         <v>1142.4000000000001</v>
       </c>
       <c r="BQ36">
-        <f t="shared" ref="BQ36:BQ38" si="19">AVERAGE(AQ36,AS36,AU36,AW36,AY36,BA36,BC36,BE36,BG36,BI36)</f>
+        <f t="shared" ref="BQ36:BQ37" si="19">AVERAGE(AQ36,AS36,AU36,AW36,AY36,BA36,BC36,BE36,BG36,BI36)</f>
         <v>1282</v>
       </c>
     </row>
@@ -12027,241 +13295,245 @@
       </c>
     </row>
     <row r="38" spans="1:69">
-      <c r="B38" t="str">
+      <c r="A38">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B38">
         <f>IF(error!B13=1,time!B13,"")</f>
-        <v/>
-      </c>
-      <c r="C38" t="str">
+        <v>1009</v>
+      </c>
+      <c r="C38">
         <f>IF(error!C13=1,time!C13,"")</f>
-        <v/>
-      </c>
-      <c r="D38" t="str">
+        <v>1283</v>
+      </c>
+      <c r="D38">
         <f>IF(error!D13=1,time!D13,"")</f>
-        <v/>
+        <v>999</v>
       </c>
       <c r="E38" t="str">
         <f>IF(error!E13=1,time!E13,"")</f>
         <v/>
       </c>
-      <c r="F38" t="str">
+      <c r="F38">
         <f>IF(error!F13=1,time!F13,"")</f>
-        <v/>
-      </c>
-      <c r="G38" t="str">
+        <v>863</v>
+      </c>
+      <c r="G38">
         <f>IF(error!G13=1,time!G13,"")</f>
-        <v/>
-      </c>
-      <c r="H38" t="str">
+        <v>1498</v>
+      </c>
+      <c r="H38">
         <f>IF(error!H13=1,time!H13,"")</f>
-        <v/>
-      </c>
-      <c r="I38" t="str">
+        <v>1589</v>
+      </c>
+      <c r="I38">
         <f>IF(error!I13=1,time!I13,"")</f>
-        <v/>
-      </c>
-      <c r="J38" t="str">
+        <v>1136</v>
+      </c>
+      <c r="J38">
         <f>IF(error!J13=1,time!J13,"")</f>
-        <v/>
-      </c>
-      <c r="K38" t="str">
+        <v>1010</v>
+      </c>
+      <c r="K38">
         <f>IF(error!K13=1,time!K13,"")</f>
-        <v/>
-      </c>
-      <c r="L38" t="str">
+        <v>1245</v>
+      </c>
+      <c r="L38">
         <f>IF(error!L13=1,time!L13,"")</f>
-        <v/>
-      </c>
-      <c r="M38" t="str">
+        <v>919</v>
+      </c>
+      <c r="M38">
         <f>IF(error!M13=1,time!M13,"")</f>
-        <v/>
-      </c>
-      <c r="N38" t="str">
+        <v>2867</v>
+      </c>
+      <c r="N38">
         <f>IF(error!N13=1,time!N13,"")</f>
-        <v/>
-      </c>
-      <c r="O38" t="str">
+        <v>1212</v>
+      </c>
+      <c r="O38">
         <f>IF(error!O13=1,time!O13,"")</f>
-        <v/>
-      </c>
-      <c r="P38" t="str">
+        <v>1516</v>
+      </c>
+      <c r="P38">
         <f>IF(error!P13=1,time!P13,"")</f>
-        <v/>
-      </c>
-      <c r="Q38" t="str">
+        <v>801</v>
+      </c>
+      <c r="Q38">
         <f>IF(error!Q13=1,time!Q13,"")</f>
-        <v/>
-      </c>
-      <c r="R38" t="str">
+        <v>944</v>
+      </c>
+      <c r="R38">
         <f>IF(error!R13=1,time!R13,"")</f>
-        <v/>
-      </c>
-      <c r="S38" t="str">
+        <v>1184</v>
+      </c>
+      <c r="S38">
         <f>IF(error!S13=1,time!S13,"")</f>
-        <v/>
-      </c>
-      <c r="T38" t="str">
+        <v>1295</v>
+      </c>
+      <c r="T38">
         <f>IF(error!T13=1,time!T13,"")</f>
-        <v/>
-      </c>
-      <c r="U38" t="str">
+        <v>1454</v>
+      </c>
+      <c r="U38">
         <f>IF(error!U13=1,time!U13,"")</f>
-        <v/>
-      </c>
-      <c r="V38" t="str">
+        <v>1389</v>
+      </c>
+      <c r="V38">
         <f>IF(error!V13=1,time!V13,"")</f>
-        <v/>
-      </c>
-      <c r="W38" t="str">
+        <v>1113</v>
+      </c>
+      <c r="W38">
         <f>IF(error!W13=1,time!W13,"")</f>
-        <v/>
-      </c>
-      <c r="X38" t="str">
+        <v>1396</v>
+      </c>
+      <c r="X38">
         <f>IF(error!X13=1,time!X13,"")</f>
-        <v/>
-      </c>
-      <c r="Y38" t="str">
+        <v>986</v>
+      </c>
+      <c r="Y38">
         <f>IF(error!Y13=1,time!Y13,"")</f>
-        <v/>
-      </c>
-      <c r="Z38" t="str">
+        <v>1335</v>
+      </c>
+      <c r="Z38">
         <f>IF(error!Z13=1,time!Z13,"")</f>
-        <v/>
-      </c>
-      <c r="AA38" t="str">
+        <v>1046</v>
+      </c>
+      <c r="AA38">
         <f>IF(error!AA13=1,time!AA13,"")</f>
-        <v/>
-      </c>
-      <c r="AB38" t="str">
+        <v>1042</v>
+      </c>
+      <c r="AB38">
         <f>IF(error!AB13=1,time!AB13,"")</f>
-        <v/>
-      </c>
-      <c r="AC38" t="str">
+        <v>1529</v>
+      </c>
+      <c r="AC38">
         <f>IF(error!AC13=1,time!AC13,"")</f>
-        <v/>
-      </c>
-      <c r="AD38" t="str">
+        <v>1596</v>
+      </c>
+      <c r="AD38">
         <f>IF(error!AD13=1,time!AD13,"")</f>
-        <v/>
-      </c>
-      <c r="AE38" t="str">
+        <v>1134</v>
+      </c>
+      <c r="AE38">
         <f>IF(error!AE13=1,time!AE13,"")</f>
-        <v/>
-      </c>
-      <c r="AF38" t="str">
+        <v>1508</v>
+      </c>
+      <c r="AF38">
         <f>IF(error!AF13=1,time!AF13,"")</f>
-        <v/>
-      </c>
-      <c r="AG38" t="str">
+        <v>824</v>
+      </c>
+      <c r="AG38">
         <f>IF(error!AG13=1,time!AG13,"")</f>
-        <v/>
-      </c>
-      <c r="AH38" t="str">
+        <v>1080</v>
+      </c>
+      <c r="AH38">
         <f>IF(error!AH13=1,time!AH13,"")</f>
-        <v/>
-      </c>
-      <c r="AI38" t="str">
+        <v>623</v>
+      </c>
+      <c r="AI38">
         <f>IF(error!AI13=1,time!AI13,"")</f>
-        <v/>
-      </c>
-      <c r="AJ38" t="str">
+        <v>1266</v>
+      </c>
+      <c r="AJ38">
         <f>IF(error!AJ13=1,time!AJ13,"")</f>
-        <v/>
-      </c>
-      <c r="AK38" t="str">
+        <v>986</v>
+      </c>
+      <c r="AK38">
         <f>IF(error!AK13=1,time!AK13,"")</f>
-        <v/>
-      </c>
-      <c r="AL38" t="str">
+        <v>1079</v>
+      </c>
+      <c r="AL38">
         <f>IF(error!AL13=1,time!AL13,"")</f>
-        <v/>
-      </c>
-      <c r="AM38" t="str">
+        <v>1313</v>
+      </c>
+      <c r="AM38">
         <f>IF(error!AM13=1,time!AM13,"")</f>
-        <v/>
-      </c>
-      <c r="AN38" t="str">
+        <v>963</v>
+      </c>
+      <c r="AN38">
         <f>IF(error!AN13=1,time!AN13,"")</f>
-        <v/>
-      </c>
-      <c r="AO38" t="str">
+        <v>922</v>
+      </c>
+      <c r="AO38">
         <f>IF(error!AO13=1,time!AO13,"")</f>
-        <v/>
-      </c>
-      <c r="AP38" t="str">
+        <v>1171</v>
+      </c>
+      <c r="AP38">
         <f>IF(error!AP13=1,time!AP13,"")</f>
-        <v/>
-      </c>
-      <c r="AQ38" t="str">
+        <v>721</v>
+      </c>
+      <c r="AQ38">
         <f>IF(error!AQ13=1,time!AQ13,"")</f>
-        <v/>
-      </c>
-      <c r="AR38" t="str">
+        <v>3370</v>
+      </c>
+      <c r="AR38">
         <f>IF(error!AR13=1,time!AR13,"")</f>
-        <v/>
-      </c>
-      <c r="AS38" t="str">
+        <v>1930</v>
+      </c>
+      <c r="AS38">
         <f>IF(error!AS13=1,time!AS13,"")</f>
-        <v/>
-      </c>
-      <c r="AT38" t="str">
+        <v>3259</v>
+      </c>
+      <c r="AT38">
         <f>IF(error!AT13=1,time!AT13,"")</f>
-        <v/>
+        <v>3841</v>
       </c>
       <c r="AU38" t="str">
         <f>IF(error!AU13=1,time!AU13,"")</f>
         <v/>
       </c>
-      <c r="AV38" t="str">
+      <c r="AV38">
         <f>IF(error!AV13=1,time!AV13,"")</f>
-        <v/>
-      </c>
-      <c r="AW38" t="str">
+        <v>1044</v>
+      </c>
+      <c r="AW38">
         <f>IF(error!AW13=1,time!AW13,"")</f>
-        <v/>
-      </c>
-      <c r="AX38" t="str">
+        <v>4902</v>
+      </c>
+      <c r="AX38">
         <f>IF(error!AX13=1,time!AX13,"")</f>
-        <v/>
-      </c>
-      <c r="AY38" t="str">
+        <v>587</v>
+      </c>
+      <c r="AY38">
         <f>IF(error!AY13=1,time!AY13,"")</f>
-        <v/>
-      </c>
-      <c r="AZ38" t="str">
+        <v>5018</v>
+      </c>
+      <c r="AZ38">
         <f>IF(error!AZ13=1,time!AZ13,"")</f>
-        <v/>
-      </c>
-      <c r="BA38" t="str">
+        <v>664</v>
+      </c>
+      <c r="BA38">
         <f>IF(error!BA13=1,time!BA13,"")</f>
-        <v/>
-      </c>
-      <c r="BB38" t="str">
+        <v>4199</v>
+      </c>
+      <c r="BB38">
         <f>IF(error!BB13=1,time!BB13,"")</f>
-        <v/>
-      </c>
-      <c r="BC38" t="str">
+        <v>1051</v>
+      </c>
+      <c r="BC38">
         <f>IF(error!BC13=1,time!BC13,"")</f>
-        <v/>
-      </c>
-      <c r="BD38" t="str">
+        <v>1219</v>
+      </c>
+      <c r="BD38">
         <f>IF(error!BD13=1,time!BD13,"")</f>
-        <v/>
-      </c>
-      <c r="BE38" t="str">
+        <v>1000</v>
+      </c>
+      <c r="BE38">
         <f>IF(error!BE13=1,time!BE13,"")</f>
-        <v/>
-      </c>
-      <c r="BF38" t="str">
+        <v>2266</v>
+      </c>
+      <c r="BF38">
         <f>IF(error!BF13=1,time!BF13,"")</f>
-        <v/>
-      </c>
-      <c r="BG38" t="str">
+        <v>614</v>
+      </c>
+      <c r="BG38">
         <f>IF(error!BG13=1,time!BG13,"")</f>
-        <v/>
-      </c>
-      <c r="BH38" t="str">
+        <v>3350</v>
+      </c>
+      <c r="BH38">
         <f>IF(error!BH13=1,time!BH13,"")</f>
-        <v/>
+        <v>957</v>
       </c>
       <c r="BI38" t="str">
         <f>IF(error!BI13=1,time!BI13,"")</f>
@@ -12269,241 +13541,245 @@
       </c>
     </row>
     <row r="39" spans="1:69">
-      <c r="B39" t="str">
+      <c r="A39">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="B39">
         <f>IF(error!B14=1,time!B14,"")</f>
-        <v/>
-      </c>
-      <c r="C39" t="str">
+        <v>828</v>
+      </c>
+      <c r="C39">
         <f>IF(error!C14=1,time!C14,"")</f>
-        <v/>
-      </c>
-      <c r="D39" t="str">
+        <v>3267</v>
+      </c>
+      <c r="D39">
         <f>IF(error!D14=1,time!D14,"")</f>
-        <v/>
-      </c>
-      <c r="E39" t="str">
+        <v>2203</v>
+      </c>
+      <c r="E39">
         <f>IF(error!E14=1,time!E14,"")</f>
-        <v/>
-      </c>
-      <c r="F39" t="str">
+        <v>4685</v>
+      </c>
+      <c r="F39">
         <f>IF(error!F14=1,time!F14,"")</f>
-        <v/>
-      </c>
-      <c r="G39" t="str">
+        <v>1328</v>
+      </c>
+      <c r="G39">
         <f>IF(error!G14=1,time!G14,"")</f>
-        <v/>
-      </c>
-      <c r="H39" t="str">
+        <v>2550</v>
+      </c>
+      <c r="H39">
         <f>IF(error!H14=1,time!H14,"")</f>
-        <v/>
-      </c>
-      <c r="I39" t="str">
+        <v>1399</v>
+      </c>
+      <c r="I39">
         <f>IF(error!I14=1,time!I14,"")</f>
-        <v/>
-      </c>
-      <c r="J39" t="str">
+        <v>1432</v>
+      </c>
+      <c r="J39">
         <f>IF(error!J14=1,time!J14,"")</f>
-        <v/>
-      </c>
-      <c r="K39" t="str">
+        <v>1161</v>
+      </c>
+      <c r="K39">
         <f>IF(error!K14=1,time!K14,"")</f>
-        <v/>
-      </c>
-      <c r="L39" t="str">
+        <v>1166</v>
+      </c>
+      <c r="L39">
         <f>IF(error!L14=1,time!L14,"")</f>
-        <v/>
-      </c>
-      <c r="M39" t="str">
+        <v>1286</v>
+      </c>
+      <c r="M39">
         <f>IF(error!M14=1,time!M14,"")</f>
-        <v/>
-      </c>
-      <c r="N39" t="str">
+        <v>3831</v>
+      </c>
+      <c r="N39">
         <f>IF(error!N14=1,time!N14,"")</f>
-        <v/>
-      </c>
-      <c r="O39" t="str">
+        <v>1199</v>
+      </c>
+      <c r="O39">
         <f>IF(error!O14=1,time!O14,"")</f>
-        <v/>
-      </c>
-      <c r="P39" t="str">
+        <v>4301</v>
+      </c>
+      <c r="P39">
         <f>IF(error!P14=1,time!P14,"")</f>
-        <v/>
-      </c>
-      <c r="Q39" t="str">
+        <v>1599</v>
+      </c>
+      <c r="Q39">
         <f>IF(error!Q14=1,time!Q14,"")</f>
-        <v/>
-      </c>
-      <c r="R39" t="str">
+        <v>2433</v>
+      </c>
+      <c r="R39">
         <f>IF(error!R14=1,time!R14,"")</f>
-        <v/>
-      </c>
-      <c r="S39" t="str">
+        <v>898</v>
+      </c>
+      <c r="S39">
         <f>IF(error!S14=1,time!S14,"")</f>
-        <v/>
-      </c>
-      <c r="T39" t="str">
+        <v>1712</v>
+      </c>
+      <c r="T39">
         <f>IF(error!T14=1,time!T14,"")</f>
-        <v/>
-      </c>
-      <c r="U39" t="str">
+        <v>1099</v>
+      </c>
+      <c r="U39">
         <f>IF(error!U14=1,time!U14,"")</f>
-        <v/>
-      </c>
-      <c r="V39" t="str">
+        <v>2667</v>
+      </c>
+      <c r="V39">
         <f>IF(error!V14=1,time!V14,"")</f>
-        <v/>
-      </c>
-      <c r="W39" t="str">
+        <v>1196</v>
+      </c>
+      <c r="W39">
         <f>IF(error!W14=1,time!W14,"")</f>
-        <v/>
-      </c>
-      <c r="X39" t="str">
+        <v>998</v>
+      </c>
+      <c r="X39">
         <f>IF(error!X14=1,time!X14,"")</f>
-        <v/>
-      </c>
-      <c r="Y39" t="str">
+        <v>1417</v>
+      </c>
+      <c r="Y39">
         <f>IF(error!Y14=1,time!Y14,"")</f>
-        <v/>
-      </c>
-      <c r="Z39" t="str">
+        <v>2011</v>
+      </c>
+      <c r="Z39">
         <f>IF(error!Z14=1,time!Z14,"")</f>
-        <v/>
-      </c>
-      <c r="AA39" t="str">
+        <v>1446</v>
+      </c>
+      <c r="AA39">
         <f>IF(error!AA14=1,time!AA14,"")</f>
-        <v/>
-      </c>
-      <c r="AB39" t="str">
+        <v>2247</v>
+      </c>
+      <c r="AB39">
         <f>IF(error!AB14=1,time!AB14,"")</f>
-        <v/>
-      </c>
-      <c r="AC39" t="str">
+        <v>1417</v>
+      </c>
+      <c r="AC39">
         <f>IF(error!AC14=1,time!AC14,"")</f>
-        <v/>
-      </c>
-      <c r="AD39" t="str">
+        <v>1213</v>
+      </c>
+      <c r="AD39">
         <f>IF(error!AD14=1,time!AD14,"")</f>
-        <v/>
-      </c>
-      <c r="AE39" t="str">
+        <v>1814</v>
+      </c>
+      <c r="AE39">
         <f>IF(error!AE14=1,time!AE14,"")</f>
-        <v/>
-      </c>
-      <c r="AF39" t="str">
+        <v>1219</v>
+      </c>
+      <c r="AF39">
         <f>IF(error!AF14=1,time!AF14,"")</f>
-        <v/>
-      </c>
-      <c r="AG39" t="str">
+        <v>1296</v>
+      </c>
+      <c r="AG39">
         <f>IF(error!AG14=1,time!AG14,"")</f>
-        <v/>
-      </c>
-      <c r="AH39" t="str">
+        <v>1980</v>
+      </c>
+      <c r="AH39">
         <f>IF(error!AH14=1,time!AH14,"")</f>
-        <v/>
-      </c>
-      <c r="AI39" t="str">
+        <v>1559</v>
+      </c>
+      <c r="AI39">
         <f>IF(error!AI14=1,time!AI14,"")</f>
-        <v/>
-      </c>
-      <c r="AJ39" t="str">
+        <v>2147</v>
+      </c>
+      <c r="AJ39">
         <f>IF(error!AJ14=1,time!AJ14,"")</f>
-        <v/>
-      </c>
-      <c r="AK39" t="str">
+        <v>1780</v>
+      </c>
+      <c r="AK39">
         <f>IF(error!AK14=1,time!AK14,"")</f>
-        <v/>
-      </c>
-      <c r="AL39" t="str">
+        <v>963</v>
+      </c>
+      <c r="AL39">
         <f>IF(error!AL14=1,time!AL14,"")</f>
-        <v/>
+        <v>1596</v>
       </c>
       <c r="AM39" t="str">
         <f>IF(error!AM14=1,time!AM14,"")</f>
         <v/>
       </c>
-      <c r="AN39" t="str">
+      <c r="AN39">
         <f>IF(error!AN14=1,time!AN14,"")</f>
-        <v/>
-      </c>
-      <c r="AO39" t="str">
+        <v>846</v>
+      </c>
+      <c r="AO39">
         <f>IF(error!AO14=1,time!AO14,"")</f>
-        <v/>
-      </c>
-      <c r="AP39" t="str">
+        <v>1663</v>
+      </c>
+      <c r="AP39">
         <f>IF(error!AP14=1,time!AP14,"")</f>
-        <v/>
+        <v>3403</v>
       </c>
       <c r="AQ39" t="str">
         <f>IF(error!AQ14=1,time!AQ14,"")</f>
         <v/>
       </c>
-      <c r="AR39" t="str">
+      <c r="AR39">
         <f>IF(error!AR14=1,time!AR14,"")</f>
-        <v/>
+        <v>2215</v>
       </c>
       <c r="AS39" t="str">
         <f>IF(error!AS14=1,time!AS14,"")</f>
         <v/>
       </c>
-      <c r="AT39" t="str">
+      <c r="AT39">
         <f>IF(error!AT14=1,time!AT14,"")</f>
-        <v/>
+        <v>1251</v>
       </c>
       <c r="AU39" t="str">
         <f>IF(error!AU14=1,time!AU14,"")</f>
         <v/>
       </c>
-      <c r="AV39" t="str">
+      <c r="AV39">
         <f>IF(error!AV14=1,time!AV14,"")</f>
-        <v/>
+        <v>831</v>
       </c>
       <c r="AW39" t="str">
         <f>IF(error!AW14=1,time!AW14,"")</f>
         <v/>
       </c>
-      <c r="AX39" t="str">
+      <c r="AX39">
         <f>IF(error!AX14=1,time!AX14,"")</f>
-        <v/>
-      </c>
-      <c r="AY39" t="str">
+        <v>1882</v>
+      </c>
+      <c r="AY39">
         <f>IF(error!AY14=1,time!AY14,"")</f>
-        <v/>
-      </c>
-      <c r="AZ39" t="str">
+        <v>5004</v>
+      </c>
+      <c r="AZ39">
         <f>IF(error!AZ14=1,time!AZ14,"")</f>
-        <v/>
+        <v>2569</v>
       </c>
       <c r="BA39" t="str">
         <f>IF(error!BA14=1,time!BA14,"")</f>
         <v/>
       </c>
-      <c r="BB39" t="str">
+      <c r="BB39">
         <f>IF(error!BB14=1,time!BB14,"")</f>
-        <v/>
+        <v>1198</v>
       </c>
       <c r="BC39" t="str">
         <f>IF(error!BC14=1,time!BC14,"")</f>
         <v/>
       </c>
-      <c r="BD39" t="str">
+      <c r="BD39">
         <f>IF(error!BD14=1,time!BD14,"")</f>
-        <v/>
+        <v>911</v>
       </c>
       <c r="BE39" t="str">
         <f>IF(error!BE14=1,time!BE14,"")</f>
         <v/>
       </c>
-      <c r="BF39" t="str">
+      <c r="BF39">
         <f>IF(error!BF14=1,time!BF14,"")</f>
-        <v/>
+        <v>1334</v>
       </c>
       <c r="BG39" t="str">
         <f>IF(error!BG14=1,time!BG14,"")</f>
         <v/>
       </c>
-      <c r="BH39" t="str">
+      <c r="BH39">
         <f>IF(error!BH14=1,time!BH14,"")</f>
-        <v/>
+        <v>2683</v>
       </c>
       <c r="BI39" t="str">
         <f>IF(error!BI14=1,time!BI14,"")</f>
@@ -12568,27 +13844,27 @@
       </c>
       <c r="B47">
         <f>AVERAGE(B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42)</f>
-        <v>1123.5250000000001</v>
+        <v>1139.22</v>
       </c>
       <c r="C47">
         <f>AVERAGE(C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42)</f>
-        <v>1551.3684210526317</v>
+        <v>1674.957894736842</v>
       </c>
       <c r="V47">
         <f t="shared" ref="V47:AQ47" si="26">AVERAGE(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42)</f>
-        <v>1015.725</v>
+        <v>1061.01</v>
       </c>
       <c r="W47">
         <f t="shared" si="26"/>
-        <v>1244.1756756756756</v>
+        <v>1278.989247311828</v>
       </c>
       <c r="AP47">
         <f t="shared" si="26"/>
-        <v>1315.1866666666667</v>
+        <v>1361.3157894736842</v>
       </c>
       <c r="AQ47">
         <f t="shared" si="26"/>
-        <v>2146.4193548387098</v>
+        <v>2478.15</v>
       </c>
     </row>
     <row r="48" spans="1:69">
@@ -12597,27 +13873,27 @@
       </c>
       <c r="B48">
         <f>STDEV((B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42))/SQRT(COUNT(B30:B42,D30:D42,F30:F42,H30:H42,J30:J42,L30:L42,N30:N42,P30:P42,R30:R42,T30:T42))</f>
-        <v>31.352194798305373</v>
+        <v>29.235396354419407</v>
       </c>
       <c r="C48">
         <f>STDEV((C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42))/SQRT(COUNT(C30:C42,E30:E42,G30:G42,I30:I42,K30:K42,M30:M42,O30:O42,Q30:Q42,S30:S42,U30:U42))</f>
-        <v>93.016923270842369</v>
+        <v>94.13276573395305</v>
       </c>
       <c r="V48">
         <f>STDEV((V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42))/SQRT(COUNT(V30:V42,X30:X42,Z30:Z42,AB30:AB42,AD30:AD42,AF30:AF42,AH30:AH42,AJ30:AJ42,AL30:AL42,AN30:AN42))</f>
-        <v>44.483416676073965</v>
+        <v>39.413350799089905</v>
       </c>
       <c r="W48">
         <f>STDEV((W30:W42,Y30:Y42,AA30:AA42,AC30:AC42,AE30:AE42,AG30:AG42,AI30:AI42,AK30:AK42,AM30:AM42,AO30:AO42))/SQRT(COUNT(W30:W42,Y30:Y42,AA30:AA42,AC30:AC42,AE30:AE42,AG30:AG42,AI30:AI42,AK30:AK42,AM30:AM42,AO30:AO42))</f>
-        <v>63.607603292640107</v>
+        <v>54.501606219974747</v>
       </c>
       <c r="AP48">
         <f>STDEV((AP30:AP42,AR30:AR42,AT30:AT42,AV30:AV42,AX30:AX42,AZ30:AZ42,BB30:BB42,BD30:BD42,BF30:BF42,BH30:BH42))/SQRT(COUNT(AP30:AP42,AR30:AR42,AT30:AT42,AV30:AV42,AX30:AX42,AZ30:AZ42,BB30:BB42,BD30:BD42,BF30:BF42,BH30:BH42))</f>
-        <v>107.70861709165054</v>
+        <v>96.094400281935677</v>
       </c>
       <c r="AQ48">
         <f>STDEV((AQ30:AQ42,AS30:AS42,AU30:AU42,AW30:AW42,AY30:AY42,BA30:BA42,BC30:BC42,BE30:BE42,BG30:BG42,BI30:BI42))/SQRT(COUNT(AQ30:AQ42,AS30:AS42,AU30:AU42,AW30:AW42,AY30:AY42,BA30:BA42,BC30:BC42,BE30:BE42,BG30:BG42,BI30:BI42))</f>
-        <v>243.31333740581513</v>
+        <v>231.95314389233542</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -12641,15 +13917,15 @@
       </c>
       <c r="B54">
         <f>B47</f>
-        <v>1123.5250000000001</v>
+        <v>1139.22</v>
       </c>
       <c r="C54">
         <f>V47</f>
-        <v>1015.725</v>
+        <v>1061.01</v>
       </c>
       <c r="D54">
         <f>AP47</f>
-        <v>1315.1866666666667</v>
+        <v>1361.3157894736842</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -12659,15 +13935,15 @@
       </c>
       <c r="B55">
         <f>C47</f>
-        <v>1551.3684210526317</v>
+        <v>1674.957894736842</v>
       </c>
       <c r="C55">
         <f>W47</f>
-        <v>1244.1756756756756</v>
+        <v>1278.989247311828</v>
       </c>
       <c r="D55">
         <f>AQ47</f>
-        <v>2146.4193548387098</v>
+        <v>2478.15</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -12691,15 +13967,15 @@
       </c>
       <c r="B60">
         <f>B48</f>
-        <v>31.352194798305373</v>
+        <v>29.235396354419407</v>
       </c>
       <c r="C60">
         <f>V48</f>
-        <v>44.483416676073965</v>
+        <v>39.413350799089905</v>
       </c>
       <c r="D60">
         <f>AP48</f>
-        <v>107.70861709165054</v>
+        <v>96.094400281935677</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -12709,15 +13985,15 @@
       </c>
       <c r="B61">
         <f>C48</f>
-        <v>93.016923270842369</v>
+        <v>94.13276573395305</v>
       </c>
       <c r="C61">
         <f>W48</f>
-        <v>63.607603292640107</v>
+        <v>54.501606219974747</v>
       </c>
       <c r="D61">
         <f>AQ48</f>
-        <v>243.31333740581513</v>
+        <v>231.95314389233542</v>
       </c>
     </row>
   </sheetData>

--- a/UnityProject/results.xlsx
+++ b/UnityProject/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="330" windowWidth="24240" windowHeight="13740" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="330" windowWidth="24240" windowHeight="13740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="time" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Demographics" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>rep_0--ecc_0--tech_3</t>
   </si>
@@ -159,6 +160,42 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>3F</t>
   </si>
 </sst>
 </file>
@@ -349,24 +386,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127261312"/>
-        <c:axId val="127345024"/>
+        <c:axId val="126748160"/>
+        <c:axId val="126749696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127261312"/>
+        <c:axId val="126748160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127345024"/>
+        <c:crossAx val="126749696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127345024"/>
+        <c:axId val="126749696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -376,21 +413,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127261312"/>
+        <c:crossAx val="126748160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -585,24 +621,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133083904"/>
-        <c:axId val="133085440"/>
+        <c:axId val="127978112"/>
+        <c:axId val="127979904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133083904"/>
+        <c:axId val="127978112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133085440"/>
+        <c:crossAx val="127979904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133085440"/>
+        <c:axId val="127979904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +646,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133083904"/>
+        <c:crossAx val="127978112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -624,7 +660,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7493,7 +7529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
@@ -28435,4 +28471,226 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13">
+        <f>MIN(B2:B11)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14">
+        <f>MAX(B2:B11)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15">
+        <f>MEDIAN(B2:B11)</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>